--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B627"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,5010 +456,3514 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44046</v>
+        <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1385.991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44047</v>
+        <v>44473</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005</v>
+        <v>1399.173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44048</v>
+        <v>44474</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1431.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44049</v>
+        <v>44475</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1451.175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44050</v>
+        <v>44476</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1375.863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>44053</v>
+        <v>44477</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008</v>
+        <v>1371.958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>44054</v>
+        <v>44481</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1367.051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>44055</v>
+        <v>44482</v>
       </c>
       <c r="B9" t="n">
-        <v>0.103</v>
+        <v>1364.701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>44056</v>
+        <v>44483</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126</v>
+        <v>1445.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44057</v>
+        <v>44484</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001</v>
+        <v>1462.297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>44060</v>
+        <v>44487</v>
       </c>
       <c r="B12" t="n">
-        <v>0.054</v>
+        <v>1477.114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>44061</v>
+        <v>44488</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002</v>
+        <v>1470.739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>44062</v>
+        <v>44489</v>
       </c>
       <c r="B14" t="n">
-        <v>0.112</v>
+        <v>1493.961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>44063</v>
+        <v>44490</v>
       </c>
       <c r="B15" t="n">
-        <v>0.15</v>
+        <v>1458.605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>44064</v>
+        <v>44491</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1403.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>44067</v>
+        <v>44494</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1413.188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>44068</v>
+        <v>44495</v>
       </c>
       <c r="B18" t="n">
-        <v>0.012</v>
+        <v>1423.198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>44069</v>
+        <v>44496</v>
       </c>
       <c r="B19" t="n">
-        <v>0.008999999999999999</v>
+        <v>1433.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>44070</v>
+        <v>44497</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002</v>
+        <v>1384.684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>44071</v>
+        <v>44498</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1502.296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>44074</v>
+        <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>0.011</v>
+        <v>1358.606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>44075</v>
+        <v>44502</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008</v>
+        <v>1329.913</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44076</v>
+        <v>44503</v>
       </c>
       <c r="B24" t="n">
-        <v>0.014</v>
+        <v>1343.985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44077</v>
+        <v>44504</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1348.539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44078</v>
+        <v>44505</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1354.059</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44082</v>
+        <v>44508</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1354.382</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44083</v>
+        <v>44509</v>
       </c>
       <c r="B28" t="n">
-        <v>0.001</v>
+        <v>1377.197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44084</v>
+        <v>44510</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01</v>
+        <v>1448.623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44085</v>
+        <v>44512</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1417.643</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44088</v>
+        <v>44515</v>
       </c>
       <c r="B31" t="n">
-        <v>0.001</v>
+        <v>1391.657</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44089</v>
+        <v>44516</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002</v>
+        <v>1466.857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44090</v>
+        <v>44517</v>
       </c>
       <c r="B33" t="n">
-        <v>0.055</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44091</v>
+        <v>44518</v>
       </c>
       <c r="B34" t="n">
-        <v>0.001</v>
+        <v>1584.097</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44092</v>
+        <v>44519</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1575.384</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44095</v>
+        <v>44522</v>
       </c>
       <c r="B36" t="n">
-        <v>0.054</v>
+        <v>1573.769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44096</v>
+        <v>44523</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1571.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44097</v>
+        <v>44524</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001</v>
+        <v>1452.897</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44098</v>
+        <v>44526</v>
       </c>
       <c r="B39" t="n">
-        <v>0.004</v>
+        <v>1451.108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44099</v>
+        <v>44529</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1459.339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44102</v>
+        <v>44530</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1517.956</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44103</v>
+        <v>44531</v>
       </c>
       <c r="B42" t="n">
-        <v>1.301</v>
+        <v>1427.347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44104</v>
+        <v>44532</v>
       </c>
       <c r="B43" t="n">
-        <v>0.85</v>
+        <v>1448.585</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44105</v>
+        <v>44533</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001</v>
+        <v>1475.464</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44106</v>
+        <v>44536</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1487.996</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44109</v>
+        <v>44537</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1455.038</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44110</v>
+        <v>44538</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1484.192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44111</v>
+        <v>44539</v>
       </c>
       <c r="B48" t="n">
-        <v>0.011</v>
+        <v>1500.027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44112</v>
+        <v>44540</v>
       </c>
       <c r="B49" t="n">
-        <v>0.212</v>
+        <v>1507.147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44113</v>
+        <v>44543</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1599.768</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44117</v>
+        <v>44544</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1584.488</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44118</v>
+        <v>44545</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1621.097</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44119</v>
+        <v>44546</v>
       </c>
       <c r="B53" t="n">
-        <v>0.001</v>
+        <v>1657.626</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44120</v>
+        <v>44547</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002</v>
+        <v>1704.586</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44123</v>
+        <v>44550</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004</v>
+        <v>1758.041</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44124</v>
+        <v>44551</v>
       </c>
       <c r="B56" t="n">
-        <v>0.007</v>
+        <v>1748.285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44125</v>
+        <v>44552</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1699.277</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44126</v>
+        <v>44553</v>
       </c>
       <c r="B58" t="n">
-        <v>0.001</v>
+        <v>1577.78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44127</v>
+        <v>44557</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1580.347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44130</v>
+        <v>44558</v>
       </c>
       <c r="B60" t="n">
-        <v>0.001</v>
+        <v>1637.064</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44131</v>
+        <v>44559</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1642.506</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44132</v>
+        <v>44560</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005</v>
+        <v>1696.476</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>44133</v>
+        <v>44561</v>
       </c>
       <c r="B63" t="n">
-        <v>0.014</v>
+        <v>1904.582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>44134</v>
+        <v>44564</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001</v>
+        <v>1579.526</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>44137</v>
+        <v>44565</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1495.692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>44138</v>
+        <v>44566</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1492.787</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>44139</v>
+        <v>44567</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1510.553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>44140</v>
+        <v>44568</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1530.096</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>44141</v>
+        <v>44571</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1560.421</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>44144</v>
+        <v>44572</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1527.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>44145</v>
+        <v>44573</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1536.981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>44147</v>
+        <v>44574</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1636.742</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>44148</v>
+        <v>44575</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003</v>
+        <v>1598.887</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>44151</v>
+        <v>44579</v>
       </c>
       <c r="B74" t="n">
-        <v>0.013</v>
+        <v>1597.137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>44152</v>
+        <v>44580</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1656.576</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>44153</v>
+        <v>44581</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1678.931</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>44154</v>
+        <v>44582</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1706.127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>44155</v>
+        <v>44585</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1614.002</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>44158</v>
+        <v>44586</v>
       </c>
       <c r="B79" t="n">
-        <v>0.485</v>
+        <v>1599.502</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>44159</v>
+        <v>44587</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001</v>
+        <v>1613.046</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>44160</v>
+        <v>44588</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1583.895</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>44162</v>
+        <v>44589</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1615.021</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>44165</v>
+        <v>44592</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006</v>
+        <v>1654.85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>44166</v>
+        <v>44593</v>
       </c>
       <c r="B84" t="n">
-        <v>0.002</v>
+        <v>1584.109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>44167</v>
+        <v>44594</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001</v>
+        <v>1626.895</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>44168</v>
+        <v>44595</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1640.397</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>44169</v>
+        <v>44596</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1642.892</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>44172</v>
+        <v>44599</v>
       </c>
       <c r="B88" t="n">
-        <v>0.001</v>
+        <v>1679.932</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>44173</v>
+        <v>44600</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001</v>
+        <v>1674.61</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>44174</v>
+        <v>44601</v>
       </c>
       <c r="B90" t="n">
-        <v>0.003</v>
+        <v>1653.153</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>44175</v>
+        <v>44602</v>
       </c>
       <c r="B91" t="n">
-        <v>0.001</v>
+        <v>1634.146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>44176</v>
+        <v>44603</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1635.826</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>44179</v>
+        <v>44606</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1</v>
+        <v>1666.232</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>44180</v>
+        <v>44607</v>
       </c>
       <c r="B94" t="n">
-        <v>0.001</v>
+        <v>1608.494</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>44181</v>
+        <v>44608</v>
       </c>
       <c r="B95" t="n">
-        <v>0.026</v>
+        <v>1644.134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>44182</v>
+        <v>44609</v>
       </c>
       <c r="B96" t="n">
-        <v>0.014</v>
+        <v>1647.202</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>44183</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
-        <v>0.032</v>
+        <v>1674.929</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>44186</v>
+        <v>44614</v>
       </c>
       <c r="B98" t="n">
-        <v>0.435</v>
+        <v>1699.432</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>44187</v>
+        <v>44615</v>
       </c>
       <c r="B99" t="n">
-        <v>0.406</v>
+        <v>1738.322</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>44188</v>
+        <v>44616</v>
       </c>
       <c r="B100" t="n">
-        <v>0.857</v>
+        <v>1650.399</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>44189</v>
+        <v>44617</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01</v>
+        <v>1603.349</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>44193</v>
+        <v>44620</v>
       </c>
       <c r="B102" t="n">
-        <v>0.901</v>
+        <v>1596.052</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>44194</v>
+        <v>44621</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257</v>
+        <v>1552.95</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>44195</v>
+        <v>44622</v>
       </c>
       <c r="B104" t="n">
-        <v>0.652</v>
+        <v>1526.211</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>44196</v>
+        <v>44623</v>
       </c>
       <c r="B105" t="n">
-        <v>9.651</v>
+        <v>1533.992</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>44200</v>
+        <v>44624</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001</v>
+        <v>1483.061</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>44201</v>
+        <v>44627</v>
       </c>
       <c r="B107" t="n">
-        <v>0.005</v>
+        <v>1461.227</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>44202</v>
+        <v>44628</v>
       </c>
       <c r="B108" t="n">
-        <v>0.004</v>
+        <v>1525.099</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>44203</v>
+        <v>44629</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001</v>
+        <v>1542.504</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>44204</v>
+        <v>44630</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1568.735</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>44207</v>
+        <v>44631</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1557.823</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>44208</v>
+        <v>44634</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1608.021</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>44209</v>
+        <v>44635</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1583.471</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>44210</v>
+        <v>44636</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6</v>
+        <v>1613.637</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>44211</v>
+        <v>44637</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1659.977</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>44215</v>
+        <v>44638</v>
       </c>
       <c r="B116" t="n">
-        <v>0.004</v>
+        <v>1715.148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>44216</v>
+        <v>44641</v>
       </c>
       <c r="B117" t="n">
-        <v>1.806</v>
+        <v>1728.893</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>44217</v>
+        <v>44642</v>
       </c>
       <c r="B118" t="n">
-        <v>1.201</v>
+        <v>1763.183</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>44218</v>
+        <v>44643</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1803.186</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>44221</v>
+        <v>44644</v>
       </c>
       <c r="B120" t="n">
-        <v>2.2</v>
+        <v>1707.655</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>44222</v>
+        <v>44645</v>
       </c>
       <c r="B121" t="n">
-        <v>1.631</v>
+        <v>1676.974</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>44223</v>
+        <v>44648</v>
       </c>
       <c r="B122" t="n">
-        <v>1.152</v>
+        <v>1688.632</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>44224</v>
+        <v>44649</v>
       </c>
       <c r="B123" t="n">
-        <v>2.655</v>
+        <v>1718.87</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>44225</v>
+        <v>44650</v>
       </c>
       <c r="B124" t="n">
-        <v>7.1</v>
+        <v>1785.939</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>44228</v>
+        <v>44651</v>
       </c>
       <c r="B125" t="n">
-        <v>0.012</v>
+        <v>1871.97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>44229</v>
+        <v>44652</v>
       </c>
       <c r="B126" t="n">
-        <v>0.011</v>
+        <v>1666.063</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>44230</v>
+        <v>44655</v>
       </c>
       <c r="B127" t="n">
-        <v>0.178</v>
+        <v>1692.936</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>44231</v>
+        <v>44656</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5</v>
+        <v>1710.834</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>44232</v>
+        <v>44657</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01</v>
+        <v>1731.472</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>44235</v>
+        <v>44658</v>
       </c>
       <c r="B130" t="n">
-        <v>0.002</v>
+        <v>1734.424</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>44236</v>
+        <v>44659</v>
       </c>
       <c r="B131" t="n">
-        <v>0.001</v>
+        <v>1750.498</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>44237</v>
+        <v>44662</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1758.958</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>44238</v>
+        <v>44663</v>
       </c>
       <c r="B133" t="n">
-        <v>0.108</v>
+        <v>1710.414</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>44239</v>
+        <v>44664</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001</v>
+        <v>1815.555</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>44243</v>
+        <v>44665</v>
       </c>
       <c r="B135" t="n">
-        <v>0.004</v>
+        <v>1706.935</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>44244</v>
+        <v>44669</v>
       </c>
       <c r="B136" t="n">
-        <v>0.05</v>
+        <v>1738.379</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>44245</v>
+        <v>44670</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1817.292</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>44246</v>
+        <v>44671</v>
       </c>
       <c r="B138" t="n">
-        <v>0.002</v>
+        <v>1866.56</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>44249</v>
+        <v>44672</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1</v>
+        <v>1854.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>44250</v>
+        <v>44673</v>
       </c>
       <c r="B140" t="n">
-        <v>0.435</v>
+        <v>1765.031</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>44251</v>
+        <v>44676</v>
       </c>
       <c r="B141" t="n">
-        <v>0.001</v>
+        <v>1783.609</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>44252</v>
+        <v>44677</v>
       </c>
       <c r="B142" t="n">
-        <v>9.976000000000001</v>
+        <v>1819.343</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>44253</v>
+        <v>44678</v>
       </c>
       <c r="B143" t="n">
-        <v>11.2</v>
+        <v>1803.162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>44256</v>
+        <v>44679</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1818.416</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>44257</v>
+        <v>44680</v>
       </c>
       <c r="B145" t="n">
-        <v>0.005</v>
+        <v>1906.802</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>44258</v>
+        <v>44683</v>
       </c>
       <c r="B146" t="n">
-        <v>0.507</v>
+        <v>1796.302</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>44259</v>
+        <v>44684</v>
       </c>
       <c r="B147" t="n">
-        <v>2.1</v>
+        <v>1796.252</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>44260</v>
+        <v>44685</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>1815.656</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>44263</v>
+        <v>44686</v>
       </c>
       <c r="B149" t="n">
-        <v>0.025</v>
+        <v>1844.762</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>44264</v>
+        <v>44687</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1861.866</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>44265</v>
+        <v>44690</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1</v>
+        <v>1858.995</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>44266</v>
+        <v>44691</v>
       </c>
       <c r="B152" t="n">
-        <v>11.051</v>
+        <v>1864.225</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>44267</v>
+        <v>44692</v>
       </c>
       <c r="B153" t="n">
-        <v>6.8</v>
+        <v>1876.119</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>44270</v>
+        <v>44693</v>
       </c>
       <c r="B154" t="n">
-        <v>0.003</v>
+        <v>1900.069</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>44271</v>
+        <v>44694</v>
       </c>
       <c r="B155" t="n">
-        <v>0.702</v>
+        <v>1865.287</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>44272</v>
+        <v>44697</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1833.152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>44273</v>
+        <v>44698</v>
       </c>
       <c r="B157" t="n">
-        <v>26.57</v>
+        <v>1877.483</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>44274</v>
+        <v>44699</v>
       </c>
       <c r="B158" t="n">
-        <v>18.908</v>
+        <v>1973.373</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>44277</v>
+        <v>44700</v>
       </c>
       <c r="B159" t="n">
-        <v>22.242</v>
+        <v>1981.005</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>44278</v>
+        <v>44701</v>
       </c>
       <c r="B160" t="n">
-        <v>19.526</v>
+        <v>1987.987</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>44279</v>
+        <v>44704</v>
       </c>
       <c r="B161" t="n">
-        <v>21.902</v>
+        <v>2044.658</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>44280</v>
+        <v>44705</v>
       </c>
       <c r="B162" t="n">
-        <v>10.1</v>
+        <v>1987.865</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>44281</v>
+        <v>44706</v>
       </c>
       <c r="B163" t="n">
-        <v>11.45</v>
+        <v>1995.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>44284</v>
+        <v>44707</v>
       </c>
       <c r="B164" t="n">
-        <v>40.354</v>
+        <v>2007.702</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>44285</v>
+        <v>44708</v>
       </c>
       <c r="B165" t="n">
-        <v>104.725</v>
+        <v>2006.688</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>44286</v>
+        <v>44712</v>
       </c>
       <c r="B166" t="n">
-        <v>134.307</v>
+        <v>1978.538</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>44291</v>
+        <v>44713</v>
       </c>
       <c r="B167" t="n">
-        <v>3.45</v>
+        <v>1965.015</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>44292</v>
+        <v>44714</v>
       </c>
       <c r="B168" t="n">
-        <v>18.951</v>
+        <v>1985.239</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>44293</v>
+        <v>44715</v>
       </c>
       <c r="B169" t="n">
-        <v>35.035</v>
+        <v>2031.228</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>44294</v>
+        <v>44718</v>
       </c>
       <c r="B170" t="n">
-        <v>27.64</v>
+        <v>2040.093</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>44295</v>
+        <v>44719</v>
       </c>
       <c r="B171" t="n">
-        <v>31.265</v>
+        <v>2091.395</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>44298</v>
+        <v>44720</v>
       </c>
       <c r="B172" t="n">
-        <v>30.221</v>
+        <v>2140.277</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>44299</v>
+        <v>44721</v>
       </c>
       <c r="B173" t="n">
-        <v>37.543</v>
+        <v>2142.318</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>44300</v>
+        <v>44722</v>
       </c>
       <c r="B174" t="n">
-        <v>50.856</v>
+        <v>2162.885</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>44301</v>
+        <v>44725</v>
       </c>
       <c r="B175" t="n">
-        <v>28.626</v>
+        <v>2212.62</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>44302</v>
+        <v>44726</v>
       </c>
       <c r="B176" t="n">
-        <v>39.94</v>
+        <v>2223.857</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>44305</v>
+        <v>44727</v>
       </c>
       <c r="B177" t="n">
-        <v>53.798</v>
+        <v>2162.924</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>44306</v>
+        <v>44728</v>
       </c>
       <c r="B178" t="n">
-        <v>67.747</v>
+        <v>2178.382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>44307</v>
+        <v>44729</v>
       </c>
       <c r="B179" t="n">
-        <v>81.32899999999999</v>
+        <v>2229.279</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>44308</v>
+        <v>44733</v>
       </c>
       <c r="B180" t="n">
-        <v>102.644</v>
+        <v>2188.627</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>44309</v>
+        <v>44734</v>
       </c>
       <c r="B181" t="n">
-        <v>73.794</v>
+        <v>2259.458</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>44312</v>
+        <v>44735</v>
       </c>
       <c r="B182" t="n">
-        <v>100.916</v>
+        <v>2285.442</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>44313</v>
+        <v>44736</v>
       </c>
       <c r="B183" t="n">
-        <v>142.172</v>
+        <v>2180.984</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>44314</v>
+        <v>44739</v>
       </c>
       <c r="B184" t="n">
-        <v>166.732</v>
+        <v>2155.942</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>44315</v>
+        <v>44740</v>
       </c>
       <c r="B185" t="n">
-        <v>173.469</v>
+        <v>2213.784</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>44316</v>
+        <v>44741</v>
       </c>
       <c r="B186" t="n">
-        <v>183.234</v>
+        <v>2226.976</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>44319</v>
+        <v>44742</v>
       </c>
       <c r="B187" t="n">
-        <v>129.724</v>
+        <v>2329.743</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>44320</v>
+        <v>44743</v>
       </c>
       <c r="B188" t="n">
-        <v>147.806</v>
+        <v>2167.085</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>44321</v>
+        <v>44747</v>
       </c>
       <c r="B189" t="n">
-        <v>162.8</v>
+        <v>2138.28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>44322</v>
+        <v>44748</v>
       </c>
       <c r="B190" t="n">
-        <v>154.921</v>
+        <v>2168.026</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>44323</v>
+        <v>44749</v>
       </c>
       <c r="B191" t="n">
-        <v>161.856</v>
+        <v>2172.457</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>44326</v>
+        <v>44750</v>
       </c>
       <c r="B192" t="n">
-        <v>175.548</v>
+        <v>2144.921</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>44327</v>
+        <v>44753</v>
       </c>
       <c r="B193" t="n">
-        <v>181.753</v>
+        <v>2164.266</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>44328</v>
+        <v>44754</v>
       </c>
       <c r="B194" t="n">
-        <v>209.257</v>
+        <v>2146.132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>44329</v>
+        <v>44755</v>
       </c>
       <c r="B195" t="n">
-        <v>235.217</v>
+        <v>2155.29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>44330</v>
+        <v>44756</v>
       </c>
       <c r="B196" t="n">
-        <v>241.185</v>
+        <v>2207.121</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>44333</v>
+        <v>44757</v>
       </c>
       <c r="B197" t="n">
-        <v>208.96</v>
+        <v>2153.75</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>44334</v>
+        <v>44760</v>
       </c>
       <c r="B198" t="n">
-        <v>243.47</v>
+        <v>2190.375</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>44335</v>
+        <v>44761</v>
       </c>
       <c r="B199" t="n">
-        <v>293.998</v>
+        <v>2211.821</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>44336</v>
+        <v>44762</v>
       </c>
       <c r="B200" t="n">
-        <v>351.121</v>
+        <v>2240.204</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>44337</v>
+        <v>44763</v>
       </c>
       <c r="B201" t="n">
-        <v>369.046</v>
+        <v>2271.756</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>44340</v>
+        <v>44764</v>
       </c>
       <c r="B202" t="n">
-        <v>394.941</v>
+        <v>2228.959</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>44341</v>
+        <v>44767</v>
       </c>
       <c r="B203" t="n">
-        <v>432.955</v>
+        <v>2192.367</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>44342</v>
+        <v>44768</v>
       </c>
       <c r="B204" t="n">
-        <v>450.283</v>
+        <v>2189.474</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>44343</v>
+        <v>44769</v>
       </c>
       <c r="B205" t="n">
-        <v>485.329</v>
+        <v>2188.994</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>44344</v>
+        <v>44770</v>
       </c>
       <c r="B206" t="n">
-        <v>479.498</v>
+        <v>2239.883</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>44348</v>
+        <v>44771</v>
       </c>
       <c r="B207" t="n">
-        <v>447.985</v>
+        <v>2300.2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>44349</v>
+        <v>44774</v>
       </c>
       <c r="B208" t="n">
-        <v>438.778</v>
+        <v>2161.885</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>44350</v>
+        <v>44775</v>
       </c>
       <c r="B209" t="n">
-        <v>479.102</v>
+        <v>2156.013</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>44351</v>
+        <v>44776</v>
       </c>
       <c r="B210" t="n">
-        <v>483.349</v>
+        <v>2182.238</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>44354</v>
+        <v>44777</v>
       </c>
       <c r="B211" t="n">
-        <v>486.097</v>
+        <v>2191.546</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>44355</v>
+        <v>44778</v>
       </c>
       <c r="B212" t="n">
-        <v>497.428</v>
+        <v>2194.927</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="B213" t="n">
-        <v>502.904</v>
+        <v>2195.692</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>44357</v>
+        <v>44782</v>
       </c>
       <c r="B214" t="n">
-        <v>534.943</v>
+        <v>2186.568</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>44358</v>
+        <v>44783</v>
       </c>
       <c r="B215" t="n">
-        <v>547.808</v>
+        <v>2177.646</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>44361</v>
+        <v>44784</v>
       </c>
       <c r="B216" t="n">
-        <v>583.8920000000001</v>
+        <v>2199.247</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>44362</v>
+        <v>44785</v>
       </c>
       <c r="B217" t="n">
-        <v>509.559</v>
+        <v>2213.193</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>44363</v>
+        <v>44788</v>
       </c>
       <c r="B218" t="n">
-        <v>520.942</v>
+        <v>2175.857</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>44364</v>
+        <v>44789</v>
       </c>
       <c r="B219" t="n">
-        <v>755.8</v>
+        <v>2165.332</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>44365</v>
+        <v>44790</v>
       </c>
       <c r="B220" t="n">
-        <v>747.121</v>
+        <v>2199.631</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>44368</v>
+        <v>44791</v>
       </c>
       <c r="B221" t="n">
-        <v>765.141</v>
+        <v>2218.161</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>44369</v>
+        <v>44792</v>
       </c>
       <c r="B222" t="n">
-        <v>791.605</v>
+        <v>2221.68</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>44370</v>
+        <v>44795</v>
       </c>
       <c r="B223" t="n">
-        <v>813.65</v>
+        <v>2235.665</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>44371</v>
+        <v>44796</v>
       </c>
       <c r="B224" t="n">
-        <v>813.048</v>
+        <v>2250.718</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>44372</v>
+        <v>44797</v>
       </c>
       <c r="B225" t="n">
-        <v>770.83</v>
+        <v>2237.072</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>44375</v>
+        <v>44798</v>
       </c>
       <c r="B226" t="n">
-        <v>803.019</v>
+        <v>2187.907</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>44376</v>
+        <v>44799</v>
       </c>
       <c r="B227" t="n">
-        <v>841.246</v>
+        <v>2182.452</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>44377</v>
+        <v>44802</v>
       </c>
       <c r="B228" t="n">
-        <v>991.939</v>
+        <v>2205.188</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>44378</v>
+        <v>44803</v>
       </c>
       <c r="B229" t="n">
-        <v>742.647</v>
+        <v>2188.975</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>44379</v>
+        <v>44804</v>
       </c>
       <c r="B230" t="n">
-        <v>731.504</v>
+        <v>2251.025</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>44383</v>
+        <v>44805</v>
       </c>
       <c r="B231" t="n">
-        <v>772.581</v>
+        <v>2173.156</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>44384</v>
+        <v>44806</v>
       </c>
       <c r="B232" t="n">
-        <v>785.72</v>
+        <v>2173.413</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>44385</v>
+        <v>44810</v>
       </c>
       <c r="B233" t="n">
-        <v>793.399</v>
+        <v>2188.796</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>44386</v>
+        <v>44811</v>
       </c>
       <c r="B234" t="n">
-        <v>780.596</v>
+        <v>2206.987</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>44389</v>
+        <v>44812</v>
       </c>
       <c r="B235" t="n">
-        <v>776.472</v>
+        <v>2210.466</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>44390</v>
+        <v>44813</v>
       </c>
       <c r="B236" t="n">
-        <v>798.2670000000001</v>
+        <v>2209.714</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>44391</v>
+        <v>44816</v>
       </c>
       <c r="B237" t="n">
-        <v>859.975</v>
+        <v>2218.546</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>44392</v>
+        <v>44817</v>
       </c>
       <c r="B238" t="n">
-        <v>776.261</v>
+        <v>2202.719</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>44393</v>
+        <v>44818</v>
       </c>
       <c r="B239" t="n">
-        <v>817.566</v>
+        <v>2225.579</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>44396</v>
+        <v>44819</v>
       </c>
       <c r="B240" t="n">
-        <v>860.468</v>
+        <v>2176.188</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>44397</v>
+        <v>44820</v>
       </c>
       <c r="B241" t="n">
-        <v>848.102</v>
+        <v>2186.833</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>44398</v>
+        <v>44823</v>
       </c>
       <c r="B242" t="n">
-        <v>886.206</v>
+        <v>2217.542</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>44399</v>
+        <v>44824</v>
       </c>
       <c r="B243" t="n">
-        <v>898.197</v>
+        <v>2238.87</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>44400</v>
+        <v>44825</v>
       </c>
       <c r="B244" t="n">
-        <v>877.251</v>
+        <v>2315.9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>44403</v>
+        <v>44826</v>
       </c>
       <c r="B245" t="n">
-        <v>891.203</v>
+        <v>2359.227</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>44404</v>
+        <v>44827</v>
       </c>
       <c r="B246" t="n">
-        <v>927.419</v>
+        <v>2319.361</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>44405</v>
+        <v>44830</v>
       </c>
       <c r="B247" t="n">
-        <v>965.189</v>
+        <v>2299.011</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>44406</v>
+        <v>44831</v>
       </c>
       <c r="B248" t="n">
-        <v>987.283</v>
+        <v>2327.111</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>44407</v>
+        <v>44832</v>
       </c>
       <c r="B249" t="n">
-        <v>1039.394</v>
+        <v>2366.798</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>44410</v>
+        <v>44833</v>
       </c>
       <c r="B250" t="n">
-        <v>921.317</v>
+        <v>2371.763</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>44411</v>
+        <v>44834</v>
       </c>
       <c r="B251" t="n">
-        <v>909.442</v>
+        <v>2425.91</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>44412</v>
+        <v>44837</v>
       </c>
       <c r="B252" t="n">
-        <v>931.755</v>
+        <v>2252.523</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>44413</v>
+        <v>44838</v>
       </c>
       <c r="B253" t="n">
-        <v>944.335</v>
+        <v>2233.616</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>44414</v>
+        <v>44839</v>
       </c>
       <c r="B254" t="n">
-        <v>952.134</v>
+        <v>2230.799</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>44417</v>
+        <v>44840</v>
       </c>
       <c r="B255" t="n">
-        <v>981.765</v>
+        <v>2232.801</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>44418</v>
+        <v>44841</v>
       </c>
       <c r="B256" t="n">
-        <v>998.654</v>
+        <v>2226.95</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>44419</v>
+        <v>44845</v>
       </c>
       <c r="B257" t="n">
-        <v>1000.46</v>
+        <v>2222.479</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>44420</v>
+        <v>44846</v>
       </c>
       <c r="B258" t="n">
-        <v>1087.342</v>
+        <v>2247.206</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>44421</v>
+        <v>44847</v>
       </c>
       <c r="B259" t="n">
-        <v>1050.941</v>
+        <v>2244.1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>44424</v>
+        <v>44848</v>
       </c>
       <c r="B260" t="n">
-        <v>1036.418</v>
+        <v>2222.052</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>44425</v>
+        <v>44851</v>
       </c>
       <c r="B261" t="n">
-        <v>1053.454</v>
+        <v>2172.301</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>44426</v>
+        <v>44852</v>
       </c>
       <c r="B262" t="n">
-        <v>1115.656</v>
+        <v>2226.725</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>44427</v>
+        <v>44853</v>
       </c>
       <c r="B263" t="n">
-        <v>1109.938</v>
+        <v>2241.835</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>44428</v>
+        <v>44854</v>
       </c>
       <c r="B264" t="n">
-        <v>1111.905</v>
+        <v>2234.071</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>44431</v>
+        <v>44855</v>
       </c>
       <c r="B265" t="n">
-        <v>1135.697</v>
+        <v>2265.809</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>44432</v>
+        <v>44858</v>
       </c>
       <c r="B266" t="n">
-        <v>1129.737</v>
+        <v>2242.044</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>44433</v>
+        <v>44859</v>
       </c>
       <c r="B267" t="n">
-        <v>1147.089</v>
+        <v>2195.616</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>44434</v>
+        <v>44860</v>
       </c>
       <c r="B268" t="n">
-        <v>1091.792</v>
+        <v>2186.856</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>44435</v>
+        <v>44861</v>
       </c>
       <c r="B269" t="n">
-        <v>1120.015</v>
+        <v>2152.485</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>44438</v>
+        <v>44862</v>
       </c>
       <c r="B270" t="n">
-        <v>1140.711</v>
+        <v>2183.29</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>44439</v>
+        <v>44865</v>
       </c>
       <c r="B271" t="n">
-        <v>1189.616</v>
+        <v>2275.459</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>44440</v>
+        <v>44866</v>
       </c>
       <c r="B272" t="n">
-        <v>1084.115</v>
+        <v>2200.51</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>44441</v>
+        <v>44867</v>
       </c>
       <c r="B273" t="n">
-        <v>1066.987</v>
+        <v>2229.861</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>44442</v>
+        <v>44868</v>
       </c>
       <c r="B274" t="n">
-        <v>1074.707</v>
+        <v>2219.791</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>44446</v>
+        <v>44869</v>
       </c>
       <c r="B275" t="n">
-        <v>1079.945</v>
+        <v>2230.84</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>44447</v>
+        <v>44872</v>
       </c>
       <c r="B276" t="n">
-        <v>1115.229</v>
+        <v>2241.317</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>44448</v>
+        <v>44873</v>
       </c>
       <c r="B277" t="n">
-        <v>1107.659</v>
+        <v>2232.555</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>44449</v>
+        <v>44874</v>
       </c>
       <c r="B278" t="n">
-        <v>1099.323</v>
+        <v>2237.812</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>44452</v>
+        <v>44875</v>
       </c>
       <c r="B279" t="n">
-        <v>1087.108</v>
+        <v>2200.586</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>44453</v>
+        <v>44879</v>
       </c>
       <c r="B280" t="n">
-        <v>1169.28</v>
+        <v>2165.018</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>44454</v>
+        <v>44880</v>
       </c>
       <c r="B281" t="n">
-        <v>1081.342</v>
+        <v>2086.574</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>44455</v>
+        <v>44881</v>
       </c>
       <c r="B282" t="n">
-        <v>1147.494</v>
+        <v>2099.07</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>44456</v>
+        <v>44882</v>
       </c>
       <c r="B283" t="n">
-        <v>1218.303</v>
+        <v>2114.439</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>44459</v>
+        <v>44883</v>
       </c>
       <c r="B284" t="n">
-        <v>1224.289</v>
+        <v>2113.413</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>44460</v>
+        <v>44886</v>
       </c>
       <c r="B285" t="n">
-        <v>1240.494</v>
+        <v>2125.426</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>44461</v>
+        <v>44887</v>
       </c>
       <c r="B286" t="n">
-        <v>1283.281</v>
+        <v>2103.932</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>44462</v>
+        <v>44888</v>
       </c>
       <c r="B287" t="n">
-        <v>1352.483</v>
+        <v>2069.174</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>44463</v>
+        <v>44890</v>
       </c>
       <c r="B288" t="n">
-        <v>1313.657</v>
+        <v>2031.066</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>44466</v>
+        <v>44893</v>
       </c>
       <c r="B289" t="n">
-        <v>1297.05</v>
+        <v>2054.914</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>44467</v>
+        <v>44894</v>
       </c>
       <c r="B290" t="n">
-        <v>1365.185</v>
+        <v>2064.377</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>44468</v>
+        <v>44895</v>
       </c>
       <c r="B291" t="n">
-        <v>1415.84</v>
+        <v>2115.913</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>44469</v>
+        <v>44896</v>
       </c>
       <c r="B292" t="n">
-        <v>1604.881</v>
+        <v>2050.286</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>44470</v>
+        <v>44897</v>
       </c>
       <c r="B293" t="n">
-        <v>1385.991</v>
+        <v>2049.763</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>44473</v>
+        <v>44900</v>
       </c>
       <c r="B294" t="n">
-        <v>1399.173</v>
+        <v>2093.647</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>44474</v>
+        <v>44901</v>
       </c>
       <c r="B295" t="n">
-        <v>1431.18</v>
+        <v>2111.465</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>44475</v>
+        <v>44902</v>
       </c>
       <c r="B296" t="n">
-        <v>1451.175</v>
+        <v>2151.549</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>44476</v>
+        <v>44903</v>
       </c>
       <c r="B297" t="n">
-        <v>1375.863</v>
+        <v>2175.973</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>44477</v>
+        <v>44904</v>
       </c>
       <c r="B298" t="n">
-        <v>1371.958</v>
+        <v>2146.748</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>44481</v>
+        <v>44907</v>
       </c>
       <c r="B299" t="n">
-        <v>1367.051</v>
+        <v>2158.517</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>44482</v>
+        <v>44908</v>
       </c>
       <c r="B300" t="n">
-        <v>1364.701</v>
+        <v>2180.676</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>44483</v>
+        <v>44909</v>
       </c>
       <c r="B301" t="n">
-        <v>1445.66</v>
+        <v>2192.864</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>44484</v>
+        <v>44910</v>
       </c>
       <c r="B302" t="n">
-        <v>1462.297</v>
+        <v>2123.995</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>44487</v>
+        <v>44911</v>
       </c>
       <c r="B303" t="n">
-        <v>1477.114</v>
+        <v>2126.54</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>44488</v>
+        <v>44914</v>
       </c>
       <c r="B304" t="n">
-        <v>1470.739</v>
+        <v>2134.765</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>44489</v>
+        <v>44915</v>
       </c>
       <c r="B305" t="n">
-        <v>1493.961</v>
+        <v>2159.408</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>44490</v>
+        <v>44916</v>
       </c>
       <c r="B306" t="n">
-        <v>1458.605</v>
+        <v>2206.965</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>44491</v>
+        <v>44917</v>
       </c>
       <c r="B307" t="n">
-        <v>1403.02</v>
+        <v>2222.898</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>44494</v>
+        <v>44918</v>
       </c>
       <c r="B308" t="n">
-        <v>1413.188</v>
+        <v>2216.348</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>44495</v>
+        <v>44922</v>
       </c>
       <c r="B309" t="n">
-        <v>1423.198</v>
+        <v>2221.259</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>44496</v>
+        <v>44923</v>
       </c>
       <c r="B310" t="n">
-        <v>1433.37</v>
+        <v>2293.003</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>44497</v>
+        <v>44924</v>
       </c>
       <c r="B311" t="n">
-        <v>1384.684</v>
+        <v>2308.319</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="B312" t="n">
-        <v>1502.296</v>
+        <v>2553.716</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>44501</v>
+        <v>44929</v>
       </c>
       <c r="B313" t="n">
-        <v>1358.606</v>
+        <v>2188.272</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>44502</v>
+        <v>44930</v>
       </c>
       <c r="B314" t="n">
-        <v>1329.913</v>
+        <v>2229.542</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>44503</v>
+        <v>44931</v>
       </c>
       <c r="B315" t="n">
-        <v>1343.985</v>
+        <v>2242.486</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>44504</v>
+        <v>44932</v>
       </c>
       <c r="B316" t="n">
-        <v>1348.539</v>
+        <v>2208.265</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>44505</v>
+        <v>44935</v>
       </c>
       <c r="B317" t="n">
-        <v>1354.059</v>
+        <v>2199.121</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
-        <v>44508</v>
+        <v>44936</v>
       </c>
       <c r="B318" t="n">
-        <v>1354.382</v>
+        <v>2192.942</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n">
-        <v>44509</v>
+        <v>44937</v>
       </c>
       <c r="B319" t="n">
-        <v>1377.197</v>
+        <v>2199.17</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n">
-        <v>44510</v>
+        <v>44938</v>
       </c>
       <c r="B320" t="n">
-        <v>1448.623</v>
+        <v>2202.989</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="n">
-        <v>44512</v>
+        <v>44939</v>
       </c>
       <c r="B321" t="n">
-        <v>1417.643</v>
+        <v>2179.781</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="3" t="n">
-        <v>44515</v>
+        <v>44943</v>
       </c>
       <c r="B322" t="n">
-        <v>1391.657</v>
+        <v>2093.328</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="n">
-        <v>44516</v>
+        <v>44944</v>
       </c>
       <c r="B323" t="n">
-        <v>1466.857</v>
+        <v>2131.678</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="n">
-        <v>44517</v>
+        <v>44945</v>
       </c>
       <c r="B324" t="n">
-        <v>1520</v>
+        <v>2110.145</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3" t="n">
-        <v>44518</v>
+        <v>44946</v>
       </c>
       <c r="B325" t="n">
-        <v>1584.097</v>
+        <v>2090.523</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="n">
-        <v>44519</v>
+        <v>44949</v>
       </c>
       <c r="B326" t="n">
-        <v>1575.384</v>
+        <v>2135.499</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="3" t="n">
-        <v>44522</v>
+        <v>44950</v>
       </c>
       <c r="B327" t="n">
-        <v>1573.769</v>
+        <v>2048.386</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="n">
-        <v>44523</v>
+        <v>44951</v>
       </c>
       <c r="B328" t="n">
-        <v>1571.98</v>
+        <v>2031.561</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="3" t="n">
-        <v>44524</v>
+        <v>44952</v>
       </c>
       <c r="B329" t="n">
-        <v>1452.897</v>
+        <v>2024.069</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="3" t="n">
-        <v>44526</v>
+        <v>44953</v>
       </c>
       <c r="B330" t="n">
-        <v>1451.108</v>
+        <v>2003.634</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="3" t="n">
-        <v>44529</v>
+        <v>44956</v>
       </c>
       <c r="B331" t="n">
-        <v>1459.339</v>
+        <v>2048.714</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="n">
-        <v>44530</v>
+        <v>44957</v>
       </c>
       <c r="B332" t="n">
-        <v>1517.956</v>
+        <v>2061.572</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="3" t="n">
-        <v>44531</v>
+        <v>44958</v>
       </c>
       <c r="B333" t="n">
-        <v>1427.347</v>
+        <v>2038.262</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="3" t="n">
-        <v>44532</v>
+        <v>44959</v>
       </c>
       <c r="B334" t="n">
-        <v>1448.585</v>
+        <v>2050.063</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="3" t="n">
-        <v>44533</v>
+        <v>44960</v>
       </c>
       <c r="B335" t="n">
-        <v>1475.464</v>
+        <v>2041.217</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="3" t="n">
-        <v>44536</v>
+        <v>44963</v>
       </c>
       <c r="B336" t="n">
-        <v>1487.996</v>
+        <v>2072.261</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="3" t="n">
-        <v>44537</v>
+        <v>44964</v>
       </c>
       <c r="B337" t="n">
-        <v>1455.038</v>
+        <v>2057.958</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3" t="n">
-        <v>44538</v>
+        <v>44965</v>
       </c>
       <c r="B338" t="n">
-        <v>1484.192</v>
+        <v>2059.604</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="n">
-        <v>44539</v>
+        <v>44966</v>
       </c>
       <c r="B339" t="n">
-        <v>1500.027</v>
+        <v>2058.942</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3" t="n">
-        <v>44540</v>
+        <v>44967</v>
       </c>
       <c r="B340" t="n">
-        <v>1507.147</v>
+        <v>2042.893</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3" t="n">
-        <v>44543</v>
+        <v>44970</v>
       </c>
       <c r="B341" t="n">
-        <v>1599.768</v>
+        <v>2107.775</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="n">
-        <v>44544</v>
+        <v>44971</v>
       </c>
       <c r="B342" t="n">
-        <v>1584.488</v>
+        <v>2076.548</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="3" t="n">
-        <v>44545</v>
+        <v>44972</v>
       </c>
       <c r="B343" t="n">
-        <v>1621.097</v>
+        <v>2011.998</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="n">
-        <v>44546</v>
+        <v>44973</v>
       </c>
       <c r="B344" t="n">
-        <v>1657.626</v>
+        <v>2032.457</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="3" t="n">
-        <v>44547</v>
+        <v>44974</v>
       </c>
       <c r="B345" t="n">
-        <v>1704.586</v>
+        <v>2059.662</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="3" t="n">
-        <v>44550</v>
+        <v>44978</v>
       </c>
       <c r="B346" t="n">
-        <v>1758.041</v>
+        <v>2046.064</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="n">
-        <v>44551</v>
+        <v>44979</v>
       </c>
       <c r="B347" t="n">
-        <v>1748.285</v>
+        <v>2113.849</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="3" t="n">
-        <v>44552</v>
+        <v>44980</v>
       </c>
       <c r="B348" t="n">
-        <v>1699.277</v>
+        <v>2147.417</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="n">
-        <v>44553</v>
+        <v>44981</v>
       </c>
       <c r="B349" t="n">
-        <v>1577.78</v>
+        <v>2142.141</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3" t="n">
-        <v>44557</v>
+        <v>44984</v>
       </c>
       <c r="B350" t="n">
-        <v>1580.347</v>
+        <v>2162.435</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="3" t="n">
-        <v>44558</v>
+        <v>44985</v>
       </c>
       <c r="B351" t="n">
-        <v>1637.064</v>
+        <v>2188.035</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="n">
-        <v>44559</v>
+        <v>44986</v>
       </c>
       <c r="B352" t="n">
-        <v>1642.506</v>
+        <v>2133.95</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="n">
-        <v>44560</v>
+        <v>44987</v>
       </c>
       <c r="B353" t="n">
-        <v>1696.476</v>
+        <v>2192.355</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="3" t="n">
-        <v>44561</v>
+        <v>44988</v>
       </c>
       <c r="B354" t="n">
-        <v>1904.582</v>
+        <v>2186.15</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="3" t="n">
-        <v>44564</v>
+        <v>44991</v>
       </c>
       <c r="B355" t="n">
-        <v>1579.526</v>
+        <v>2190.793</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="3" t="n">
-        <v>44565</v>
+        <v>44992</v>
       </c>
       <c r="B356" t="n">
-        <v>1495.692</v>
+        <v>2170.195</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="n">
-        <v>44566</v>
+        <v>44993</v>
       </c>
       <c r="B357" t="n">
-        <v>1492.787</v>
+        <v>2193.237</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="n">
-        <v>44567</v>
+        <v>44994</v>
       </c>
       <c r="B358" t="n">
-        <v>1510.553</v>
+        <v>2229.623</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="3" t="n">
-        <v>44568</v>
+        <v>44995</v>
       </c>
       <c r="B359" t="n">
-        <v>1530.096</v>
+        <v>2188.375</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="3" t="n">
-        <v>44571</v>
+        <v>44998</v>
       </c>
       <c r="B360" t="n">
-        <v>1560.421</v>
+        <v>2126.677</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="3" t="n">
-        <v>44572</v>
+        <v>44999</v>
       </c>
       <c r="B361" t="n">
-        <v>1527.02</v>
+        <v>2042.579</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="n">
-        <v>44573</v>
+        <v>45000</v>
       </c>
       <c r="B362" t="n">
-        <v>1536.981</v>
+        <v>2055.823</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="3" t="n">
-        <v>44574</v>
+        <v>45001</v>
       </c>
       <c r="B363" t="n">
-        <v>1636.742</v>
+        <v>2066.319</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="n">
-        <v>44575</v>
+        <v>45002</v>
       </c>
       <c r="B364" t="n">
-        <v>1598.887</v>
+        <v>2106.166</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="n">
-        <v>44579</v>
+        <v>45005</v>
       </c>
       <c r="B365" t="n">
-        <v>1597.137</v>
+        <v>2098.393</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="3" t="n">
-        <v>44580</v>
+        <v>45006</v>
       </c>
       <c r="B366" t="n">
-        <v>1656.576</v>
+        <v>2194.631</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="n">
-        <v>44581</v>
+        <v>45007</v>
       </c>
       <c r="B367" t="n">
-        <v>1678.931</v>
+        <v>2279.608</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="3" t="n">
-        <v>44582</v>
+        <v>45008</v>
       </c>
       <c r="B368" t="n">
-        <v>1706.127</v>
+        <v>2233.956</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="n">
-        <v>44585</v>
+        <v>45009</v>
       </c>
       <c r="B369" t="n">
-        <v>1614.002</v>
+        <v>2218.458</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="n">
-        <v>44586</v>
+        <v>45012</v>
       </c>
       <c r="B370" t="n">
-        <v>1599.502</v>
+        <v>2220.131</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="n">
-        <v>44587</v>
+        <v>45013</v>
       </c>
       <c r="B371" t="n">
-        <v>1613.046</v>
+        <v>2231.749</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="n">
-        <v>44588</v>
+        <v>45014</v>
       </c>
       <c r="B372" t="n">
-        <v>1583.895</v>
+        <v>2264.862</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="n">
-        <v>44589</v>
+        <v>45015</v>
       </c>
       <c r="B373" t="n">
-        <v>1615.021</v>
+        <v>2271.531</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="3" t="n">
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="B374" t="n">
-        <v>1654.85</v>
+        <v>2375.171</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="n">
-        <v>44593</v>
+        <v>45019</v>
       </c>
       <c r="B375" t="n">
-        <v>1584.109</v>
+        <v>2221.01</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="n">
-        <v>44594</v>
+        <v>45020</v>
       </c>
       <c r="B376" t="n">
-        <v>1626.895</v>
+        <v>2219.375</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="n">
-        <v>44595</v>
+        <v>45021</v>
       </c>
       <c r="B377" t="n">
-        <v>1640.397</v>
+        <v>2243.011</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="n">
-        <v>44596</v>
+        <v>45022</v>
       </c>
       <c r="B378" t="n">
-        <v>1642.892</v>
+        <v>2173.663</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="n">
-        <v>44599</v>
+        <v>45026</v>
       </c>
       <c r="B379" t="n">
-        <v>1679.932</v>
+        <v>2239.655</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="n">
-        <v>44600</v>
+        <v>45027</v>
       </c>
       <c r="B380" t="n">
-        <v>1674.61</v>
+        <v>2297.208</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="n">
-        <v>44601</v>
+        <v>45028</v>
       </c>
       <c r="B381" t="n">
-        <v>1653.153</v>
+        <v>2303.862</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="n">
-        <v>44602</v>
+        <v>45029</v>
       </c>
       <c r="B382" t="n">
-        <v>1634.146</v>
+        <v>2321.699</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="n">
-        <v>44603</v>
+        <v>45030</v>
       </c>
       <c r="B383" t="n">
-        <v>1635.826</v>
+        <v>2253.786</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3" t="n">
-        <v>44606</v>
+        <v>45033</v>
       </c>
       <c r="B384" t="n">
-        <v>1666.232</v>
+        <v>2256.845</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="3" t="n">
-        <v>44607</v>
+        <v>45034</v>
       </c>
       <c r="B385" t="n">
-        <v>1608.494</v>
+        <v>2238.994</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="n">
-        <v>44608</v>
+        <v>45035</v>
       </c>
       <c r="B386" t="n">
-        <v>1644.134</v>
+        <v>2294.677</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="n">
-        <v>44609</v>
+        <v>45036</v>
       </c>
       <c r="B387" t="n">
-        <v>1647.202</v>
+        <v>2277.259</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="n">
-        <v>44610</v>
+        <v>45037</v>
       </c>
       <c r="B388" t="n">
-        <v>1674.929</v>
+        <v>2290.023</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="3" t="n">
-        <v>44614</v>
+        <v>45040</v>
       </c>
       <c r="B389" t="n">
-        <v>1699.432</v>
+        <v>2308.538</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="3" t="n">
-        <v>44615</v>
+        <v>45041</v>
       </c>
       <c r="B390" t="n">
-        <v>1738.322</v>
+        <v>2275.402</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="n">
-        <v>44616</v>
+        <v>45042</v>
       </c>
       <c r="B391" t="n">
-        <v>1650.399</v>
+        <v>2279.561</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3" t="n">
-        <v>44617</v>
+        <v>45043</v>
       </c>
       <c r="B392" t="n">
-        <v>1603.349</v>
+        <v>2273.926</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="n">
-        <v>44620</v>
+        <v>45044</v>
       </c>
       <c r="B393" t="n">
-        <v>1596.052</v>
+        <v>2325.479</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="n">
-        <v>44621</v>
+        <v>45047</v>
       </c>
       <c r="B394" t="n">
-        <v>1552.95</v>
+        <v>2239.866</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="n">
-        <v>44622</v>
+        <v>45048</v>
       </c>
       <c r="B395" t="n">
-        <v>1526.211</v>
+        <v>2267.13</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="n">
-        <v>44623</v>
+        <v>45049</v>
       </c>
       <c r="B396" t="n">
-        <v>1533.992</v>
+        <v>2258.222</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="n">
-        <v>44624</v>
+        <v>45050</v>
       </c>
       <c r="B397" t="n">
-        <v>1483.061</v>
+        <v>2242.399</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="n">
-        <v>44627</v>
+        <v>45051</v>
       </c>
       <c r="B398" t="n">
-        <v>1461.227</v>
+        <v>2207.415</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="3" t="n">
-        <v>44628</v>
+        <v>45054</v>
       </c>
       <c r="B399" t="n">
-        <v>1525.099</v>
+        <v>2217.601</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="n">
-        <v>44629</v>
+        <v>45055</v>
       </c>
       <c r="B400" t="n">
-        <v>1542.504</v>
+        <v>2222.864</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="n">
-        <v>44630</v>
+        <v>45056</v>
       </c>
       <c r="B401" t="n">
-        <v>1568.735</v>
+        <v>2233.149</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="n">
-        <v>44631</v>
+        <v>45057</v>
       </c>
       <c r="B402" t="n">
-        <v>1557.823</v>
+        <v>2242.243</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="n">
-        <v>44634</v>
+        <v>45058</v>
       </c>
       <c r="B403" t="n">
-        <v>1608.021</v>
+        <v>2229.199</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="n">
-        <v>44635</v>
+        <v>45061</v>
       </c>
       <c r="B404" t="n">
-        <v>1583.471</v>
+        <v>2220.927</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="n">
-        <v>44636</v>
+        <v>45062</v>
       </c>
       <c r="B405" t="n">
-        <v>1613.637</v>
+        <v>2203.214</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="n">
-        <v>44637</v>
+        <v>45063</v>
       </c>
       <c r="B406" t="n">
-        <v>1659.977</v>
+        <v>2213.676</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="3" t="n">
-        <v>44638</v>
+        <v>45064</v>
       </c>
       <c r="B407" t="n">
-        <v>1715.148</v>
+        <v>2238.266</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="3" t="n">
-        <v>44641</v>
+        <v>45065</v>
       </c>
       <c r="B408" t="n">
-        <v>1728.893</v>
+        <v>2276.72</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="3" t="n">
-        <v>44642</v>
+        <v>45068</v>
       </c>
       <c r="B409" t="n">
-        <v>1763.183</v>
+        <v>2275.311</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="n">
-        <v>44643</v>
+        <v>45069</v>
       </c>
       <c r="B410" t="n">
-        <v>1803.186</v>
+        <v>2256.689</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="3" t="n">
-        <v>44644</v>
+        <v>45070</v>
       </c>
       <c r="B411" t="n">
-        <v>1707.655</v>
+        <v>2250.709</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="3" t="n">
-        <v>44645</v>
+        <v>45071</v>
       </c>
       <c r="B412" t="n">
-        <v>1676.974</v>
+        <v>2197.638</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="3" t="n">
-        <v>44648</v>
+        <v>45072</v>
       </c>
       <c r="B413" t="n">
-        <v>1688.632</v>
+        <v>2189.681</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="3" t="n">
-        <v>44649</v>
+        <v>45076</v>
       </c>
       <c r="B414" t="n">
-        <v>1718.87</v>
+        <v>2200.479</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="n">
-        <v>44650</v>
+        <v>45077</v>
       </c>
       <c r="B415" t="n">
-        <v>1785.939</v>
+        <v>2254.859</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="3" t="n">
-        <v>44651</v>
+        <v>45078</v>
       </c>
       <c r="B416" t="n">
-        <v>1871.97</v>
+        <v>2160.055</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="3" t="n">
-        <v>44652</v>
+        <v>45079</v>
       </c>
       <c r="B417" t="n">
-        <v>1666.063</v>
+        <v>2142.102</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="3" t="n">
-        <v>44655</v>
+        <v>45082</v>
       </c>
       <c r="B418" t="n">
-        <v>1692.936</v>
+        <v>2131.417</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="3" t="n">
-        <v>44656</v>
+        <v>45083</v>
       </c>
       <c r="B419" t="n">
-        <v>1710.834</v>
+        <v>2134.638</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="3" t="n">
-        <v>44657</v>
+        <v>45084</v>
       </c>
       <c r="B420" t="n">
-        <v>1731.472</v>
+        <v>2161.556</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3" t="n">
-        <v>44658</v>
+        <v>45085</v>
       </c>
       <c r="B421" t="n">
-        <v>1734.424</v>
+        <v>2141.798</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="3" t="n">
-        <v>44659</v>
+        <v>45086</v>
       </c>
       <c r="B422" t="n">
-        <v>1750.498</v>
+        <v>2127.652</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="3" t="n">
-        <v>44662</v>
+        <v>45089</v>
       </c>
       <c r="B423" t="n">
-        <v>1758.958</v>
+        <v>2126.87</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="n">
-        <v>44663</v>
+        <v>45090</v>
       </c>
       <c r="B424" t="n">
-        <v>1710.414</v>
+        <v>2074.52</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="3" t="n">
-        <v>44664</v>
+        <v>45091</v>
       </c>
       <c r="B425" t="n">
-        <v>1815.555</v>
+        <v>2109.105</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="3" t="n">
-        <v>44665</v>
+        <v>45092</v>
       </c>
       <c r="B426" t="n">
-        <v>1706.935</v>
+        <v>1992.14</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="3" t="n">
-        <v>44669</v>
+        <v>45093</v>
       </c>
       <c r="B427" t="n">
-        <v>1738.379</v>
+        <v>2011.556</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="n">
-        <v>44670</v>
+        <v>45097</v>
       </c>
       <c r="B428" t="n">
-        <v>1817.292</v>
+        <v>1989.489</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="n">
-        <v>44671</v>
+        <v>45098</v>
       </c>
       <c r="B429" t="n">
-        <v>1866.56</v>
+        <v>2037.102</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="3" t="n">
-        <v>44672</v>
+        <v>45099</v>
       </c>
       <c r="B430" t="n">
-        <v>1854.7</v>
+        <v>1994.711</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="3" t="n">
-        <v>44673</v>
+        <v>45100</v>
       </c>
       <c r="B431" t="n">
-        <v>1765.031</v>
+        <v>1969.38</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="3" t="n">
-        <v>44676</v>
+        <v>45103</v>
       </c>
       <c r="B432" t="n">
-        <v>1783.609</v>
+        <v>1961.027</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="n">
-        <v>44677</v>
+        <v>45104</v>
       </c>
       <c r="B433" t="n">
-        <v>1819.343</v>
+        <v>1951.098</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="3" t="n">
-        <v>44678</v>
+        <v>45105</v>
       </c>
       <c r="B434" t="n">
-        <v>1803.162</v>
+        <v>1945.211</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="n">
-        <v>44679</v>
+        <v>45106</v>
       </c>
       <c r="B435" t="n">
-        <v>1818.416</v>
+        <v>1934.684</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="n">
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="B436" t="n">
-        <v>1906.802</v>
+        <v>2034.319</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="3" t="n">
-        <v>44683</v>
+        <v>45110</v>
       </c>
       <c r="B437" t="n">
-        <v>1796.302</v>
+        <v>1909.639</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="3" t="n">
-        <v>44684</v>
+        <v>45112</v>
       </c>
       <c r="B438" t="n">
-        <v>1796.252</v>
+        <v>1867.061</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="3" t="n">
-        <v>44685</v>
+        <v>45113</v>
       </c>
       <c r="B439" t="n">
-        <v>1815.656</v>
+        <v>1854.256</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="n">
-        <v>44686</v>
+        <v>45114</v>
       </c>
       <c r="B440" t="n">
-        <v>1844.762</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="3" t="n">
-        <v>44687</v>
-      </c>
-      <c r="B441" t="n">
-        <v>1861.866</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="3" t="n">
-        <v>44690</v>
-      </c>
-      <c r="B442" t="n">
-        <v>1858.995</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="3" t="n">
-        <v>44691</v>
-      </c>
-      <c r="B443" t="n">
-        <v>1864.225</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="3" t="n">
-        <v>44692</v>
-      </c>
-      <c r="B444" t="n">
-        <v>1876.119</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="3" t="n">
-        <v>44693</v>
-      </c>
-      <c r="B445" t="n">
-        <v>1900.069</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="3" t="n">
-        <v>44694</v>
-      </c>
-      <c r="B446" t="n">
-        <v>1865.287</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="3" t="n">
-        <v>44697</v>
-      </c>
-      <c r="B447" t="n">
-        <v>1833.152</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="3" t="n">
-        <v>44698</v>
-      </c>
-      <c r="B448" t="n">
-        <v>1877.483</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="3" t="n">
-        <v>44699</v>
-      </c>
-      <c r="B449" t="n">
-        <v>1973.373</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="3" t="n">
-        <v>44700</v>
-      </c>
-      <c r="B450" t="n">
-        <v>1981.005</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="3" t="n">
-        <v>44701</v>
-      </c>
-      <c r="B451" t="n">
-        <v>1987.987</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="3" t="n">
-        <v>44704</v>
-      </c>
-      <c r="B452" t="n">
-        <v>2044.658</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="3" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B453" t="n">
-        <v>1987.865</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="3" t="n">
-        <v>44706</v>
-      </c>
-      <c r="B454" t="n">
-        <v>1995.75</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="3" t="n">
-        <v>44707</v>
-      </c>
-      <c r="B455" t="n">
-        <v>2007.702</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="3" t="n">
-        <v>44708</v>
-      </c>
-      <c r="B456" t="n">
-        <v>2006.688</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="3" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B457" t="n">
-        <v>1978.538</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="3" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B458" t="n">
-        <v>1965.015</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="3" t="n">
-        <v>44714</v>
-      </c>
-      <c r="B459" t="n">
-        <v>1985.239</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="3" t="n">
-        <v>44715</v>
-      </c>
-      <c r="B460" t="n">
-        <v>2031.228</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="3" t="n">
-        <v>44718</v>
-      </c>
-      <c r="B461" t="n">
-        <v>2040.093</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="3" t="n">
-        <v>44719</v>
-      </c>
-      <c r="B462" t="n">
-        <v>2091.395</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="3" t="n">
-        <v>44720</v>
-      </c>
-      <c r="B463" t="n">
-        <v>2140.277</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="3" t="n">
-        <v>44721</v>
-      </c>
-      <c r="B464" t="n">
-        <v>2142.318</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="3" t="n">
-        <v>44722</v>
-      </c>
-      <c r="B465" t="n">
-        <v>2162.885</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="3" t="n">
-        <v>44725</v>
-      </c>
-      <c r="B466" t="n">
-        <v>2212.62</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="3" t="n">
-        <v>44726</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2223.857</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="3" t="n">
-        <v>44727</v>
-      </c>
-      <c r="B468" t="n">
-        <v>2162.924</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="3" t="n">
-        <v>44728</v>
-      </c>
-      <c r="B469" t="n">
-        <v>2178.382</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="3" t="n">
-        <v>44729</v>
-      </c>
-      <c r="B470" t="n">
-        <v>2229.279</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="3" t="n">
-        <v>44733</v>
-      </c>
-      <c r="B471" t="n">
-        <v>2188.627</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="3" t="n">
-        <v>44734</v>
-      </c>
-      <c r="B472" t="n">
-        <v>2259.458</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="3" t="n">
-        <v>44735</v>
-      </c>
-      <c r="B473" t="n">
-        <v>2285.442</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="3" t="n">
-        <v>44736</v>
-      </c>
-      <c r="B474" t="n">
-        <v>2180.984</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="3" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B475" t="n">
-        <v>2155.942</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="3" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B476" t="n">
-        <v>2213.784</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="3" t="n">
-        <v>44741</v>
-      </c>
-      <c r="B477" t="n">
-        <v>2226.976</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="3" t="n">
-        <v>44742</v>
-      </c>
-      <c r="B478" t="n">
-        <v>2329.743</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="3" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B479" t="n">
-        <v>2167.085</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="3" t="n">
-        <v>44747</v>
-      </c>
-      <c r="B480" t="n">
-        <v>2138.28</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="3" t="n">
-        <v>44748</v>
-      </c>
-      <c r="B481" t="n">
-        <v>2168.026</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="3" t="n">
-        <v>44749</v>
-      </c>
-      <c r="B482" t="n">
-        <v>2172.457</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="3" t="n">
-        <v>44750</v>
-      </c>
-      <c r="B483" t="n">
-        <v>2144.921</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="3" t="n">
-        <v>44753</v>
-      </c>
-      <c r="B484" t="n">
-        <v>2164.266</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="3" t="n">
-        <v>44754</v>
-      </c>
-      <c r="B485" t="n">
-        <v>2146.132</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="3" t="n">
-        <v>44755</v>
-      </c>
-      <c r="B486" t="n">
-        <v>2155.29</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="3" t="n">
-        <v>44756</v>
-      </c>
-      <c r="B487" t="n">
-        <v>2207.121</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="3" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B488" t="n">
-        <v>2153.75</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="3" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B489" t="n">
-        <v>2190.375</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="3" t="n">
-        <v>44761</v>
-      </c>
-      <c r="B490" t="n">
-        <v>2211.821</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="3" t="n">
-        <v>44762</v>
-      </c>
-      <c r="B491" t="n">
-        <v>2240.204</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="3" t="n">
-        <v>44763</v>
-      </c>
-      <c r="B492" t="n">
-        <v>2271.756</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="3" t="n">
-        <v>44764</v>
-      </c>
-      <c r="B493" t="n">
-        <v>2228.959</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="3" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B494" t="n">
-        <v>2192.367</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="3" t="n">
-        <v>44768</v>
-      </c>
-      <c r="B495" t="n">
-        <v>2189.474</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="3" t="n">
-        <v>44769</v>
-      </c>
-      <c r="B496" t="n">
-        <v>2188.994</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="3" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B497" t="n">
-        <v>2239.883</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="3" t="n">
-        <v>44771</v>
-      </c>
-      <c r="B498" t="n">
-        <v>2300.2</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="3" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B499" t="n">
-        <v>2161.885</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="3" t="n">
-        <v>44775</v>
-      </c>
-      <c r="B500" t="n">
-        <v>2156.013</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="3" t="n">
-        <v>44776</v>
-      </c>
-      <c r="B501" t="n">
-        <v>2182.238</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="3" t="n">
-        <v>44777</v>
-      </c>
-      <c r="B502" t="n">
-        <v>2191.546</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="3" t="n">
-        <v>44778</v>
-      </c>
-      <c r="B503" t="n">
-        <v>2194.927</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="3" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B504" t="n">
-        <v>2195.692</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="3" t="n">
-        <v>44782</v>
-      </c>
-      <c r="B505" t="n">
-        <v>2186.568</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="3" t="n">
-        <v>44783</v>
-      </c>
-      <c r="B506" t="n">
-        <v>2177.646</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="3" t="n">
-        <v>44784</v>
-      </c>
-      <c r="B507" t="n">
-        <v>2199.247</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="3" t="n">
-        <v>44785</v>
-      </c>
-      <c r="B508" t="n">
-        <v>2213.193</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="3" t="n">
-        <v>44788</v>
-      </c>
-      <c r="B509" t="n">
-        <v>2175.857</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="3" t="n">
-        <v>44789</v>
-      </c>
-      <c r="B510" t="n">
-        <v>2165.332</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="3" t="n">
-        <v>44790</v>
-      </c>
-      <c r="B511" t="n">
-        <v>2199.631</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="3" t="n">
-        <v>44791</v>
-      </c>
-      <c r="B512" t="n">
-        <v>2218.161</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="3" t="n">
-        <v>44792</v>
-      </c>
-      <c r="B513" t="n">
-        <v>2221.68</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="3" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B514" t="n">
-        <v>2235.665</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="3" t="n">
-        <v>44796</v>
-      </c>
-      <c r="B515" t="n">
-        <v>2250.718</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="3" t="n">
-        <v>44797</v>
-      </c>
-      <c r="B516" t="n">
-        <v>2237.072</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="3" t="n">
-        <v>44798</v>
-      </c>
-      <c r="B517" t="n">
-        <v>2187.907</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="3" t="n">
-        <v>44799</v>
-      </c>
-      <c r="B518" t="n">
-        <v>2182.452</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="3" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B519" t="n">
-        <v>2205.188</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="3" t="n">
-        <v>44803</v>
-      </c>
-      <c r="B520" t="n">
-        <v>2188.975</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="3" t="n">
-        <v>44804</v>
-      </c>
-      <c r="B521" t="n">
-        <v>2251.025</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="3" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B522" t="n">
-        <v>2173.156</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="3" t="n">
-        <v>44806</v>
-      </c>
-      <c r="B523" t="n">
-        <v>2173.413</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="3" t="n">
-        <v>44810</v>
-      </c>
-      <c r="B524" t="n">
-        <v>2188.796</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="3" t="n">
-        <v>44811</v>
-      </c>
-      <c r="B525" t="n">
-        <v>2206.987</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="3" t="n">
-        <v>44812</v>
-      </c>
-      <c r="B526" t="n">
-        <v>2210.466</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="3" t="n">
-        <v>44813</v>
-      </c>
-      <c r="B527" t="n">
-        <v>2209.714</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="3" t="n">
-        <v>44816</v>
-      </c>
-      <c r="B528" t="n">
-        <v>2218.546</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="3" t="n">
-        <v>44817</v>
-      </c>
-      <c r="B529" t="n">
-        <v>2202.719</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="3" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B530" t="n">
-        <v>2225.579</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="3" t="n">
-        <v>44819</v>
-      </c>
-      <c r="B531" t="n">
-        <v>2176.188</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="3" t="n">
-        <v>44820</v>
-      </c>
-      <c r="B532" t="n">
-        <v>2186.833</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="3" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B533" t="n">
-        <v>2217.542</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="3" t="n">
-        <v>44824</v>
-      </c>
-      <c r="B534" t="n">
-        <v>2238.87</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="3" t="n">
-        <v>44825</v>
-      </c>
-      <c r="B535" t="n">
-        <v>2315.9</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="3" t="n">
-        <v>44826</v>
-      </c>
-      <c r="B536" t="n">
-        <v>2359.227</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="3" t="n">
-        <v>44827</v>
-      </c>
-      <c r="B537" t="n">
-        <v>2319.361</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="3" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B538" t="n">
-        <v>2299.011</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="3" t="n">
-        <v>44831</v>
-      </c>
-      <c r="B539" t="n">
-        <v>2327.111</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="3" t="n">
-        <v>44832</v>
-      </c>
-      <c r="B540" t="n">
-        <v>2366.798</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="3" t="n">
-        <v>44833</v>
-      </c>
-      <c r="B541" t="n">
-        <v>2371.763</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="3" t="n">
-        <v>44834</v>
-      </c>
-      <c r="B542" t="n">
-        <v>2425.91</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="3" t="n">
-        <v>44837</v>
-      </c>
-      <c r="B543" t="n">
-        <v>2252.523</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="3" t="n">
-        <v>44838</v>
-      </c>
-      <c r="B544" t="n">
-        <v>2233.616</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="3" t="n">
-        <v>44839</v>
-      </c>
-      <c r="B545" t="n">
-        <v>2230.799</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="3" t="n">
-        <v>44840</v>
-      </c>
-      <c r="B546" t="n">
-        <v>2232.801</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="3" t="n">
-        <v>44841</v>
-      </c>
-      <c r="B547" t="n">
-        <v>2226.95</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="3" t="n">
-        <v>44845</v>
-      </c>
-      <c r="B548" t="n">
-        <v>2222.479</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="3" t="n">
-        <v>44846</v>
-      </c>
-      <c r="B549" t="n">
-        <v>2247.206</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="3" t="n">
-        <v>44847</v>
-      </c>
-      <c r="B550" t="n">
-        <v>2244.1</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="3" t="n">
-        <v>44848</v>
-      </c>
-      <c r="B551" t="n">
-        <v>2222.052</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="3" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B552" t="n">
-        <v>2172.301</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="3" t="n">
-        <v>44852</v>
-      </c>
-      <c r="B553" t="n">
-        <v>2226.725</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="3" t="n">
-        <v>44853</v>
-      </c>
-      <c r="B554" t="n">
-        <v>2241.835</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="3" t="n">
-        <v>44854</v>
-      </c>
-      <c r="B555" t="n">
-        <v>2234.071</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="3" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B556" t="n">
-        <v>2265.809</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="3" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B557" t="n">
-        <v>2242.044</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="3" t="n">
-        <v>44859</v>
-      </c>
-      <c r="B558" t="n">
-        <v>2195.616</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="3" t="n">
-        <v>44860</v>
-      </c>
-      <c r="B559" t="n">
-        <v>2186.856</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="3" t="n">
-        <v>44861</v>
-      </c>
-      <c r="B560" t="n">
-        <v>2152.485</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="3" t="n">
-        <v>44862</v>
-      </c>
-      <c r="B561" t="n">
-        <v>2183.29</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="3" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B562" t="n">
-        <v>2275.459</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="3" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B563" t="n">
-        <v>2200.51</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="3" t="n">
-        <v>44867</v>
-      </c>
-      <c r="B564" t="n">
-        <v>2229.861</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="3" t="n">
-        <v>44868</v>
-      </c>
-      <c r="B565" t="n">
-        <v>2219.791</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="3" t="n">
-        <v>44869</v>
-      </c>
-      <c r="B566" t="n">
-        <v>2230.84</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="3" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B567" t="n">
-        <v>2241.317</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="3" t="n">
-        <v>44873</v>
-      </c>
-      <c r="B568" t="n">
-        <v>2232.555</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="3" t="n">
-        <v>44874</v>
-      </c>
-      <c r="B569" t="n">
-        <v>2237.812</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="3" t="n">
-        <v>44875</v>
-      </c>
-      <c r="B570" t="n">
-        <v>2200.586</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="3" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B571" t="n">
-        <v>2165.018</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="3" t="n">
-        <v>44880</v>
-      </c>
-      <c r="B572" t="n">
-        <v>2086.574</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="3" t="n">
-        <v>44881</v>
-      </c>
-      <c r="B573" t="n">
-        <v>2099.07</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="3" t="n">
-        <v>44882</v>
-      </c>
-      <c r="B574" t="n">
-        <v>2114.439</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="3" t="n">
-        <v>44883</v>
-      </c>
-      <c r="B575" t="n">
-        <v>2113.413</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="3" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B576" t="n">
-        <v>2125.426</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="3" t="n">
-        <v>44887</v>
-      </c>
-      <c r="B577" t="n">
-        <v>2103.932</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="3" t="n">
-        <v>44888</v>
-      </c>
-      <c r="B578" t="n">
-        <v>2069.174</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="3" t="n">
-        <v>44890</v>
-      </c>
-      <c r="B579" t="n">
-        <v>2031.066</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="3" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B580" t="n">
-        <v>2054.914</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="3" t="n">
-        <v>44894</v>
-      </c>
-      <c r="B581" t="n">
-        <v>2064.377</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="3" t="n">
-        <v>44895</v>
-      </c>
-      <c r="B582" t="n">
-        <v>2115.913</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="3" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B583" t="n">
-        <v>2050.286</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="3" t="n">
-        <v>44897</v>
-      </c>
-      <c r="B584" t="n">
-        <v>2049.763</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="3" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B585" t="n">
-        <v>2093.647</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="3" t="n">
-        <v>44901</v>
-      </c>
-      <c r="B586" t="n">
-        <v>2111.465</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="3" t="n">
-        <v>44902</v>
-      </c>
-      <c r="B587" t="n">
-        <v>2151.549</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="3" t="n">
-        <v>44903</v>
-      </c>
-      <c r="B588" t="n">
-        <v>2175.973</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="3" t="n">
-        <v>44904</v>
-      </c>
-      <c r="B589" t="n">
-        <v>2146.748</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="3" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B590" t="n">
-        <v>2158.517</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="3" t="n">
-        <v>44908</v>
-      </c>
-      <c r="B591" t="n">
-        <v>2180.676</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="3" t="n">
-        <v>44909</v>
-      </c>
-      <c r="B592" t="n">
-        <v>2192.864</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="3" t="n">
-        <v>44910</v>
-      </c>
-      <c r="B593" t="n">
-        <v>2123.995</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="3" t="n">
-        <v>44911</v>
-      </c>
-      <c r="B594" t="n">
-        <v>2126.54</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="3" t="n">
-        <v>44914</v>
-      </c>
-      <c r="B595" t="n">
-        <v>2134.765</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="3" t="n">
-        <v>44915</v>
-      </c>
-      <c r="B596" t="n">
-        <v>2159.408</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="3" t="n">
-        <v>44916</v>
-      </c>
-      <c r="B597" t="n">
-        <v>2206.965</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="3" t="n">
-        <v>44917</v>
-      </c>
-      <c r="B598" t="n">
-        <v>2222.898</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="3" t="n">
-        <v>44918</v>
-      </c>
-      <c r="B599" t="n">
-        <v>2216.348</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="3" t="n">
-        <v>44922</v>
-      </c>
-      <c r="B600" t="n">
-        <v>2221.259</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="3" t="n">
-        <v>44923</v>
-      </c>
-      <c r="B601" t="n">
-        <v>2293.003</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="3" t="n">
-        <v>44924</v>
-      </c>
-      <c r="B602" t="n">
-        <v>2308.319</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="3" t="n">
-        <v>44925</v>
-      </c>
-      <c r="B603" t="n">
-        <v>2553.716</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B604" t="n">
-        <v>2188.272</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="3" t="n">
-        <v>44930</v>
-      </c>
-      <c r="B605" t="n">
-        <v>2229.542</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="3" t="n">
-        <v>44931</v>
-      </c>
-      <c r="B606" t="n">
-        <v>2242.486</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="3" t="n">
-        <v>44932</v>
-      </c>
-      <c r="B607" t="n">
-        <v>2208.265</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="3" t="n">
-        <v>44935</v>
-      </c>
-      <c r="B608" t="n">
-        <v>2199.121</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="3" t="n">
-        <v>44936</v>
-      </c>
-      <c r="B609" t="n">
-        <v>2192.942</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="3" t="n">
-        <v>44937</v>
-      </c>
-      <c r="B610" t="n">
-        <v>2199.17</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="3" t="n">
-        <v>44938</v>
-      </c>
-      <c r="B611" t="n">
-        <v>2202.989</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="3" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B612" t="n">
-        <v>2179.781</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="3" t="n">
-        <v>44943</v>
-      </c>
-      <c r="B613" t="n">
-        <v>2093.328</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="3" t="n">
-        <v>44944</v>
-      </c>
-      <c r="B614" t="n">
-        <v>2131.678</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="3" t="n">
-        <v>44945</v>
-      </c>
-      <c r="B615" t="n">
-        <v>2110.145</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="3" t="n">
-        <v>44946</v>
-      </c>
-      <c r="B616" t="n">
-        <v>2090.523</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="3" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B617" t="n">
-        <v>2135.499</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="3" t="n">
-        <v>44950</v>
-      </c>
-      <c r="B618" t="n">
-        <v>2048.386</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="3" t="n">
-        <v>44951</v>
-      </c>
-      <c r="B619" t="n">
-        <v>2031.561</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="3" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B620" t="n">
-        <v>2024.069</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="3" t="n">
-        <v>44953</v>
-      </c>
-      <c r="B621" t="n">
-        <v>2003.634</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="3" t="n">
-        <v>44956</v>
-      </c>
-      <c r="B622" t="n">
-        <v>2048.714</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="3" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B623" t="n">
-        <v>2061.572</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="3" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B624" t="n">
-        <v>2038.262</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="B625" t="n">
-        <v>2050.063</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="3" t="n">
-        <v>44960</v>
-      </c>
-      <c r="B626" t="n">
-        <v>2041.217</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="3" t="n">
-        <v>44963</v>
-      </c>
-      <c r="B627" t="n">
-        <v>2072.261</v>
+        <v>1822.303</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +4012,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-07-09</t>
         </is>
       </c>
     </row>
@@ -5520,7 +4024,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-07-09</t>
         </is>
       </c>
     </row>
@@ -5556,7 +4060,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-07-07</t>
         </is>
       </c>
     </row>
@@ -5592,7 +4096,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Billions of US Dollars</t>
+          <t>Billions of U.S. Dollars</t>
         </is>
       </c>
     </row>
@@ -5604,7 +4108,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bil. of US $</t>
+          <t>Bil. of U.S. $</t>
         </is>
       </c>
     </row>
@@ -5640,7 +4144,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-02-06 13:01:05-06</t>
+          <t>2023-07-07 13:01:08-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3964,6 +3964,30 @@
       </c>
       <c r="B440" t="n">
         <v>1822.303</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1811.981</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B442" t="n">
+        <v>1775.796</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B443" t="n">
+        <v>1820.146</v>
       </c>
     </row>
   </sheetData>
@@ -4012,7 +4036,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4048,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4084,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4168,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-07 13:01:08-05</t>
+          <t>2023-07-12 13:01:06-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3988,6 +3988,46 @@
       </c>
       <c r="B443" t="n">
         <v>1820.146</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1767.432</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1740.777</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B446" t="n">
+        <v>1728.322</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B447" t="n">
+        <v>1716.862</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B448" t="n">
+        <v>1732.804</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4076,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4088,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4124,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-19</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4208,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-12 13:01:06-05</t>
+          <t>2023-07-19 13:01:03-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B448"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4028,6 +4028,22 @@
       </c>
       <c r="B448" t="n">
         <v>1732.804</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B449" t="n">
+        <v>1721.001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B450" t="n">
+        <v>1770.752</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4092,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4104,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4140,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-21</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4224,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-19 13:01:03-05</t>
+          <t>2023-07-21 13:01:04-05</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4235,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4044,6 +4044,70 @@
       </c>
       <c r="B450" t="n">
         <v>1770.752</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1770.867</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B452" t="n">
+        <v>1720.716</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1749.733</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B454" t="n">
+        <v>1735.783</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B455" t="n">
+        <v>1730.227</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B456" t="n">
+        <v>1821.124</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B457" t="n">
+        <v>1739.554</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1770.186</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4156,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4168,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>
@@ -4224,7 +4288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-21 13:01:04-05</t>
+          <t>2023-08-02 13:01:05-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4108,6 +4108,14 @@
       </c>
       <c r="B458" t="n">
         <v>1770.186</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B459" t="n">
+        <v>1776.774</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4164,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4176,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4212,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4296,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-02 13:01:05-05</t>
+          <t>2023-08-03 13:01:06-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4116,6 +4116,30 @@
       </c>
       <c r="B459" t="n">
         <v>1776.774</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B460" t="n">
+        <v>1793.804</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1810.583</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1778.351</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4188,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4200,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4236,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-08</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4320,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-03 13:01:06-05</t>
+          <t>2023-08-08 13:01:06-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4140,6 +4140,86 @@
       </c>
       <c r="B462" t="n">
         <v>1778.351</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1796.519</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1759.897</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1773.236</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1799.311</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1743.784</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1796.725</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1794.12</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1819.201</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1824.788</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B472" t="n">
+        <v>1812.294</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +4268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4280,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4316,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4400,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-08 13:01:06-05</t>
+          <t>2023-08-22 13:01:06-05</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4411,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B472"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4220,6 +4220,142 @@
       </c>
       <c r="B472" t="n">
         <v>1812.294</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1816.533</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B474" t="n">
+        <v>1731.623</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B475" t="n">
+        <v>1687.379</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B476" t="n">
+        <v>1708.605</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1693.278</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B478" t="n">
+        <v>1696.819</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1651.602</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B480" t="n">
+        <v>1574.065</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B481" t="n">
+        <v>1568.49</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1606.244</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1535.289</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1525.403</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1549.111</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1493.781</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1546.225</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1492.427</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1401.403</v>
       </c>
     </row>
   </sheetData>
@@ -4268,7 +4404,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4416,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4452,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-15</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4536,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-22 13:01:06-05</t>
+          <t>2023-09-15 13:01:06-05</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4547,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4356,6 +4356,230 @@
       </c>
       <c r="B489" t="n">
         <v>1401.403</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1452.942</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1453.324</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1486.984</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1454.115</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1427.575</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1437.31</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1438.301</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1442.805</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1453.366</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1557.569</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1365.739</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1348.465</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1342.031</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1265.132</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1283.461</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1222.44</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1239.382</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1157.319</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1151.818</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="3" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1108.819</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1082.502</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1150.781</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="3" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1114.179</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="3" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1138.756</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="3" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1157.976</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="3" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1097.875</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1100.617</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1089.85</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +4628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4640,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-10-26</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4760,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-09-15 13:01:06-05</t>
+          <t>2023-10-26 13:01:02-05</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4771,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,6 +4580,14 @@
       </c>
       <c r="B517" t="n">
         <v>1089.85</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1091.858</v>
       </c>
     </row>
   </sheetData>
@@ -4628,7 +4636,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4768,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-26 13:01:02-05</t>
+          <t>2023-10-27 13:01:02-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4588,6 +4588,110 @@
       </c>
       <c r="B518" t="n">
         <v>1091.858</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1138.035</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="3" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1137.697</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1079.462</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="3" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1054.986</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1071.139</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="3" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1062.878</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="3" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1008.685</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="3" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1024.451</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="3" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B527" t="n">
+        <v>993.314</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="3" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1032.72</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="3" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1020.272</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="3" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B530" t="n">
+        <v>988.298</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B531" t="n">
+        <v>944.241</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4740,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4752,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4788,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-27 13:01:02-05</t>
+          <t>2023-11-15 13:01:02-06</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4883,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4692,6 +4692,30 @@
       </c>
       <c r="B531" t="n">
         <v>944.241</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B532" t="n">
+        <v>912.01</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B533" t="n">
+        <v>935.803</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="3" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B534" t="n">
+        <v>953.088</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4764,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4776,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4812,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-20</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4896,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-15 13:01:02-06</t>
+          <t>2023-11-20 13:01:03-06</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,10 +19,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -66,12 +88,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,9 +456,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -455,7 +477,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>44470</v>
       </c>
       <c r="B2" t="n">
@@ -463,7 +485,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>44473</v>
       </c>
       <c r="B3" t="n">
@@ -471,7 +493,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44474</v>
       </c>
       <c r="B4" t="n">
@@ -479,7 +501,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44475</v>
       </c>
       <c r="B5" t="n">
@@ -487,7 +509,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44476</v>
       </c>
       <c r="B6" t="n">
@@ -495,7 +517,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44477</v>
       </c>
       <c r="B7" t="n">
@@ -503,7 +525,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44481</v>
       </c>
       <c r="B8" t="n">
@@ -511,7 +533,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44482</v>
       </c>
       <c r="B9" t="n">
@@ -519,7 +541,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>44483</v>
       </c>
       <c r="B10" t="n">
@@ -527,7 +549,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>44484</v>
       </c>
       <c r="B11" t="n">
@@ -535,7 +557,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>44487</v>
       </c>
       <c r="B12" t="n">
@@ -543,7 +565,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>44488</v>
       </c>
       <c r="B13" t="n">
@@ -551,7 +573,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>44489</v>
       </c>
       <c r="B14" t="n">
@@ -559,7 +581,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>44490</v>
       </c>
       <c r="B15" t="n">
@@ -567,7 +589,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>44491</v>
       </c>
       <c r="B16" t="n">
@@ -575,7 +597,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>44494</v>
       </c>
       <c r="B17" t="n">
@@ -583,7 +605,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>44495</v>
       </c>
       <c r="B18" t="n">
@@ -591,7 +613,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>44496</v>
       </c>
       <c r="B19" t="n">
@@ -599,7 +621,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>44497</v>
       </c>
       <c r="B20" t="n">
@@ -607,7 +629,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>44498</v>
       </c>
       <c r="B21" t="n">
@@ -615,7 +637,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>44501</v>
       </c>
       <c r="B22" t="n">
@@ -623,7 +645,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>44502</v>
       </c>
       <c r="B23" t="n">
@@ -631,7 +653,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>44503</v>
       </c>
       <c r="B24" t="n">
@@ -639,7 +661,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>44504</v>
       </c>
       <c r="B25" t="n">
@@ -647,7 +669,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>44505</v>
       </c>
       <c r="B26" t="n">
@@ -655,7 +677,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>44508</v>
       </c>
       <c r="B27" t="n">
@@ -663,7 +685,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>44509</v>
       </c>
       <c r="B28" t="n">
@@ -671,7 +693,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>44510</v>
       </c>
       <c r="B29" t="n">
@@ -679,7 +701,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>44512</v>
       </c>
       <c r="B30" t="n">
@@ -687,7 +709,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>44515</v>
       </c>
       <c r="B31" t="n">
@@ -695,7 +717,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>44516</v>
       </c>
       <c r="B32" t="n">
@@ -703,7 +725,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>44517</v>
       </c>
       <c r="B33" t="n">
@@ -711,7 +733,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>44518</v>
       </c>
       <c r="B34" t="n">
@@ -719,7 +741,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>44519</v>
       </c>
       <c r="B35" t="n">
@@ -727,7 +749,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>44522</v>
       </c>
       <c r="B36" t="n">
@@ -735,7 +757,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>44523</v>
       </c>
       <c r="B37" t="n">
@@ -743,7 +765,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>44524</v>
       </c>
       <c r="B38" t="n">
@@ -751,7 +773,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>44526</v>
       </c>
       <c r="B39" t="n">
@@ -759,7 +781,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>44529</v>
       </c>
       <c r="B40" t="n">
@@ -767,7 +789,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>44530</v>
       </c>
       <c r="B41" t="n">
@@ -775,7 +797,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>44531</v>
       </c>
       <c r="B42" t="n">
@@ -783,7 +805,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>44532</v>
       </c>
       <c r="B43" t="n">
@@ -791,7 +813,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>44533</v>
       </c>
       <c r="B44" t="n">
@@ -799,7 +821,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>44536</v>
       </c>
       <c r="B45" t="n">
@@ -807,7 +829,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="2" t="n">
         <v>44537</v>
       </c>
       <c r="B46" t="n">
@@ -815,7 +837,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="2" t="n">
         <v>44538</v>
       </c>
       <c r="B47" t="n">
@@ -823,7 +845,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="2" t="n">
         <v>44539</v>
       </c>
       <c r="B48" t="n">
@@ -831,7 +853,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="2" t="n">
         <v>44540</v>
       </c>
       <c r="B49" t="n">
@@ -839,7 +861,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="B50" t="n">
@@ -847,7 +869,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="2" t="n">
         <v>44544</v>
       </c>
       <c r="B51" t="n">
@@ -855,7 +877,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="2" t="n">
         <v>44545</v>
       </c>
       <c r="B52" t="n">
@@ -863,7 +885,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="2" t="n">
         <v>44546</v>
       </c>
       <c r="B53" t="n">
@@ -871,7 +893,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="2" t="n">
         <v>44547</v>
       </c>
       <c r="B54" t="n">
@@ -879,7 +901,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="B55" t="n">
@@ -887,7 +909,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="2" t="n">
         <v>44551</v>
       </c>
       <c r="B56" t="n">
@@ -895,7 +917,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="2" t="n">
         <v>44552</v>
       </c>
       <c r="B57" t="n">
@@ -903,7 +925,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="2" t="n">
         <v>44553</v>
       </c>
       <c r="B58" t="n">
@@ -911,7 +933,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="B59" t="n">
@@ -919,7 +941,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="2" t="n">
         <v>44558</v>
       </c>
       <c r="B60" t="n">
@@ -927,7 +949,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="2" t="n">
         <v>44559</v>
       </c>
       <c r="B61" t="n">
@@ -935,7 +957,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="2" t="n">
         <v>44560</v>
       </c>
       <c r="B62" t="n">
@@ -943,7 +965,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="2" t="n">
         <v>44561</v>
       </c>
       <c r="B63" t="n">
@@ -951,7 +973,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="B64" t="n">
@@ -959,7 +981,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="2" t="n">
         <v>44565</v>
       </c>
       <c r="B65" t="n">
@@ -967,7 +989,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="2" t="n">
         <v>44566</v>
       </c>
       <c r="B66" t="n">
@@ -975,7 +997,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="2" t="n">
         <v>44567</v>
       </c>
       <c r="B67" t="n">
@@ -983,7 +1005,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="2" t="n">
         <v>44568</v>
       </c>
       <c r="B68" t="n">
@@ -991,7 +1013,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="B69" t="n">
@@ -999,7 +1021,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="2" t="n">
         <v>44572</v>
       </c>
       <c r="B70" t="n">
@@ -1007,7 +1029,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="2" t="n">
         <v>44573</v>
       </c>
       <c r="B71" t="n">
@@ -1015,7 +1037,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="2" t="n">
         <v>44574</v>
       </c>
       <c r="B72" t="n">
@@ -1023,7 +1045,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="2" t="n">
         <v>44575</v>
       </c>
       <c r="B73" t="n">
@@ -1031,7 +1053,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="2" t="n">
         <v>44579</v>
       </c>
       <c r="B74" t="n">
@@ -1039,7 +1061,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>44580</v>
       </c>
       <c r="B75" t="n">
@@ -1047,7 +1069,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>44581</v>
       </c>
       <c r="B76" t="n">
@@ -1055,7 +1077,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="2" t="n">
         <v>44582</v>
       </c>
       <c r="B77" t="n">
@@ -1063,7 +1085,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="B78" t="n">
@@ -1071,7 +1093,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="2" t="n">
         <v>44586</v>
       </c>
       <c r="B79" t="n">
@@ -1079,7 +1101,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="2" t="n">
         <v>44587</v>
       </c>
       <c r="B80" t="n">
@@ -1087,7 +1109,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="2" t="n">
         <v>44588</v>
       </c>
       <c r="B81" t="n">
@@ -1095,7 +1117,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="2" t="n">
         <v>44589</v>
       </c>
       <c r="B82" t="n">
@@ -1103,7 +1125,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="B83" t="n">
@@ -1111,7 +1133,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="2" t="n">
         <v>44593</v>
       </c>
       <c r="B84" t="n">
@@ -1119,7 +1141,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="2" t="n">
         <v>44594</v>
       </c>
       <c r="B85" t="n">
@@ -1127,7 +1149,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="2" t="n">
         <v>44595</v>
       </c>
       <c r="B86" t="n">
@@ -1135,7 +1157,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="2" t="n">
         <v>44596</v>
       </c>
       <c r="B87" t="n">
@@ -1143,7 +1165,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="B88" t="n">
@@ -1151,7 +1173,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="2" t="n">
         <v>44600</v>
       </c>
       <c r="B89" t="n">
@@ -1159,7 +1181,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="2" t="n">
         <v>44601</v>
       </c>
       <c r="B90" t="n">
@@ -1167,7 +1189,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="2" t="n">
         <v>44602</v>
       </c>
       <c r="B91" t="n">
@@ -1175,7 +1197,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="2" t="n">
         <v>44603</v>
       </c>
       <c r="B92" t="n">
@@ -1183,7 +1205,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="B93" t="n">
@@ -1191,7 +1213,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="2" t="n">
         <v>44607</v>
       </c>
       <c r="B94" t="n">
@@ -1199,7 +1221,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="2" t="n">
         <v>44608</v>
       </c>
       <c r="B95" t="n">
@@ -1207,7 +1229,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="2" t="n">
         <v>44609</v>
       </c>
       <c r="B96" t="n">
@@ -1215,7 +1237,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="2" t="n">
         <v>44610</v>
       </c>
       <c r="B97" t="n">
@@ -1223,7 +1245,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="2" t="n">
         <v>44614</v>
       </c>
       <c r="B98" t="n">
@@ -1231,7 +1253,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="2" t="n">
         <v>44615</v>
       </c>
       <c r="B99" t="n">
@@ -1239,7 +1261,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="2" t="n">
         <v>44616</v>
       </c>
       <c r="B100" t="n">
@@ -1247,7 +1269,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="2" t="n">
         <v>44617</v>
       </c>
       <c r="B101" t="n">
@@ -1255,7 +1277,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="B102" t="n">
@@ -1263,7 +1285,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="2" t="n">
         <v>44621</v>
       </c>
       <c r="B103" t="n">
@@ -1271,7 +1293,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="2" t="n">
         <v>44622</v>
       </c>
       <c r="B104" t="n">
@@ -1279,7 +1301,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="2" t="n">
         <v>44623</v>
       </c>
       <c r="B105" t="n">
@@ -1287,7 +1309,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="2" t="n">
         <v>44624</v>
       </c>
       <c r="B106" t="n">
@@ -1295,7 +1317,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="B107" t="n">
@@ -1303,7 +1325,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="2" t="n">
         <v>44628</v>
       </c>
       <c r="B108" t="n">
@@ -1311,7 +1333,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="2" t="n">
         <v>44629</v>
       </c>
       <c r="B109" t="n">
@@ -1319,7 +1341,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="2" t="n">
         <v>44630</v>
       </c>
       <c r="B110" t="n">
@@ -1327,7 +1349,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="B111" t="n">
@@ -1335,7 +1357,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="B112" t="n">
@@ -1343,7 +1365,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="2" t="n">
         <v>44635</v>
       </c>
       <c r="B113" t="n">
@@ -1351,7 +1373,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="2" t="n">
         <v>44636</v>
       </c>
       <c r="B114" t="n">
@@ -1359,7 +1381,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="2" t="n">
         <v>44637</v>
       </c>
       <c r="B115" t="n">
@@ -1367,7 +1389,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="2" t="n">
         <v>44638</v>
       </c>
       <c r="B116" t="n">
@@ -1375,7 +1397,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="B117" t="n">
@@ -1383,7 +1405,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="2" t="n">
         <v>44642</v>
       </c>
       <c r="B118" t="n">
@@ -1391,7 +1413,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="2" t="n">
         <v>44643</v>
       </c>
       <c r="B119" t="n">
@@ -1399,7 +1421,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" s="2" t="n">
         <v>44644</v>
       </c>
       <c r="B120" t="n">
@@ -1407,7 +1429,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" s="2" t="n">
         <v>44645</v>
       </c>
       <c r="B121" t="n">
@@ -1415,7 +1437,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="B122" t="n">
@@ -1423,7 +1445,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" s="2" t="n">
         <v>44649</v>
       </c>
       <c r="B123" t="n">
@@ -1431,7 +1453,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" s="2" t="n">
         <v>44650</v>
       </c>
       <c r="B124" t="n">
@@ -1439,7 +1461,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" s="2" t="n">
         <v>44651</v>
       </c>
       <c r="B125" t="n">
@@ -1447,7 +1469,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" s="2" t="n">
         <v>44652</v>
       </c>
       <c r="B126" t="n">
@@ -1455,7 +1477,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="B127" t="n">
@@ -1463,7 +1485,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" s="2" t="n">
         <v>44656</v>
       </c>
       <c r="B128" t="n">
@@ -1471,7 +1493,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" s="2" t="n">
         <v>44657</v>
       </c>
       <c r="B129" t="n">
@@ -1479,7 +1501,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" s="2" t="n">
         <v>44658</v>
       </c>
       <c r="B130" t="n">
@@ -1487,7 +1509,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" s="2" t="n">
         <v>44659</v>
       </c>
       <c r="B131" t="n">
@@ -1495,7 +1517,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" s="2" t="n">
         <v>44662</v>
       </c>
       <c r="B132" t="n">
@@ -1503,7 +1525,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" s="2" t="n">
         <v>44663</v>
       </c>
       <c r="B133" t="n">
@@ -1511,7 +1533,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" s="2" t="n">
         <v>44664</v>
       </c>
       <c r="B134" t="n">
@@ -1519,7 +1541,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" s="2" t="n">
         <v>44665</v>
       </c>
       <c r="B135" t="n">
@@ -1527,7 +1549,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="B136" t="n">
@@ -1535,7 +1557,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n">
+      <c r="A137" s="2" t="n">
         <v>44670</v>
       </c>
       <c r="B137" t="n">
@@ -1543,7 +1565,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n">
+      <c r="A138" s="2" t="n">
         <v>44671</v>
       </c>
       <c r="B138" t="n">
@@ -1551,7 +1573,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n">
+      <c r="A139" s="2" t="n">
         <v>44672</v>
       </c>
       <c r="B139" t="n">
@@ -1559,7 +1581,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n">
+      <c r="A140" s="2" t="n">
         <v>44673</v>
       </c>
       <c r="B140" t="n">
@@ -1567,7 +1589,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n">
+      <c r="A141" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="B141" t="n">
@@ -1575,7 +1597,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n">
+      <c r="A142" s="2" t="n">
         <v>44677</v>
       </c>
       <c r="B142" t="n">
@@ -1583,7 +1605,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n">
+      <c r="A143" s="2" t="n">
         <v>44678</v>
       </c>
       <c r="B143" t="n">
@@ -1591,7 +1613,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n">
+      <c r="A144" s="2" t="n">
         <v>44679</v>
       </c>
       <c r="B144" t="n">
@@ -1599,7 +1621,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n">
+      <c r="A145" s="2" t="n">
         <v>44680</v>
       </c>
       <c r="B145" t="n">
@@ -1607,7 +1629,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n">
+      <c r="A146" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="B146" t="n">
@@ -1615,7 +1637,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n">
+      <c r="A147" s="2" t="n">
         <v>44684</v>
       </c>
       <c r="B147" t="n">
@@ -1623,7 +1645,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n">
+      <c r="A148" s="2" t="n">
         <v>44685</v>
       </c>
       <c r="B148" t="n">
@@ -1631,7 +1653,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n">
+      <c r="A149" s="2" t="n">
         <v>44686</v>
       </c>
       <c r="B149" t="n">
@@ -1639,7 +1661,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n">
+      <c r="A150" s="2" t="n">
         <v>44687</v>
       </c>
       <c r="B150" t="n">
@@ -1647,7 +1669,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n">
+      <c r="A151" s="2" t="n">
         <v>44690</v>
       </c>
       <c r="B151" t="n">
@@ -1655,7 +1677,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n">
+      <c r="A152" s="2" t="n">
         <v>44691</v>
       </c>
       <c r="B152" t="n">
@@ -1663,7 +1685,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n">
+      <c r="A153" s="2" t="n">
         <v>44692</v>
       </c>
       <c r="B153" t="n">
@@ -1671,7 +1693,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n">
+      <c r="A154" s="2" t="n">
         <v>44693</v>
       </c>
       <c r="B154" t="n">
@@ -1679,7 +1701,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n">
+      <c r="A155" s="2" t="n">
         <v>44694</v>
       </c>
       <c r="B155" t="n">
@@ -1687,7 +1709,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n">
+      <c r="A156" s="2" t="n">
         <v>44697</v>
       </c>
       <c r="B156" t="n">
@@ -1695,7 +1717,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n">
+      <c r="A157" s="2" t="n">
         <v>44698</v>
       </c>
       <c r="B157" t="n">
@@ -1703,7 +1725,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n">
+      <c r="A158" s="2" t="n">
         <v>44699</v>
       </c>
       <c r="B158" t="n">
@@ -1711,7 +1733,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n">
+      <c r="A159" s="2" t="n">
         <v>44700</v>
       </c>
       <c r="B159" t="n">
@@ -1719,7 +1741,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n">
+      <c r="A160" s="2" t="n">
         <v>44701</v>
       </c>
       <c r="B160" t="n">
@@ -1727,7 +1749,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n">
+      <c r="A161" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="B161" t="n">
@@ -1735,7 +1757,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n">
+      <c r="A162" s="2" t="n">
         <v>44705</v>
       </c>
       <c r="B162" t="n">
@@ -1743,7 +1765,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n">
+      <c r="A163" s="2" t="n">
         <v>44706</v>
       </c>
       <c r="B163" t="n">
@@ -1751,7 +1773,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n">
+      <c r="A164" s="2" t="n">
         <v>44707</v>
       </c>
       <c r="B164" t="n">
@@ -1759,7 +1781,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="n">
+      <c r="A165" s="2" t="n">
         <v>44708</v>
       </c>
       <c r="B165" t="n">
@@ -1767,7 +1789,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="n">
+      <c r="A166" s="2" t="n">
         <v>44712</v>
       </c>
       <c r="B166" t="n">
@@ -1775,7 +1797,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="n">
+      <c r="A167" s="2" t="n">
         <v>44713</v>
       </c>
       <c r="B167" t="n">
@@ -1783,7 +1805,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="n">
+      <c r="A168" s="2" t="n">
         <v>44714</v>
       </c>
       <c r="B168" t="n">
@@ -1791,7 +1813,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="n">
+      <c r="A169" s="2" t="n">
         <v>44715</v>
       </c>
       <c r="B169" t="n">
@@ -1799,7 +1821,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="n">
+      <c r="A170" s="2" t="n">
         <v>44718</v>
       </c>
       <c r="B170" t="n">
@@ -1807,7 +1829,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="n">
+      <c r="A171" s="2" t="n">
         <v>44719</v>
       </c>
       <c r="B171" t="n">
@@ -1815,7 +1837,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="n">
+      <c r="A172" s="2" t="n">
         <v>44720</v>
       </c>
       <c r="B172" t="n">
@@ -1823,7 +1845,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="n">
+      <c r="A173" s="2" t="n">
         <v>44721</v>
       </c>
       <c r="B173" t="n">
@@ -1831,7 +1853,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="n">
+      <c r="A174" s="2" t="n">
         <v>44722</v>
       </c>
       <c r="B174" t="n">
@@ -1839,7 +1861,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="n">
+      <c r="A175" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="B175" t="n">
@@ -1847,7 +1869,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="n">
+      <c r="A176" s="2" t="n">
         <v>44726</v>
       </c>
       <c r="B176" t="n">
@@ -1855,7 +1877,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="n">
+      <c r="A177" s="2" t="n">
         <v>44727</v>
       </c>
       <c r="B177" t="n">
@@ -1863,7 +1885,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="n">
+      <c r="A178" s="2" t="n">
         <v>44728</v>
       </c>
       <c r="B178" t="n">
@@ -1871,7 +1893,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="n">
+      <c r="A179" s="2" t="n">
         <v>44729</v>
       </c>
       <c r="B179" t="n">
@@ -1879,7 +1901,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="n">
+      <c r="A180" s="2" t="n">
         <v>44733</v>
       </c>
       <c r="B180" t="n">
@@ -1887,7 +1909,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="n">
+      <c r="A181" s="2" t="n">
         <v>44734</v>
       </c>
       <c r="B181" t="n">
@@ -1895,7 +1917,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="n">
+      <c r="A182" s="2" t="n">
         <v>44735</v>
       </c>
       <c r="B182" t="n">
@@ -1903,7 +1925,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="n">
+      <c r="A183" s="2" t="n">
         <v>44736</v>
       </c>
       <c r="B183" t="n">
@@ -1911,7 +1933,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="n">
+      <c r="A184" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="B184" t="n">
@@ -1919,7 +1941,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="n">
+      <c r="A185" s="2" t="n">
         <v>44740</v>
       </c>
       <c r="B185" t="n">
@@ -1927,7 +1949,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="n">
+      <c r="A186" s="2" t="n">
         <v>44741</v>
       </c>
       <c r="B186" t="n">
@@ -1935,7 +1957,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="n">
+      <c r="A187" s="2" t="n">
         <v>44742</v>
       </c>
       <c r="B187" t="n">
@@ -1943,7 +1965,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="n">
+      <c r="A188" s="2" t="n">
         <v>44743</v>
       </c>
       <c r="B188" t="n">
@@ -1951,7 +1973,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="n">
+      <c r="A189" s="2" t="n">
         <v>44747</v>
       </c>
       <c r="B189" t="n">
@@ -1959,7 +1981,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="n">
+      <c r="A190" s="2" t="n">
         <v>44748</v>
       </c>
       <c r="B190" t="n">
@@ -1967,7 +1989,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="n">
+      <c r="A191" s="2" t="n">
         <v>44749</v>
       </c>
       <c r="B191" t="n">
@@ -1975,7 +1997,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="n">
+      <c r="A192" s="2" t="n">
         <v>44750</v>
       </c>
       <c r="B192" t="n">
@@ -1983,7 +2005,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="n">
+      <c r="A193" s="2" t="n">
         <v>44753</v>
       </c>
       <c r="B193" t="n">
@@ -1991,7 +2013,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="n">
+      <c r="A194" s="2" t="n">
         <v>44754</v>
       </c>
       <c r="B194" t="n">
@@ -1999,7 +2021,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="n">
+      <c r="A195" s="2" t="n">
         <v>44755</v>
       </c>
       <c r="B195" t="n">
@@ -2007,7 +2029,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="n">
+      <c r="A196" s="2" t="n">
         <v>44756</v>
       </c>
       <c r="B196" t="n">
@@ -2015,7 +2037,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="n">
+      <c r="A197" s="2" t="n">
         <v>44757</v>
       </c>
       <c r="B197" t="n">
@@ -2023,7 +2045,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="n">
+      <c r="A198" s="2" t="n">
         <v>44760</v>
       </c>
       <c r="B198" t="n">
@@ -2031,7 +2053,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="n">
+      <c r="A199" s="2" t="n">
         <v>44761</v>
       </c>
       <c r="B199" t="n">
@@ -2039,7 +2061,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="n">
+      <c r="A200" s="2" t="n">
         <v>44762</v>
       </c>
       <c r="B200" t="n">
@@ -2047,7 +2069,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="n">
+      <c r="A201" s="2" t="n">
         <v>44763</v>
       </c>
       <c r="B201" t="n">
@@ -2055,7 +2077,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="n">
+      <c r="A202" s="2" t="n">
         <v>44764</v>
       </c>
       <c r="B202" t="n">
@@ -2063,7 +2085,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="n">
+      <c r="A203" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="B203" t="n">
@@ -2071,7 +2093,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="n">
+      <c r="A204" s="2" t="n">
         <v>44768</v>
       </c>
       <c r="B204" t="n">
@@ -2079,7 +2101,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="n">
+      <c r="A205" s="2" t="n">
         <v>44769</v>
       </c>
       <c r="B205" t="n">
@@ -2087,7 +2109,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="n">
+      <c r="A206" s="2" t="n">
         <v>44770</v>
       </c>
       <c r="B206" t="n">
@@ -2095,7 +2117,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="n">
+      <c r="A207" s="2" t="n">
         <v>44771</v>
       </c>
       <c r="B207" t="n">
@@ -2103,7 +2125,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="n">
+      <c r="A208" s="2" t="n">
         <v>44774</v>
       </c>
       <c r="B208" t="n">
@@ -2111,7 +2133,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="n">
+      <c r="A209" s="2" t="n">
         <v>44775</v>
       </c>
       <c r="B209" t="n">
@@ -2119,7 +2141,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="n">
+      <c r="A210" s="2" t="n">
         <v>44776</v>
       </c>
       <c r="B210" t="n">
@@ -2127,7 +2149,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="n">
+      <c r="A211" s="2" t="n">
         <v>44777</v>
       </c>
       <c r="B211" t="n">
@@ -2135,7 +2157,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="n">
+      <c r="A212" s="2" t="n">
         <v>44778</v>
       </c>
       <c r="B212" t="n">
@@ -2143,7 +2165,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="n">
+      <c r="A213" s="2" t="n">
         <v>44781</v>
       </c>
       <c r="B213" t="n">
@@ -2151,7 +2173,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="n">
+      <c r="A214" s="2" t="n">
         <v>44782</v>
       </c>
       <c r="B214" t="n">
@@ -2159,7 +2181,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="n">
+      <c r="A215" s="2" t="n">
         <v>44783</v>
       </c>
       <c r="B215" t="n">
@@ -2167,7 +2189,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="n">
+      <c r="A216" s="2" t="n">
         <v>44784</v>
       </c>
       <c r="B216" t="n">
@@ -2175,7 +2197,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="n">
+      <c r="A217" s="2" t="n">
         <v>44785</v>
       </c>
       <c r="B217" t="n">
@@ -2183,7 +2205,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="n">
+      <c r="A218" s="2" t="n">
         <v>44788</v>
       </c>
       <c r="B218" t="n">
@@ -2191,7 +2213,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="n">
+      <c r="A219" s="2" t="n">
         <v>44789</v>
       </c>
       <c r="B219" t="n">
@@ -2199,7 +2221,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="n">
+      <c r="A220" s="2" t="n">
         <v>44790</v>
       </c>
       <c r="B220" t="n">
@@ -2207,7 +2229,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="n">
+      <c r="A221" s="2" t="n">
         <v>44791</v>
       </c>
       <c r="B221" t="n">
@@ -2215,7 +2237,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="n">
+      <c r="A222" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="B222" t="n">
@@ -2223,7 +2245,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="n">
+      <c r="A223" s="2" t="n">
         <v>44795</v>
       </c>
       <c r="B223" t="n">
@@ -2231,7 +2253,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="n">
+      <c r="A224" s="2" t="n">
         <v>44796</v>
       </c>
       <c r="B224" t="n">
@@ -2239,7 +2261,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="n">
+      <c r="A225" s="2" t="n">
         <v>44797</v>
       </c>
       <c r="B225" t="n">
@@ -2247,7 +2269,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="n">
+      <c r="A226" s="2" t="n">
         <v>44798</v>
       </c>
       <c r="B226" t="n">
@@ -2255,7 +2277,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="n">
+      <c r="A227" s="2" t="n">
         <v>44799</v>
       </c>
       <c r="B227" t="n">
@@ -2263,7 +2285,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="n">
+      <c r="A228" s="2" t="n">
         <v>44802</v>
       </c>
       <c r="B228" t="n">
@@ -2271,7 +2293,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="n">
+      <c r="A229" s="2" t="n">
         <v>44803</v>
       </c>
       <c r="B229" t="n">
@@ -2279,7 +2301,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="n">
+      <c r="A230" s="2" t="n">
         <v>44804</v>
       </c>
       <c r="B230" t="n">
@@ -2287,7 +2309,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="n">
+      <c r="A231" s="2" t="n">
         <v>44805</v>
       </c>
       <c r="B231" t="n">
@@ -2295,7 +2317,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="n">
+      <c r="A232" s="2" t="n">
         <v>44806</v>
       </c>
       <c r="B232" t="n">
@@ -2303,7 +2325,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="n">
+      <c r="A233" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="B233" t="n">
@@ -2311,7 +2333,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="n">
+      <c r="A234" s="2" t="n">
         <v>44811</v>
       </c>
       <c r="B234" t="n">
@@ -2319,7 +2341,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="n">
+      <c r="A235" s="2" t="n">
         <v>44812</v>
       </c>
       <c r="B235" t="n">
@@ -2327,7 +2349,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="n">
+      <c r="A236" s="2" t="n">
         <v>44813</v>
       </c>
       <c r="B236" t="n">
@@ -2335,7 +2357,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="n">
+      <c r="A237" s="2" t="n">
         <v>44816</v>
       </c>
       <c r="B237" t="n">
@@ -2343,7 +2365,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="n">
+      <c r="A238" s="2" t="n">
         <v>44817</v>
       </c>
       <c r="B238" t="n">
@@ -2351,7 +2373,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="n">
+      <c r="A239" s="2" t="n">
         <v>44818</v>
       </c>
       <c r="B239" t="n">
@@ -2359,7 +2381,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="n">
+      <c r="A240" s="2" t="n">
         <v>44819</v>
       </c>
       <c r="B240" t="n">
@@ -2367,7 +2389,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="n">
+      <c r="A241" s="2" t="n">
         <v>44820</v>
       </c>
       <c r="B241" t="n">
@@ -2375,7 +2397,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="n">
+      <c r="A242" s="2" t="n">
         <v>44823</v>
       </c>
       <c r="B242" t="n">
@@ -2383,7 +2405,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="n">
+      <c r="A243" s="2" t="n">
         <v>44824</v>
       </c>
       <c r="B243" t="n">
@@ -2391,7 +2413,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="n">
+      <c r="A244" s="2" t="n">
         <v>44825</v>
       </c>
       <c r="B244" t="n">
@@ -2399,7 +2421,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="n">
+      <c r="A245" s="2" t="n">
         <v>44826</v>
       </c>
       <c r="B245" t="n">
@@ -2407,7 +2429,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="n">
+      <c r="A246" s="2" t="n">
         <v>44827</v>
       </c>
       <c r="B246" t="n">
@@ -2415,7 +2437,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="n">
+      <c r="A247" s="2" t="n">
         <v>44830</v>
       </c>
       <c r="B247" t="n">
@@ -2423,7 +2445,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="n">
+      <c r="A248" s="2" t="n">
         <v>44831</v>
       </c>
       <c r="B248" t="n">
@@ -2431,7 +2453,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="n">
+      <c r="A249" s="2" t="n">
         <v>44832</v>
       </c>
       <c r="B249" t="n">
@@ -2439,7 +2461,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="n">
+      <c r="A250" s="2" t="n">
         <v>44833</v>
       </c>
       <c r="B250" t="n">
@@ -2447,7 +2469,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="n">
+      <c r="A251" s="2" t="n">
         <v>44834</v>
       </c>
       <c r="B251" t="n">
@@ -2455,7 +2477,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="n">
+      <c r="A252" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="B252" t="n">
@@ -2463,7 +2485,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="n">
+      <c r="A253" s="2" t="n">
         <v>44838</v>
       </c>
       <c r="B253" t="n">
@@ -2471,7 +2493,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="n">
+      <c r="A254" s="2" t="n">
         <v>44839</v>
       </c>
       <c r="B254" t="n">
@@ -2479,7 +2501,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="n">
+      <c r="A255" s="2" t="n">
         <v>44840</v>
       </c>
       <c r="B255" t="n">
@@ -2487,7 +2509,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="n">
+      <c r="A256" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="B256" t="n">
@@ -2495,7 +2517,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="n">
+      <c r="A257" s="2" t="n">
         <v>44845</v>
       </c>
       <c r="B257" t="n">
@@ -2503,7 +2525,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="n">
+      <c r="A258" s="2" t="n">
         <v>44846</v>
       </c>
       <c r="B258" t="n">
@@ -2511,7 +2533,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="n">
+      <c r="A259" s="2" t="n">
         <v>44847</v>
       </c>
       <c r="B259" t="n">
@@ -2519,7 +2541,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="n">
+      <c r="A260" s="2" t="n">
         <v>44848</v>
       </c>
       <c r="B260" t="n">
@@ -2527,7 +2549,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="n">
+      <c r="A261" s="2" t="n">
         <v>44851</v>
       </c>
       <c r="B261" t="n">
@@ -2535,7 +2557,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="n">
+      <c r="A262" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B262" t="n">
@@ -2543,7 +2565,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="n">
+      <c r="A263" s="2" t="n">
         <v>44853</v>
       </c>
       <c r="B263" t="n">
@@ -2551,7 +2573,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="n">
+      <c r="A264" s="2" t="n">
         <v>44854</v>
       </c>
       <c r="B264" t="n">
@@ -2559,7 +2581,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="n">
+      <c r="A265" s="2" t="n">
         <v>44855</v>
       </c>
       <c r="B265" t="n">
@@ -2567,7 +2589,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="n">
+      <c r="A266" s="2" t="n">
         <v>44858</v>
       </c>
       <c r="B266" t="n">
@@ -2575,7 +2597,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="n">
+      <c r="A267" s="2" t="n">
         <v>44859</v>
       </c>
       <c r="B267" t="n">
@@ -2583,7 +2605,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="n">
+      <c r="A268" s="2" t="n">
         <v>44860</v>
       </c>
       <c r="B268" t="n">
@@ -2591,7 +2613,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="n">
+      <c r="A269" s="2" t="n">
         <v>44861</v>
       </c>
       <c r="B269" t="n">
@@ -2599,7 +2621,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="n">
+      <c r="A270" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="B270" t="n">
@@ -2607,7 +2629,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="n">
+      <c r="A271" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="B271" t="n">
@@ -2615,7 +2637,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="n">
+      <c r="A272" s="2" t="n">
         <v>44866</v>
       </c>
       <c r="B272" t="n">
@@ -2623,7 +2645,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="n">
+      <c r="A273" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="B273" t="n">
@@ -2631,7 +2653,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="n">
+      <c r="A274" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="B274" t="n">
@@ -2639,7 +2661,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="n">
+      <c r="A275" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="B275" t="n">
@@ -2647,7 +2669,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="n">
+      <c r="A276" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="B276" t="n">
@@ -2655,7 +2677,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="n">
+      <c r="A277" s="2" t="n">
         <v>44873</v>
       </c>
       <c r="B277" t="n">
@@ -2663,7 +2685,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="n">
+      <c r="A278" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="B278" t="n">
@@ -2671,7 +2693,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="n">
+      <c r="A279" s="2" t="n">
         <v>44875</v>
       </c>
       <c r="B279" t="n">
@@ -2679,7 +2701,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="n">
+      <c r="A280" s="2" t="n">
         <v>44879</v>
       </c>
       <c r="B280" t="n">
@@ -2687,7 +2709,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="n">
+      <c r="A281" s="2" t="n">
         <v>44880</v>
       </c>
       <c r="B281" t="n">
@@ -2695,7 +2717,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="n">
+      <c r="A282" s="2" t="n">
         <v>44881</v>
       </c>
       <c r="B282" t="n">
@@ -2703,7 +2725,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="n">
+      <c r="A283" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="B283" t="n">
@@ -2711,7 +2733,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="n">
+      <c r="A284" s="2" t="n">
         <v>44883</v>
       </c>
       <c r="B284" t="n">
@@ -2719,7 +2741,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="n">
+      <c r="A285" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="B285" t="n">
@@ -2727,7 +2749,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="n">
+      <c r="A286" s="2" t="n">
         <v>44887</v>
       </c>
       <c r="B286" t="n">
@@ -2735,7 +2757,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="n">
+      <c r="A287" s="2" t="n">
         <v>44888</v>
       </c>
       <c r="B287" t="n">
@@ -2743,7 +2765,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="n">
+      <c r="A288" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="B288" t="n">
@@ -2751,7 +2773,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="n">
+      <c r="A289" s="2" t="n">
         <v>44893</v>
       </c>
       <c r="B289" t="n">
@@ -2759,7 +2781,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="n">
+      <c r="A290" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="B290" t="n">
@@ -2767,7 +2789,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="n">
+      <c r="A291" s="2" t="n">
         <v>44895</v>
       </c>
       <c r="B291" t="n">
@@ -2775,7 +2797,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="n">
+      <c r="A292" s="2" t="n">
         <v>44896</v>
       </c>
       <c r="B292" t="n">
@@ -2783,7 +2805,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="n">
+      <c r="A293" s="2" t="n">
         <v>44897</v>
       </c>
       <c r="B293" t="n">
@@ -2791,7 +2813,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="n">
+      <c r="A294" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="B294" t="n">
@@ -2799,7 +2821,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="n">
+      <c r="A295" s="2" t="n">
         <v>44901</v>
       </c>
       <c r="B295" t="n">
@@ -2807,7 +2829,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="n">
+      <c r="A296" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="B296" t="n">
@@ -2815,7 +2837,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="n">
+      <c r="A297" s="2" t="n">
         <v>44903</v>
       </c>
       <c r="B297" t="n">
@@ -2823,7 +2845,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="n">
+      <c r="A298" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="B298" t="n">
@@ -2831,7 +2853,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="n">
+      <c r="A299" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="B299" t="n">
@@ -2839,7 +2861,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="n">
+      <c r="A300" s="2" t="n">
         <v>44908</v>
       </c>
       <c r="B300" t="n">
@@ -2847,7 +2869,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="n">
+      <c r="A301" s="2" t="n">
         <v>44909</v>
       </c>
       <c r="B301" t="n">
@@ -2855,7 +2877,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="n">
+      <c r="A302" s="2" t="n">
         <v>44910</v>
       </c>
       <c r="B302" t="n">
@@ -2863,7 +2885,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="n">
+      <c r="A303" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="B303" t="n">
@@ -2871,7 +2893,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="n">
+      <c r="A304" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="B304" t="n">
@@ -2879,7 +2901,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="n">
+      <c r="A305" s="2" t="n">
         <v>44915</v>
       </c>
       <c r="B305" t="n">
@@ -2887,7 +2909,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="n">
+      <c r="A306" s="2" t="n">
         <v>44916</v>
       </c>
       <c r="B306" t="n">
@@ -2895,7 +2917,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="n">
+      <c r="A307" s="2" t="n">
         <v>44917</v>
       </c>
       <c r="B307" t="n">
@@ -2903,7 +2925,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="n">
+      <c r="A308" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="B308" t="n">
@@ -2911,7 +2933,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="n">
+      <c r="A309" s="2" t="n">
         <v>44922</v>
       </c>
       <c r="B309" t="n">
@@ -2919,7 +2941,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="n">
+      <c r="A310" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="B310" t="n">
@@ -2927,7 +2949,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="n">
+      <c r="A311" s="2" t="n">
         <v>44924</v>
       </c>
       <c r="B311" t="n">
@@ -2935,7 +2957,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="n">
+      <c r="A312" s="2" t="n">
         <v>44925</v>
       </c>
       <c r="B312" t="n">
@@ -2943,7 +2965,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="n">
+      <c r="A313" s="2" t="n">
         <v>44929</v>
       </c>
       <c r="B313" t="n">
@@ -2951,7 +2973,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="n">
+      <c r="A314" s="2" t="n">
         <v>44930</v>
       </c>
       <c r="B314" t="n">
@@ -2959,7 +2981,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="n">
+      <c r="A315" s="2" t="n">
         <v>44931</v>
       </c>
       <c r="B315" t="n">
@@ -2967,7 +2989,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="n">
+      <c r="A316" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="B316" t="n">
@@ -2975,7 +2997,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="n">
+      <c r="A317" s="2" t="n">
         <v>44935</v>
       </c>
       <c r="B317" t="n">
@@ -2983,7 +3005,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="n">
+      <c r="A318" s="2" t="n">
         <v>44936</v>
       </c>
       <c r="B318" t="n">
@@ -2991,7 +3013,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="n">
+      <c r="A319" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="B319" t="n">
@@ -2999,7 +3021,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="n">
+      <c r="A320" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="B320" t="n">
@@ -3007,7 +3029,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="n">
+      <c r="A321" s="2" t="n">
         <v>44939</v>
       </c>
       <c r="B321" t="n">
@@ -3015,7 +3037,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="n">
+      <c r="A322" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="B322" t="n">
@@ -3023,7 +3045,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="n">
+      <c r="A323" s="2" t="n">
         <v>44944</v>
       </c>
       <c r="B323" t="n">
@@ -3031,7 +3053,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="n">
+      <c r="A324" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="B324" t="n">
@@ -3039,7 +3061,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="n">
+      <c r="A325" s="2" t="n">
         <v>44946</v>
       </c>
       <c r="B325" t="n">
@@ -3047,7 +3069,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="n">
+      <c r="A326" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="B326" t="n">
@@ -3055,7 +3077,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="n">
+      <c r="A327" s="2" t="n">
         <v>44950</v>
       </c>
       <c r="B327" t="n">
@@ -3063,7 +3085,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="n">
+      <c r="A328" s="2" t="n">
         <v>44951</v>
       </c>
       <c r="B328" t="n">
@@ -3071,7 +3093,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="n">
+      <c r="A329" s="2" t="n">
         <v>44952</v>
       </c>
       <c r="B329" t="n">
@@ -3079,7 +3101,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="n">
+      <c r="A330" s="2" t="n">
         <v>44953</v>
       </c>
       <c r="B330" t="n">
@@ -3087,7 +3109,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="n">
+      <c r="A331" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="B331" t="n">
@@ -3095,7 +3117,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="n">
+      <c r="A332" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="B332" t="n">
@@ -3103,7 +3125,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="n">
+      <c r="A333" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="B333" t="n">
@@ -3111,7 +3133,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="n">
+      <c r="A334" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="B334" t="n">
@@ -3119,7 +3141,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="n">
+      <c r="A335" s="2" t="n">
         <v>44960</v>
       </c>
       <c r="B335" t="n">
@@ -3127,7 +3149,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="n">
+      <c r="A336" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="B336" t="n">
@@ -3135,7 +3157,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="n">
+      <c r="A337" s="2" t="n">
         <v>44964</v>
       </c>
       <c r="B337" t="n">
@@ -3143,7 +3165,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="n">
+      <c r="A338" s="2" t="n">
         <v>44965</v>
       </c>
       <c r="B338" t="n">
@@ -3151,7 +3173,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="n">
+      <c r="A339" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="B339" t="n">
@@ -3159,7 +3181,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="n">
+      <c r="A340" s="2" t="n">
         <v>44967</v>
       </c>
       <c r="B340" t="n">
@@ -3167,7 +3189,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="n">
+      <c r="A341" s="2" t="n">
         <v>44970</v>
       </c>
       <c r="B341" t="n">
@@ -3175,7 +3197,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="n">
+      <c r="A342" s="2" t="n">
         <v>44971</v>
       </c>
       <c r="B342" t="n">
@@ -3183,7 +3205,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="n">
+      <c r="A343" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="B343" t="n">
@@ -3191,7 +3213,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="n">
+      <c r="A344" s="2" t="n">
         <v>44973</v>
       </c>
       <c r="B344" t="n">
@@ -3199,7 +3221,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="n">
+      <c r="A345" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="B345" t="n">
@@ -3207,7 +3229,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="n">
+      <c r="A346" s="2" t="n">
         <v>44978</v>
       </c>
       <c r="B346" t="n">
@@ -3215,7 +3237,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="n">
+      <c r="A347" s="2" t="n">
         <v>44979</v>
       </c>
       <c r="B347" t="n">
@@ -3223,7 +3245,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="n">
+      <c r="A348" s="2" t="n">
         <v>44980</v>
       </c>
       <c r="B348" t="n">
@@ -3231,7 +3253,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="n">
+      <c r="A349" s="2" t="n">
         <v>44981</v>
       </c>
       <c r="B349" t="n">
@@ -3239,7 +3261,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="n">
+      <c r="A350" s="2" t="n">
         <v>44984</v>
       </c>
       <c r="B350" t="n">
@@ -3247,7 +3269,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="n">
+      <c r="A351" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="B351" t="n">
@@ -3255,7 +3277,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3" t="n">
+      <c r="A352" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="B352" t="n">
@@ -3263,7 +3285,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="n">
+      <c r="A353" s="2" t="n">
         <v>44987</v>
       </c>
       <c r="B353" t="n">
@@ -3271,7 +3293,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3" t="n">
+      <c r="A354" s="2" t="n">
         <v>44988</v>
       </c>
       <c r="B354" t="n">
@@ -3279,7 +3301,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3" t="n">
+      <c r="A355" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="B355" t="n">
@@ -3287,7 +3309,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="n">
+      <c r="A356" s="2" t="n">
         <v>44992</v>
       </c>
       <c r="B356" t="n">
@@ -3295,7 +3317,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="n">
+      <c r="A357" s="2" t="n">
         <v>44993</v>
       </c>
       <c r="B357" t="n">
@@ -3303,7 +3325,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="n">
+      <c r="A358" s="2" t="n">
         <v>44994</v>
       </c>
       <c r="B358" t="n">
@@ -3311,7 +3333,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="n">
+      <c r="A359" s="2" t="n">
         <v>44995</v>
       </c>
       <c r="B359" t="n">
@@ -3319,7 +3341,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="n">
+      <c r="A360" s="2" t="n">
         <v>44998</v>
       </c>
       <c r="B360" t="n">
@@ -3327,7 +3349,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="n">
+      <c r="A361" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B361" t="n">
@@ -3335,7 +3357,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3" t="n">
+      <c r="A362" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="B362" t="n">
@@ -3343,7 +3365,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="n">
+      <c r="A363" s="2" t="n">
         <v>45001</v>
       </c>
       <c r="B363" t="n">
@@ -3351,7 +3373,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="n">
+      <c r="A364" s="2" t="n">
         <v>45002</v>
       </c>
       <c r="B364" t="n">
@@ -3359,7 +3381,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="n">
+      <c r="A365" s="2" t="n">
         <v>45005</v>
       </c>
       <c r="B365" t="n">
@@ -3367,7 +3389,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="n">
+      <c r="A366" s="2" t="n">
         <v>45006</v>
       </c>
       <c r="B366" t="n">
@@ -3375,7 +3397,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="n">
+      <c r="A367" s="2" t="n">
         <v>45007</v>
       </c>
       <c r="B367" t="n">
@@ -3383,7 +3405,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3" t="n">
+      <c r="A368" s="2" t="n">
         <v>45008</v>
       </c>
       <c r="B368" t="n">
@@ -3391,7 +3413,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="n">
+      <c r="A369" s="2" t="n">
         <v>45009</v>
       </c>
       <c r="B369" t="n">
@@ -3399,7 +3421,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="n">
+      <c r="A370" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="B370" t="n">
@@ -3407,7 +3429,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="n">
+      <c r="A371" s="2" t="n">
         <v>45013</v>
       </c>
       <c r="B371" t="n">
@@ -3415,7 +3437,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="n">
+      <c r="A372" s="2" t="n">
         <v>45014</v>
       </c>
       <c r="B372" t="n">
@@ -3423,7 +3445,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="n">
+      <c r="A373" s="2" t="n">
         <v>45015</v>
       </c>
       <c r="B373" t="n">
@@ -3431,7 +3453,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="n">
+      <c r="A374" s="2" t="n">
         <v>45016</v>
       </c>
       <c r="B374" t="n">
@@ -3439,7 +3461,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="n">
+      <c r="A375" s="2" t="n">
         <v>45019</v>
       </c>
       <c r="B375" t="n">
@@ -3447,7 +3469,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="n">
+      <c r="A376" s="2" t="n">
         <v>45020</v>
       </c>
       <c r="B376" t="n">
@@ -3455,7 +3477,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="n">
+      <c r="A377" s="2" t="n">
         <v>45021</v>
       </c>
       <c r="B377" t="n">
@@ -3463,7 +3485,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="n">
+      <c r="A378" s="2" t="n">
         <v>45022</v>
       </c>
       <c r="B378" t="n">
@@ -3471,7 +3493,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="n">
+      <c r="A379" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="B379" t="n">
@@ -3479,7 +3501,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="n">
+      <c r="A380" s="2" t="n">
         <v>45027</v>
       </c>
       <c r="B380" t="n">
@@ -3487,7 +3509,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="n">
+      <c r="A381" s="2" t="n">
         <v>45028</v>
       </c>
       <c r="B381" t="n">
@@ -3495,7 +3517,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="n">
+      <c r="A382" s="2" t="n">
         <v>45029</v>
       </c>
       <c r="B382" t="n">
@@ -3503,7 +3525,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="n">
+      <c r="A383" s="2" t="n">
         <v>45030</v>
       </c>
       <c r="B383" t="n">
@@ -3511,7 +3533,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="n">
+      <c r="A384" s="2" t="n">
         <v>45033</v>
       </c>
       <c r="B384" t="n">
@@ -3519,7 +3541,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="n">
+      <c r="A385" s="2" t="n">
         <v>45034</v>
       </c>
       <c r="B385" t="n">
@@ -3527,7 +3549,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="n">
+      <c r="A386" s="2" t="n">
         <v>45035</v>
       </c>
       <c r="B386" t="n">
@@ -3535,7 +3557,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="n">
+      <c r="A387" s="2" t="n">
         <v>45036</v>
       </c>
       <c r="B387" t="n">
@@ -3543,7 +3565,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="n">
+      <c r="A388" s="2" t="n">
         <v>45037</v>
       </c>
       <c r="B388" t="n">
@@ -3551,7 +3573,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="n">
+      <c r="A389" s="2" t="n">
         <v>45040</v>
       </c>
       <c r="B389" t="n">
@@ -3559,7 +3581,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="n">
+      <c r="A390" s="2" t="n">
         <v>45041</v>
       </c>
       <c r="B390" t="n">
@@ -3567,7 +3589,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="n">
+      <c r="A391" s="2" t="n">
         <v>45042</v>
       </c>
       <c r="B391" t="n">
@@ -3575,7 +3597,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="n">
+      <c r="A392" s="2" t="n">
         <v>45043</v>
       </c>
       <c r="B392" t="n">
@@ -3583,7 +3605,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="n">
+      <c r="A393" s="2" t="n">
         <v>45044</v>
       </c>
       <c r="B393" t="n">
@@ -3591,7 +3613,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="n">
+      <c r="A394" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B394" t="n">
@@ -3599,7 +3621,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="n">
+      <c r="A395" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="B395" t="n">
@@ -3607,7 +3629,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="n">
+      <c r="A396" s="2" t="n">
         <v>45049</v>
       </c>
       <c r="B396" t="n">
@@ -3615,7 +3637,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="n">
+      <c r="A397" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="B397" t="n">
@@ -3623,7 +3645,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="n">
+      <c r="A398" s="2" t="n">
         <v>45051</v>
       </c>
       <c r="B398" t="n">
@@ -3631,7 +3653,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="n">
+      <c r="A399" s="2" t="n">
         <v>45054</v>
       </c>
       <c r="B399" t="n">
@@ -3639,7 +3661,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="n">
+      <c r="A400" s="2" t="n">
         <v>45055</v>
       </c>
       <c r="B400" t="n">
@@ -3647,7 +3669,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3" t="n">
+      <c r="A401" s="2" t="n">
         <v>45056</v>
       </c>
       <c r="B401" t="n">
@@ -3655,7 +3677,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3" t="n">
+      <c r="A402" s="2" t="n">
         <v>45057</v>
       </c>
       <c r="B402" t="n">
@@ -3663,7 +3685,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3" t="n">
+      <c r="A403" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="B403" t="n">
@@ -3671,7 +3693,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3" t="n">
+      <c r="A404" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="B404" t="n">
@@ -3679,7 +3701,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="n">
+      <c r="A405" s="2" t="n">
         <v>45062</v>
       </c>
       <c r="B405" t="n">
@@ -3687,7 +3709,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3" t="n">
+      <c r="A406" s="2" t="n">
         <v>45063</v>
       </c>
       <c r="B406" t="n">
@@ -3695,7 +3717,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3" t="n">
+      <c r="A407" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="B407" t="n">
@@ -3703,7 +3725,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3" t="n">
+      <c r="A408" s="2" t="n">
         <v>45065</v>
       </c>
       <c r="B408" t="n">
@@ -3711,7 +3733,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3" t="n">
+      <c r="A409" s="2" t="n">
         <v>45068</v>
       </c>
       <c r="B409" t="n">
@@ -3719,7 +3741,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="n">
+      <c r="A410" s="2" t="n">
         <v>45069</v>
       </c>
       <c r="B410" t="n">
@@ -3727,7 +3749,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="n">
+      <c r="A411" s="2" t="n">
         <v>45070</v>
       </c>
       <c r="B411" t="n">
@@ -3735,7 +3757,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="n">
+      <c r="A412" s="2" t="n">
         <v>45071</v>
       </c>
       <c r="B412" t="n">
@@ -3743,7 +3765,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3" t="n">
+      <c r="A413" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="B413" t="n">
@@ -3751,7 +3773,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="n">
+      <c r="A414" s="2" t="n">
         <v>45076</v>
       </c>
       <c r="B414" t="n">
@@ -3759,7 +3781,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="n">
+      <c r="A415" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="B415" t="n">
@@ -3767,7 +3789,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3" t="n">
+      <c r="A416" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="B416" t="n">
@@ -3775,7 +3797,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="n">
+      <c r="A417" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="B417" t="n">
@@ -3783,7 +3805,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="n">
+      <c r="A418" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="B418" t="n">
@@ -3791,7 +3813,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="n">
+      <c r="A419" s="2" t="n">
         <v>45083</v>
       </c>
       <c r="B419" t="n">
@@ -3799,7 +3821,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="n">
+      <c r="A420" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="B420" t="n">
@@ -3807,7 +3829,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="n">
+      <c r="A421" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="B421" t="n">
@@ -3815,7 +3837,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="n">
+      <c r="A422" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="B422" t="n">
@@ -3823,7 +3845,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="n">
+      <c r="A423" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="B423" t="n">
@@ -3831,7 +3853,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="n">
+      <c r="A424" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="B424" t="n">
@@ -3839,7 +3861,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="n">
+      <c r="A425" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="B425" t="n">
@@ -3847,7 +3869,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3" t="n">
+      <c r="A426" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="B426" t="n">
@@ -3855,7 +3877,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="n">
+      <c r="A427" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="B427" t="n">
@@ -3863,7 +3885,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="n">
+      <c r="A428" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="B428" t="n">
@@ -3871,7 +3893,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="n">
+      <c r="A429" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="B429" t="n">
@@ -3879,7 +3901,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="3" t="n">
+      <c r="A430" s="2" t="n">
         <v>45099</v>
       </c>
       <c r="B430" t="n">
@@ -3887,7 +3909,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="3" t="n">
+      <c r="A431" s="2" t="n">
         <v>45100</v>
       </c>
       <c r="B431" t="n">
@@ -3895,7 +3917,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="3" t="n">
+      <c r="A432" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="B432" t="n">
@@ -3903,7 +3925,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="3" t="n">
+      <c r="A433" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="B433" t="n">
@@ -3911,7 +3933,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="3" t="n">
+      <c r="A434" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="B434" t="n">
@@ -3919,7 +3941,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="3" t="n">
+      <c r="A435" s="2" t="n">
         <v>45106</v>
       </c>
       <c r="B435" t="n">
@@ -3927,7 +3949,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="3" t="n">
+      <c r="A436" s="2" t="n">
         <v>45107</v>
       </c>
       <c r="B436" t="n">
@@ -3935,7 +3957,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="3" t="n">
+      <c r="A437" s="2" t="n">
         <v>45110</v>
       </c>
       <c r="B437" t="n">
@@ -3943,7 +3965,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="3" t="n">
+      <c r="A438" s="2" t="n">
         <v>45112</v>
       </c>
       <c r="B438" t="n">
@@ -3951,7 +3973,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="3" t="n">
+      <c r="A439" s="2" t="n">
         <v>45113</v>
       </c>
       <c r="B439" t="n">
@@ -3959,7 +3981,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="3" t="n">
+      <c r="A440" s="2" t="n">
         <v>45114</v>
       </c>
       <c r="B440" t="n">
@@ -3967,7 +3989,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="n">
+      <c r="A441" s="2" t="n">
         <v>45117</v>
       </c>
       <c r="B441" t="n">
@@ -3975,7 +3997,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="n">
+      <c r="A442" s="2" t="n">
         <v>45118</v>
       </c>
       <c r="B442" t="n">
@@ -3983,7 +4005,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="n">
+      <c r="A443" s="2" t="n">
         <v>45119</v>
       </c>
       <c r="B443" t="n">
@@ -3991,7 +4013,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="3" t="n">
+      <c r="A444" s="2" t="n">
         <v>45120</v>
       </c>
       <c r="B444" t="n">
@@ -3999,7 +4021,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="3" t="n">
+      <c r="A445" s="2" t="n">
         <v>45121</v>
       </c>
       <c r="B445" t="n">
@@ -4007,7 +4029,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="3" t="n">
+      <c r="A446" s="2" t="n">
         <v>45124</v>
       </c>
       <c r="B446" t="n">
@@ -4015,7 +4037,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="3" t="n">
+      <c r="A447" s="2" t="n">
         <v>45125</v>
       </c>
       <c r="B447" t="n">
@@ -4023,7 +4045,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="3" t="n">
+      <c r="A448" s="2" t="n">
         <v>45126</v>
       </c>
       <c r="B448" t="n">
@@ -4031,7 +4053,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="3" t="n">
+      <c r="A449" s="2" t="n">
         <v>45127</v>
       </c>
       <c r="B449" t="n">
@@ -4039,7 +4061,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="3" t="n">
+      <c r="A450" s="2" t="n">
         <v>45128</v>
       </c>
       <c r="B450" t="n">
@@ -4047,7 +4069,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="3" t="n">
+      <c r="A451" s="2" t="n">
         <v>45131</v>
       </c>
       <c r="B451" t="n">
@@ -4055,7 +4077,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="3" t="n">
+      <c r="A452" s="2" t="n">
         <v>45132</v>
       </c>
       <c r="B452" t="n">
@@ -4063,7 +4085,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="3" t="n">
+      <c r="A453" s="2" t="n">
         <v>45133</v>
       </c>
       <c r="B453" t="n">
@@ -4071,7 +4093,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="3" t="n">
+      <c r="A454" s="2" t="n">
         <v>45134</v>
       </c>
       <c r="B454" t="n">
@@ -4079,7 +4101,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="3" t="n">
+      <c r="A455" s="2" t="n">
         <v>45135</v>
       </c>
       <c r="B455" t="n">
@@ -4087,7 +4109,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="3" t="n">
+      <c r="A456" s="2" t="n">
         <v>45138</v>
       </c>
       <c r="B456" t="n">
@@ -4095,7 +4117,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="3" t="n">
+      <c r="A457" s="2" t="n">
         <v>45139</v>
       </c>
       <c r="B457" t="n">
@@ -4103,7 +4125,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="3" t="n">
+      <c r="A458" s="2" t="n">
         <v>45140</v>
       </c>
       <c r="B458" t="n">
@@ -4111,7 +4133,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="3" t="n">
+      <c r="A459" s="2" t="n">
         <v>45141</v>
       </c>
       <c r="B459" t="n">
@@ -4119,7 +4141,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="3" t="n">
+      <c r="A460" s="2" t="n">
         <v>45142</v>
       </c>
       <c r="B460" t="n">
@@ -4127,7 +4149,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="3" t="n">
+      <c r="A461" s="2" t="n">
         <v>45145</v>
       </c>
       <c r="B461" t="n">
@@ -4135,7 +4157,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="3" t="n">
+      <c r="A462" s="2" t="n">
         <v>45146</v>
       </c>
       <c r="B462" t="n">
@@ -4143,7 +4165,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="n">
+      <c r="A463" s="2" t="n">
         <v>45147</v>
       </c>
       <c r="B463" t="n">
@@ -4151,7 +4173,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="3" t="n">
+      <c r="A464" s="2" t="n">
         <v>45148</v>
       </c>
       <c r="B464" t="n">
@@ -4159,7 +4181,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="3" t="n">
+      <c r="A465" s="2" t="n">
         <v>45149</v>
       </c>
       <c r="B465" t="n">
@@ -4167,7 +4189,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="3" t="n">
+      <c r="A466" s="2" t="n">
         <v>45152</v>
       </c>
       <c r="B466" t="n">
@@ -4175,7 +4197,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="3" t="n">
+      <c r="A467" s="2" t="n">
         <v>45153</v>
       </c>
       <c r="B467" t="n">
@@ -4183,7 +4205,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="3" t="n">
+      <c r="A468" s="2" t="n">
         <v>45154</v>
       </c>
       <c r="B468" t="n">
@@ -4191,7 +4213,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="n">
+      <c r="A469" s="2" t="n">
         <v>45155</v>
       </c>
       <c r="B469" t="n">
@@ -4199,7 +4221,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="3" t="n">
+      <c r="A470" s="2" t="n">
         <v>45156</v>
       </c>
       <c r="B470" t="n">
@@ -4207,7 +4229,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="3" t="n">
+      <c r="A471" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="B471" t="n">
@@ -4215,7 +4237,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="3" t="n">
+      <c r="A472" s="2" t="n">
         <v>45160</v>
       </c>
       <c r="B472" t="n">
@@ -4223,7 +4245,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="3" t="n">
+      <c r="A473" s="2" t="n">
         <v>45161</v>
       </c>
       <c r="B473" t="n">
@@ -4231,7 +4253,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="3" t="n">
+      <c r="A474" s="2" t="n">
         <v>45162</v>
       </c>
       <c r="B474" t="n">
@@ -4239,7 +4261,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="3" t="n">
+      <c r="A475" s="2" t="n">
         <v>45163</v>
       </c>
       <c r="B475" t="n">
@@ -4247,7 +4269,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="3" t="n">
+      <c r="A476" s="2" t="n">
         <v>45166</v>
       </c>
       <c r="B476" t="n">
@@ -4255,7 +4277,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="3" t="n">
+      <c r="A477" s="2" t="n">
         <v>45167</v>
       </c>
       <c r="B477" t="n">
@@ -4263,7 +4285,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="3" t="n">
+      <c r="A478" s="2" t="n">
         <v>45168</v>
       </c>
       <c r="B478" t="n">
@@ -4271,7 +4293,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="3" t="n">
+      <c r="A479" s="2" t="n">
         <v>45169</v>
       </c>
       <c r="B479" t="n">
@@ -4279,7 +4301,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="3" t="n">
+      <c r="A480" s="2" t="n">
         <v>45170</v>
       </c>
       <c r="B480" t="n">
@@ -4287,7 +4309,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="3" t="n">
+      <c r="A481" s="2" t="n">
         <v>45174</v>
       </c>
       <c r="B481" t="n">
@@ -4295,7 +4317,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="3" t="n">
+      <c r="A482" s="2" t="n">
         <v>45175</v>
       </c>
       <c r="B482" t="n">
@@ -4303,7 +4325,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="3" t="n">
+      <c r="A483" s="2" t="n">
         <v>45176</v>
       </c>
       <c r="B483" t="n">
@@ -4311,7 +4333,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="3" t="n">
+      <c r="A484" s="2" t="n">
         <v>45177</v>
       </c>
       <c r="B484" t="n">
@@ -4319,7 +4341,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="3" t="n">
+      <c r="A485" s="2" t="n">
         <v>45180</v>
       </c>
       <c r="B485" t="n">
@@ -4327,7 +4349,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="3" t="n">
+      <c r="A486" s="2" t="n">
         <v>45181</v>
       </c>
       <c r="B486" t="n">
@@ -4335,7 +4357,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="n">
+      <c r="A487" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="B487" t="n">
@@ -4343,7 +4365,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="3" t="n">
+      <c r="A488" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="B488" t="n">
@@ -4351,7 +4373,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="3" t="n">
+      <c r="A489" s="2" t="n">
         <v>45184</v>
       </c>
       <c r="B489" t="n">
@@ -4359,7 +4381,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="3" t="n">
+      <c r="A490" s="2" t="n">
         <v>45187</v>
       </c>
       <c r="B490" t="n">
@@ -4367,7 +4389,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="3" t="n">
+      <c r="A491" s="2" t="n">
         <v>45188</v>
       </c>
       <c r="B491" t="n">
@@ -4375,7 +4397,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="3" t="n">
+      <c r="A492" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="B492" t="n">
@@ -4383,7 +4405,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="3" t="n">
+      <c r="A493" s="2" t="n">
         <v>45190</v>
       </c>
       <c r="B493" t="n">
@@ -4391,7 +4413,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="3" t="n">
+      <c r="A494" s="2" t="n">
         <v>45191</v>
       </c>
       <c r="B494" t="n">
@@ -4399,7 +4421,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="3" t="n">
+      <c r="A495" s="2" t="n">
         <v>45194</v>
       </c>
       <c r="B495" t="n">
@@ -4407,7 +4429,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="3" t="n">
+      <c r="A496" s="2" t="n">
         <v>45195</v>
       </c>
       <c r="B496" t="n">
@@ -4415,7 +4437,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="3" t="n">
+      <c r="A497" s="2" t="n">
         <v>45196</v>
       </c>
       <c r="B497" t="n">
@@ -4423,7 +4445,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="3" t="n">
+      <c r="A498" s="2" t="n">
         <v>45197</v>
       </c>
       <c r="B498" t="n">
@@ -4431,7 +4453,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="n">
+      <c r="A499" s="2" t="n">
         <v>45198</v>
       </c>
       <c r="B499" t="n">
@@ -4439,7 +4461,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="n">
+      <c r="A500" s="2" t="n">
         <v>45201</v>
       </c>
       <c r="B500" t="n">
@@ -4447,7 +4469,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="n">
+      <c r="A501" s="2" t="n">
         <v>45202</v>
       </c>
       <c r="B501" t="n">
@@ -4455,7 +4477,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="3" t="n">
+      <c r="A502" s="2" t="n">
         <v>45203</v>
       </c>
       <c r="B502" t="n">
@@ -4463,7 +4485,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="3" t="n">
+      <c r="A503" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="B503" t="n">
@@ -4471,7 +4493,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="3" t="n">
+      <c r="A504" s="2" t="n">
         <v>45205</v>
       </c>
       <c r="B504" t="n">
@@ -4479,7 +4501,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="3" t="n">
+      <c r="A505" s="2" t="n">
         <v>45209</v>
       </c>
       <c r="B505" t="n">
@@ -4487,7 +4509,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="3" t="n">
+      <c r="A506" s="2" t="n">
         <v>45210</v>
       </c>
       <c r="B506" t="n">
@@ -4495,7 +4517,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="3" t="n">
+      <c r="A507" s="2" t="n">
         <v>45211</v>
       </c>
       <c r="B507" t="n">
@@ -4503,7 +4525,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="3" t="n">
+      <c r="A508" s="2" t="n">
         <v>45212</v>
       </c>
       <c r="B508" t="n">
@@ -4511,7 +4533,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="3" t="n">
+      <c r="A509" s="2" t="n">
         <v>45215</v>
       </c>
       <c r="B509" t="n">
@@ -4519,7 +4541,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="3" t="n">
+      <c r="A510" s="2" t="n">
         <v>45216</v>
       </c>
       <c r="B510" t="n">
@@ -4527,7 +4549,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="3" t="n">
+      <c r="A511" s="2" t="n">
         <v>45217</v>
       </c>
       <c r="B511" t="n">
@@ -4535,7 +4557,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="3" t="n">
+      <c r="A512" s="2" t="n">
         <v>45218</v>
       </c>
       <c r="B512" t="n">
@@ -4543,7 +4565,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="3" t="n">
+      <c r="A513" s="2" t="n">
         <v>45219</v>
       </c>
       <c r="B513" t="n">
@@ -4551,7 +4573,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="3" t="n">
+      <c r="A514" s="2" t="n">
         <v>45222</v>
       </c>
       <c r="B514" t="n">
@@ -4559,7 +4581,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="3" t="n">
+      <c r="A515" s="2" t="n">
         <v>45223</v>
       </c>
       <c r="B515" t="n">
@@ -4567,7 +4589,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="3" t="n">
+      <c r="A516" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="B516" t="n">
@@ -4575,7 +4597,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="3" t="n">
+      <c r="A517" s="2" t="n">
         <v>45225</v>
       </c>
       <c r="B517" t="n">
@@ -4583,7 +4605,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="3" t="n">
+      <c r="A518" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="B518" t="n">
@@ -4591,7 +4613,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="3" t="n">
+      <c r="A519" s="2" t="n">
         <v>45229</v>
       </c>
       <c r="B519" t="n">
@@ -4599,7 +4621,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="n">
+      <c r="A520" s="2" t="n">
         <v>45230</v>
       </c>
       <c r="B520" t="n">
@@ -4607,7 +4629,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="n">
+      <c r="A521" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="B521" t="n">
@@ -4615,7 +4637,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="n">
+      <c r="A522" s="2" t="n">
         <v>45232</v>
       </c>
       <c r="B522" t="n">
@@ -4623,7 +4645,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="3" t="n">
+      <c r="A523" s="2" t="n">
         <v>45233</v>
       </c>
       <c r="B523" t="n">
@@ -4631,7 +4653,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="3" t="n">
+      <c r="A524" s="2" t="n">
         <v>45236</v>
       </c>
       <c r="B524" t="n">
@@ -4639,7 +4661,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="3" t="n">
+      <c r="A525" s="2" t="n">
         <v>45237</v>
       </c>
       <c r="B525" t="n">
@@ -4647,7 +4669,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="3" t="n">
+      <c r="A526" s="2" t="n">
         <v>45238</v>
       </c>
       <c r="B526" t="n">
@@ -4655,7 +4677,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="3" t="n">
+      <c r="A527" s="2" t="n">
         <v>45239</v>
       </c>
       <c r="B527" t="n">
@@ -4663,7 +4685,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="3" t="n">
+      <c r="A528" s="2" t="n">
         <v>45240</v>
       </c>
       <c r="B528" t="n">
@@ -4671,7 +4693,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="3" t="n">
+      <c r="A529" s="2" t="n">
         <v>45243</v>
       </c>
       <c r="B529" t="n">
@@ -4679,7 +4701,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="3" t="n">
+      <c r="A530" s="2" t="n">
         <v>45244</v>
       </c>
       <c r="B530" t="n">
@@ -4687,7 +4709,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="3" t="n">
+      <c r="A531" s="2" t="n">
         <v>45245</v>
       </c>
       <c r="B531" t="n">
@@ -4695,7 +4717,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="3" t="n">
+      <c r="A532" s="2" t="n">
         <v>45246</v>
       </c>
       <c r="B532" t="n">
@@ -4703,7 +4725,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="3" t="n">
+      <c r="A533" s="2" t="n">
         <v>45247</v>
       </c>
       <c r="B533" t="n">
@@ -4711,15 +4733,31 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="3" t="n">
+      <c r="A534" s="2" t="n">
         <v>45250</v>
       </c>
       <c r="B534" t="n">
         <v>953.088</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B535" t="n">
+        <v>931.155</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B536" t="n">
+        <v>931.604</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4738,14 +4776,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>RRPONTSYD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -4757,31 +4795,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>realtime_start</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-24</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>realtime_end</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -4793,7 +4831,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>observation_start</t>
         </is>
@@ -4805,19 +4843,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>observation_end</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-22</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
@@ -4829,7 +4867,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>frequency_short</t>
         </is>
@@ -4841,7 +4879,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -4853,7 +4891,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -4865,7 +4903,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment</t>
         </is>
@@ -4877,7 +4915,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment_short</t>
         </is>
@@ -4889,19 +4927,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-20 13:01:03-06</t>
+          <t>2023-11-22 13:01:03-06</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>popularity</t>
         </is>
@@ -4911,7 +4949,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>notes</t>
         </is>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4754,6 +4754,38 @@
       </c>
       <c r="B536" t="n">
         <v>931.604</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B537" t="n">
+        <v>865.907</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B538" t="n">
+        <v>867.22</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B539" t="n">
+        <v>873.3440000000001</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B540" t="n">
+        <v>914.187</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4834,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -4814,7 +4846,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4882,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4966,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-22 13:01:03-06</t>
+          <t>2023-11-29 13:01:02-06</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4977,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,4314 +478,4530 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B2" t="n">
-        <v>1385.991</v>
+        <v>1084.115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44473</v>
+        <v>44441</v>
       </c>
       <c r="B3" t="n">
-        <v>1399.173</v>
+        <v>1066.987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44474</v>
+        <v>44442</v>
       </c>
       <c r="B4" t="n">
-        <v>1431.18</v>
+        <v>1074.707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44475</v>
+        <v>44446</v>
       </c>
       <c r="B5" t="n">
-        <v>1451.175</v>
+        <v>1079.945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44476</v>
+        <v>44447</v>
       </c>
       <c r="B6" t="n">
-        <v>1375.863</v>
+        <v>1115.229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44477</v>
+        <v>44448</v>
       </c>
       <c r="B7" t="n">
-        <v>1371.958</v>
+        <v>1107.659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44481</v>
+        <v>44449</v>
       </c>
       <c r="B8" t="n">
-        <v>1367.051</v>
+        <v>1099.323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44482</v>
+        <v>44452</v>
       </c>
       <c r="B9" t="n">
-        <v>1364.701</v>
+        <v>1087.108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44483</v>
+        <v>44453</v>
       </c>
       <c r="B10" t="n">
-        <v>1445.66</v>
+        <v>1169.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44484</v>
+        <v>44454</v>
       </c>
       <c r="B11" t="n">
-        <v>1462.297</v>
+        <v>1081.342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44487</v>
+        <v>44455</v>
       </c>
       <c r="B12" t="n">
-        <v>1477.114</v>
+        <v>1147.494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44488</v>
+        <v>44456</v>
       </c>
       <c r="B13" t="n">
-        <v>1470.739</v>
+        <v>1218.303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44489</v>
+        <v>44459</v>
       </c>
       <c r="B14" t="n">
-        <v>1493.961</v>
+        <v>1224.289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44490</v>
+        <v>44460</v>
       </c>
       <c r="B15" t="n">
-        <v>1458.605</v>
+        <v>1240.494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44491</v>
+        <v>44461</v>
       </c>
       <c r="B16" t="n">
-        <v>1403.02</v>
+        <v>1283.281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44494</v>
+        <v>44462</v>
       </c>
       <c r="B17" t="n">
-        <v>1413.188</v>
+        <v>1352.483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44495</v>
+        <v>44463</v>
       </c>
       <c r="B18" t="n">
-        <v>1423.198</v>
+        <v>1313.657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44496</v>
+        <v>44466</v>
       </c>
       <c r="B19" t="n">
-        <v>1433.37</v>
+        <v>1297.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44497</v>
+        <v>44467</v>
       </c>
       <c r="B20" t="n">
-        <v>1384.684</v>
+        <v>1365.185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44498</v>
+        <v>44468</v>
       </c>
       <c r="B21" t="n">
-        <v>1502.296</v>
+        <v>1415.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44501</v>
+        <v>44469</v>
       </c>
       <c r="B22" t="n">
-        <v>1358.606</v>
+        <v>1604.881</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44502</v>
+        <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1329.913</v>
+        <v>1385.991</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44503</v>
+        <v>44473</v>
       </c>
       <c r="B24" t="n">
-        <v>1343.985</v>
+        <v>1399.173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44504</v>
+        <v>44474</v>
       </c>
       <c r="B25" t="n">
-        <v>1348.539</v>
+        <v>1431.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44505</v>
+        <v>44475</v>
       </c>
       <c r="B26" t="n">
-        <v>1354.059</v>
+        <v>1451.175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44508</v>
+        <v>44476</v>
       </c>
       <c r="B27" t="n">
-        <v>1354.382</v>
+        <v>1375.863</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44509</v>
+        <v>44477</v>
       </c>
       <c r="B28" t="n">
-        <v>1377.197</v>
+        <v>1371.958</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44510</v>
+        <v>44481</v>
       </c>
       <c r="B29" t="n">
-        <v>1448.623</v>
+        <v>1367.051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44512</v>
+        <v>44482</v>
       </c>
       <c r="B30" t="n">
-        <v>1417.643</v>
+        <v>1364.701</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44515</v>
+        <v>44483</v>
       </c>
       <c r="B31" t="n">
-        <v>1391.657</v>
+        <v>1445.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44516</v>
+        <v>44484</v>
       </c>
       <c r="B32" t="n">
-        <v>1466.857</v>
+        <v>1462.297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44517</v>
+        <v>44487</v>
       </c>
       <c r="B33" t="n">
-        <v>1520</v>
+        <v>1477.114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44518</v>
+        <v>44488</v>
       </c>
       <c r="B34" t="n">
-        <v>1584.097</v>
+        <v>1470.739</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="B35" t="n">
-        <v>1575.384</v>
+        <v>1493.961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44522</v>
+        <v>44490</v>
       </c>
       <c r="B36" t="n">
-        <v>1573.769</v>
+        <v>1458.605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44523</v>
+        <v>44491</v>
       </c>
       <c r="B37" t="n">
-        <v>1571.98</v>
+        <v>1403.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44524</v>
+        <v>44494</v>
       </c>
       <c r="B38" t="n">
-        <v>1452.897</v>
+        <v>1413.188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44526</v>
+        <v>44495</v>
       </c>
       <c r="B39" t="n">
-        <v>1451.108</v>
+        <v>1423.198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44529</v>
+        <v>44496</v>
       </c>
       <c r="B40" t="n">
-        <v>1459.339</v>
+        <v>1433.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44530</v>
+        <v>44497</v>
       </c>
       <c r="B41" t="n">
-        <v>1517.956</v>
+        <v>1384.684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44531</v>
+        <v>44498</v>
       </c>
       <c r="B42" t="n">
-        <v>1427.347</v>
+        <v>1502.296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44532</v>
+        <v>44501</v>
       </c>
       <c r="B43" t="n">
-        <v>1448.585</v>
+        <v>1358.606</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44533</v>
+        <v>44502</v>
       </c>
       <c r="B44" t="n">
-        <v>1475.464</v>
+        <v>1329.913</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44536</v>
+        <v>44503</v>
       </c>
       <c r="B45" t="n">
-        <v>1487.996</v>
+        <v>1343.985</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44537</v>
+        <v>44504</v>
       </c>
       <c r="B46" t="n">
-        <v>1455.038</v>
+        <v>1348.539</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44538</v>
+        <v>44505</v>
       </c>
       <c r="B47" t="n">
-        <v>1484.192</v>
+        <v>1354.059</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44539</v>
+        <v>44508</v>
       </c>
       <c r="B48" t="n">
-        <v>1500.027</v>
+        <v>1354.382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44540</v>
+        <v>44509</v>
       </c>
       <c r="B49" t="n">
-        <v>1507.147</v>
+        <v>1377.197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44543</v>
+        <v>44510</v>
       </c>
       <c r="B50" t="n">
-        <v>1599.768</v>
+        <v>1448.623</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44544</v>
+        <v>44512</v>
       </c>
       <c r="B51" t="n">
-        <v>1584.488</v>
+        <v>1417.643</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44545</v>
+        <v>44515</v>
       </c>
       <c r="B52" t="n">
-        <v>1621.097</v>
+        <v>1391.657</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44546</v>
+        <v>44516</v>
       </c>
       <c r="B53" t="n">
-        <v>1657.626</v>
+        <v>1466.857</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44547</v>
+        <v>44517</v>
       </c>
       <c r="B54" t="n">
-        <v>1704.586</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44550</v>
+        <v>44518</v>
       </c>
       <c r="B55" t="n">
-        <v>1758.041</v>
+        <v>1584.097</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44551</v>
+        <v>44519</v>
       </c>
       <c r="B56" t="n">
-        <v>1748.285</v>
+        <v>1575.384</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44552</v>
+        <v>44522</v>
       </c>
       <c r="B57" t="n">
-        <v>1699.277</v>
+        <v>1573.769</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44553</v>
+        <v>44523</v>
       </c>
       <c r="B58" t="n">
-        <v>1577.78</v>
+        <v>1571.98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44557</v>
+        <v>44524</v>
       </c>
       <c r="B59" t="n">
-        <v>1580.347</v>
+        <v>1452.897</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44558</v>
+        <v>44526</v>
       </c>
       <c r="B60" t="n">
-        <v>1637.064</v>
+        <v>1451.108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44559</v>
+        <v>44529</v>
       </c>
       <c r="B61" t="n">
-        <v>1642.506</v>
+        <v>1459.339</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44560</v>
+        <v>44530</v>
       </c>
       <c r="B62" t="n">
-        <v>1696.476</v>
+        <v>1517.956</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44561</v>
+        <v>44531</v>
       </c>
       <c r="B63" t="n">
-        <v>1904.582</v>
+        <v>1427.347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44564</v>
+        <v>44532</v>
       </c>
       <c r="B64" t="n">
-        <v>1579.526</v>
+        <v>1448.585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44565</v>
+        <v>44533</v>
       </c>
       <c r="B65" t="n">
-        <v>1495.692</v>
+        <v>1475.464</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44566</v>
+        <v>44536</v>
       </c>
       <c r="B66" t="n">
-        <v>1492.787</v>
+        <v>1487.996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44567</v>
+        <v>44537</v>
       </c>
       <c r="B67" t="n">
-        <v>1510.553</v>
+        <v>1455.038</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44568</v>
+        <v>44538</v>
       </c>
       <c r="B68" t="n">
-        <v>1530.096</v>
+        <v>1484.192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44571</v>
+        <v>44539</v>
       </c>
       <c r="B69" t="n">
-        <v>1560.421</v>
+        <v>1500.027</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44572</v>
+        <v>44540</v>
       </c>
       <c r="B70" t="n">
-        <v>1527.02</v>
+        <v>1507.147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44573</v>
+        <v>44543</v>
       </c>
       <c r="B71" t="n">
-        <v>1536.981</v>
+        <v>1599.768</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44574</v>
+        <v>44544</v>
       </c>
       <c r="B72" t="n">
-        <v>1636.742</v>
+        <v>1584.488</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44575</v>
+        <v>44545</v>
       </c>
       <c r="B73" t="n">
-        <v>1598.887</v>
+        <v>1621.097</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44579</v>
+        <v>44546</v>
       </c>
       <c r="B74" t="n">
-        <v>1597.137</v>
+        <v>1657.626</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44580</v>
+        <v>44547</v>
       </c>
       <c r="B75" t="n">
-        <v>1656.576</v>
+        <v>1704.586</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44581</v>
+        <v>44550</v>
       </c>
       <c r="B76" t="n">
-        <v>1678.931</v>
+        <v>1758.041</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44582</v>
+        <v>44551</v>
       </c>
       <c r="B77" t="n">
-        <v>1706.127</v>
+        <v>1748.285</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44585</v>
+        <v>44552</v>
       </c>
       <c r="B78" t="n">
-        <v>1614.002</v>
+        <v>1699.277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44586</v>
+        <v>44553</v>
       </c>
       <c r="B79" t="n">
-        <v>1599.502</v>
+        <v>1577.78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44587</v>
+        <v>44557</v>
       </c>
       <c r="B80" t="n">
-        <v>1613.046</v>
+        <v>1580.347</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44588</v>
+        <v>44558</v>
       </c>
       <c r="B81" t="n">
-        <v>1583.895</v>
+        <v>1637.064</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44589</v>
+        <v>44559</v>
       </c>
       <c r="B82" t="n">
-        <v>1615.021</v>
+        <v>1642.506</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44592</v>
+        <v>44560</v>
       </c>
       <c r="B83" t="n">
-        <v>1654.85</v>
+        <v>1696.476</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44593</v>
+        <v>44561</v>
       </c>
       <c r="B84" t="n">
-        <v>1584.109</v>
+        <v>1904.582</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44594</v>
+        <v>44564</v>
       </c>
       <c r="B85" t="n">
-        <v>1626.895</v>
+        <v>1579.526</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44595</v>
+        <v>44565</v>
       </c>
       <c r="B86" t="n">
-        <v>1640.397</v>
+        <v>1495.692</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44596</v>
+        <v>44566</v>
       </c>
       <c r="B87" t="n">
-        <v>1642.892</v>
+        <v>1492.787</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44599</v>
+        <v>44567</v>
       </c>
       <c r="B88" t="n">
-        <v>1679.932</v>
+        <v>1510.553</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44600</v>
+        <v>44568</v>
       </c>
       <c r="B89" t="n">
-        <v>1674.61</v>
+        <v>1530.096</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44601</v>
+        <v>44571</v>
       </c>
       <c r="B90" t="n">
-        <v>1653.153</v>
+        <v>1560.421</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44602</v>
+        <v>44572</v>
       </c>
       <c r="B91" t="n">
-        <v>1634.146</v>
+        <v>1527.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44603</v>
+        <v>44573</v>
       </c>
       <c r="B92" t="n">
-        <v>1635.826</v>
+        <v>1536.981</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44606</v>
+        <v>44574</v>
       </c>
       <c r="B93" t="n">
-        <v>1666.232</v>
+        <v>1636.742</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44607</v>
+        <v>44575</v>
       </c>
       <c r="B94" t="n">
-        <v>1608.494</v>
+        <v>1598.887</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44608</v>
+        <v>44579</v>
       </c>
       <c r="B95" t="n">
-        <v>1644.134</v>
+        <v>1597.137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44609</v>
+        <v>44580</v>
       </c>
       <c r="B96" t="n">
-        <v>1647.202</v>
+        <v>1656.576</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44610</v>
+        <v>44581</v>
       </c>
       <c r="B97" t="n">
-        <v>1674.929</v>
+        <v>1678.931</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44614</v>
+        <v>44582</v>
       </c>
       <c r="B98" t="n">
-        <v>1699.432</v>
+        <v>1706.127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44615</v>
+        <v>44585</v>
       </c>
       <c r="B99" t="n">
-        <v>1738.322</v>
+        <v>1614.002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44616</v>
+        <v>44586</v>
       </c>
       <c r="B100" t="n">
-        <v>1650.399</v>
+        <v>1599.502</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44617</v>
+        <v>44587</v>
       </c>
       <c r="B101" t="n">
-        <v>1603.349</v>
+        <v>1613.046</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44620</v>
+        <v>44588</v>
       </c>
       <c r="B102" t="n">
-        <v>1596.052</v>
+        <v>1583.895</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44621</v>
+        <v>44589</v>
       </c>
       <c r="B103" t="n">
-        <v>1552.95</v>
+        <v>1615.021</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44622</v>
+        <v>44592</v>
       </c>
       <c r="B104" t="n">
-        <v>1526.211</v>
+        <v>1654.85</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44623</v>
+        <v>44593</v>
       </c>
       <c r="B105" t="n">
-        <v>1533.992</v>
+        <v>1584.109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44624</v>
+        <v>44594</v>
       </c>
       <c r="B106" t="n">
-        <v>1483.061</v>
+        <v>1626.895</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44627</v>
+        <v>44595</v>
       </c>
       <c r="B107" t="n">
-        <v>1461.227</v>
+        <v>1640.397</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44628</v>
+        <v>44596</v>
       </c>
       <c r="B108" t="n">
-        <v>1525.099</v>
+        <v>1642.892</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44629</v>
+        <v>44599</v>
       </c>
       <c r="B109" t="n">
-        <v>1542.504</v>
+        <v>1679.932</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44630</v>
+        <v>44600</v>
       </c>
       <c r="B110" t="n">
-        <v>1568.735</v>
+        <v>1674.61</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44631</v>
+        <v>44601</v>
       </c>
       <c r="B111" t="n">
-        <v>1557.823</v>
+        <v>1653.153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44634</v>
+        <v>44602</v>
       </c>
       <c r="B112" t="n">
-        <v>1608.021</v>
+        <v>1634.146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44635</v>
+        <v>44603</v>
       </c>
       <c r="B113" t="n">
-        <v>1583.471</v>
+        <v>1635.826</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44636</v>
+        <v>44606</v>
       </c>
       <c r="B114" t="n">
-        <v>1613.637</v>
+        <v>1666.232</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44637</v>
+        <v>44607</v>
       </c>
       <c r="B115" t="n">
-        <v>1659.977</v>
+        <v>1608.494</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44638</v>
+        <v>44608</v>
       </c>
       <c r="B116" t="n">
-        <v>1715.148</v>
+        <v>1644.134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44641</v>
+        <v>44609</v>
       </c>
       <c r="B117" t="n">
-        <v>1728.893</v>
+        <v>1647.202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44642</v>
+        <v>44610</v>
       </c>
       <c r="B118" t="n">
-        <v>1763.183</v>
+        <v>1674.929</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44643</v>
+        <v>44614</v>
       </c>
       <c r="B119" t="n">
-        <v>1803.186</v>
+        <v>1699.432</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44644</v>
+        <v>44615</v>
       </c>
       <c r="B120" t="n">
-        <v>1707.655</v>
+        <v>1738.322</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44645</v>
+        <v>44616</v>
       </c>
       <c r="B121" t="n">
-        <v>1676.974</v>
+        <v>1650.399</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44648</v>
+        <v>44617</v>
       </c>
       <c r="B122" t="n">
-        <v>1688.632</v>
+        <v>1603.349</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44649</v>
+        <v>44620</v>
       </c>
       <c r="B123" t="n">
-        <v>1718.87</v>
+        <v>1596.052</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44650</v>
+        <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>1785.939</v>
+        <v>1552.95</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44651</v>
+        <v>44622</v>
       </c>
       <c r="B125" t="n">
-        <v>1871.97</v>
+        <v>1526.211</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44652</v>
+        <v>44623</v>
       </c>
       <c r="B126" t="n">
-        <v>1666.063</v>
+        <v>1533.992</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44655</v>
+        <v>44624</v>
       </c>
       <c r="B127" t="n">
-        <v>1692.936</v>
+        <v>1483.061</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44656</v>
+        <v>44627</v>
       </c>
       <c r="B128" t="n">
-        <v>1710.834</v>
+        <v>1461.227</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44657</v>
+        <v>44628</v>
       </c>
       <c r="B129" t="n">
-        <v>1731.472</v>
+        <v>1525.099</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44658</v>
+        <v>44629</v>
       </c>
       <c r="B130" t="n">
-        <v>1734.424</v>
+        <v>1542.504</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44659</v>
+        <v>44630</v>
       </c>
       <c r="B131" t="n">
-        <v>1750.498</v>
+        <v>1568.735</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44662</v>
+        <v>44631</v>
       </c>
       <c r="B132" t="n">
-        <v>1758.958</v>
+        <v>1557.823</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44663</v>
+        <v>44634</v>
       </c>
       <c r="B133" t="n">
-        <v>1710.414</v>
+        <v>1608.021</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44664</v>
+        <v>44635</v>
       </c>
       <c r="B134" t="n">
-        <v>1815.555</v>
+        <v>1583.471</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44665</v>
+        <v>44636</v>
       </c>
       <c r="B135" t="n">
-        <v>1706.935</v>
+        <v>1613.637</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44669</v>
+        <v>44637</v>
       </c>
       <c r="B136" t="n">
-        <v>1738.379</v>
+        <v>1659.977</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44670</v>
+        <v>44638</v>
       </c>
       <c r="B137" t="n">
-        <v>1817.292</v>
+        <v>1715.148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44671</v>
+        <v>44641</v>
       </c>
       <c r="B138" t="n">
-        <v>1866.56</v>
+        <v>1728.893</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44672</v>
+        <v>44642</v>
       </c>
       <c r="B139" t="n">
-        <v>1854.7</v>
+        <v>1763.183</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44673</v>
+        <v>44643</v>
       </c>
       <c r="B140" t="n">
-        <v>1765.031</v>
+        <v>1803.186</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44676</v>
+        <v>44644</v>
       </c>
       <c r="B141" t="n">
-        <v>1783.609</v>
+        <v>1707.655</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44677</v>
+        <v>44645</v>
       </c>
       <c r="B142" t="n">
-        <v>1819.343</v>
+        <v>1676.974</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44678</v>
+        <v>44648</v>
       </c>
       <c r="B143" t="n">
-        <v>1803.162</v>
+        <v>1688.632</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44679</v>
+        <v>44649</v>
       </c>
       <c r="B144" t="n">
-        <v>1818.416</v>
+        <v>1718.87</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44680</v>
+        <v>44650</v>
       </c>
       <c r="B145" t="n">
-        <v>1906.802</v>
+        <v>1785.939</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44683</v>
+        <v>44651</v>
       </c>
       <c r="B146" t="n">
-        <v>1796.302</v>
+        <v>1871.97</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44684</v>
+        <v>44652</v>
       </c>
       <c r="B147" t="n">
-        <v>1796.252</v>
+        <v>1666.063</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44685</v>
+        <v>44655</v>
       </c>
       <c r="B148" t="n">
-        <v>1815.656</v>
+        <v>1692.936</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44686</v>
+        <v>44656</v>
       </c>
       <c r="B149" t="n">
-        <v>1844.762</v>
+        <v>1710.834</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44687</v>
+        <v>44657</v>
       </c>
       <c r="B150" t="n">
-        <v>1861.866</v>
+        <v>1731.472</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44690</v>
+        <v>44658</v>
       </c>
       <c r="B151" t="n">
-        <v>1858.995</v>
+        <v>1734.424</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44691</v>
+        <v>44659</v>
       </c>
       <c r="B152" t="n">
-        <v>1864.225</v>
+        <v>1750.498</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44692</v>
+        <v>44662</v>
       </c>
       <c r="B153" t="n">
-        <v>1876.119</v>
+        <v>1758.958</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44693</v>
+        <v>44663</v>
       </c>
       <c r="B154" t="n">
-        <v>1900.069</v>
+        <v>1710.414</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44694</v>
+        <v>44664</v>
       </c>
       <c r="B155" t="n">
-        <v>1865.287</v>
+        <v>1815.555</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44697</v>
+        <v>44665</v>
       </c>
       <c r="B156" t="n">
-        <v>1833.152</v>
+        <v>1706.935</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44698</v>
+        <v>44669</v>
       </c>
       <c r="B157" t="n">
-        <v>1877.483</v>
+        <v>1738.379</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44699</v>
+        <v>44670</v>
       </c>
       <c r="B158" t="n">
-        <v>1973.373</v>
+        <v>1817.292</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44700</v>
+        <v>44671</v>
       </c>
       <c r="B159" t="n">
-        <v>1981.005</v>
+        <v>1866.56</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44701</v>
+        <v>44672</v>
       </c>
       <c r="B160" t="n">
-        <v>1987.987</v>
+        <v>1854.7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44704</v>
+        <v>44673</v>
       </c>
       <c r="B161" t="n">
-        <v>2044.658</v>
+        <v>1765.031</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44705</v>
+        <v>44676</v>
       </c>
       <c r="B162" t="n">
-        <v>1987.865</v>
+        <v>1783.609</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44706</v>
+        <v>44677</v>
       </c>
       <c r="B163" t="n">
-        <v>1995.75</v>
+        <v>1819.343</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44707</v>
+        <v>44678</v>
       </c>
       <c r="B164" t="n">
-        <v>2007.702</v>
+        <v>1803.162</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="B165" t="n">
-        <v>2006.688</v>
+        <v>1818.416</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44712</v>
+        <v>44680</v>
       </c>
       <c r="B166" t="n">
-        <v>1978.538</v>
+        <v>1906.802</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44713</v>
+        <v>44683</v>
       </c>
       <c r="B167" t="n">
-        <v>1965.015</v>
+        <v>1796.302</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44714</v>
+        <v>44684</v>
       </c>
       <c r="B168" t="n">
-        <v>1985.239</v>
+        <v>1796.252</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44715</v>
+        <v>44685</v>
       </c>
       <c r="B169" t="n">
-        <v>2031.228</v>
+        <v>1815.656</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44718</v>
+        <v>44686</v>
       </c>
       <c r="B170" t="n">
-        <v>2040.093</v>
+        <v>1844.762</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44719</v>
+        <v>44687</v>
       </c>
       <c r="B171" t="n">
-        <v>2091.395</v>
+        <v>1861.866</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44720</v>
+        <v>44690</v>
       </c>
       <c r="B172" t="n">
-        <v>2140.277</v>
+        <v>1858.995</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44721</v>
+        <v>44691</v>
       </c>
       <c r="B173" t="n">
-        <v>2142.318</v>
+        <v>1864.225</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44722</v>
+        <v>44692</v>
       </c>
       <c r="B174" t="n">
-        <v>2162.885</v>
+        <v>1876.119</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44725</v>
+        <v>44693</v>
       </c>
       <c r="B175" t="n">
-        <v>2212.62</v>
+        <v>1900.069</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44726</v>
+        <v>44694</v>
       </c>
       <c r="B176" t="n">
-        <v>2223.857</v>
+        <v>1865.287</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44727</v>
+        <v>44697</v>
       </c>
       <c r="B177" t="n">
-        <v>2162.924</v>
+        <v>1833.152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44728</v>
+        <v>44698</v>
       </c>
       <c r="B178" t="n">
-        <v>2178.382</v>
+        <v>1877.483</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44729</v>
+        <v>44699</v>
       </c>
       <c r="B179" t="n">
-        <v>2229.279</v>
+        <v>1973.373</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44733</v>
+        <v>44700</v>
       </c>
       <c r="B180" t="n">
-        <v>2188.627</v>
+        <v>1981.005</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44734</v>
+        <v>44701</v>
       </c>
       <c r="B181" t="n">
-        <v>2259.458</v>
+        <v>1987.987</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44735</v>
+        <v>44704</v>
       </c>
       <c r="B182" t="n">
-        <v>2285.442</v>
+        <v>2044.658</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44736</v>
+        <v>44705</v>
       </c>
       <c r="B183" t="n">
-        <v>2180.984</v>
+        <v>1987.865</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44739</v>
+        <v>44706</v>
       </c>
       <c r="B184" t="n">
-        <v>2155.942</v>
+        <v>1995.75</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44740</v>
+        <v>44707</v>
       </c>
       <c r="B185" t="n">
-        <v>2213.784</v>
+        <v>2007.702</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44741</v>
+        <v>44708</v>
       </c>
       <c r="B186" t="n">
-        <v>2226.976</v>
+        <v>2006.688</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B187" t="n">
-        <v>2329.743</v>
+        <v>1978.538</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B188" t="n">
-        <v>2167.085</v>
+        <v>1965.015</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44747</v>
+        <v>44714</v>
       </c>
       <c r="B189" t="n">
-        <v>2138.28</v>
+        <v>1985.239</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44748</v>
+        <v>44715</v>
       </c>
       <c r="B190" t="n">
-        <v>2168.026</v>
+        <v>2031.228</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44749</v>
+        <v>44718</v>
       </c>
       <c r="B191" t="n">
-        <v>2172.457</v>
+        <v>2040.093</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44750</v>
+        <v>44719</v>
       </c>
       <c r="B192" t="n">
-        <v>2144.921</v>
+        <v>2091.395</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44753</v>
+        <v>44720</v>
       </c>
       <c r="B193" t="n">
-        <v>2164.266</v>
+        <v>2140.277</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44754</v>
+        <v>44721</v>
       </c>
       <c r="B194" t="n">
-        <v>2146.132</v>
+        <v>2142.318</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44755</v>
+        <v>44722</v>
       </c>
       <c r="B195" t="n">
-        <v>2155.29</v>
+        <v>2162.885</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44756</v>
+        <v>44725</v>
       </c>
       <c r="B196" t="n">
-        <v>2207.121</v>
+        <v>2212.62</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44757</v>
+        <v>44726</v>
       </c>
       <c r="B197" t="n">
-        <v>2153.75</v>
+        <v>2223.857</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44760</v>
+        <v>44727</v>
       </c>
       <c r="B198" t="n">
-        <v>2190.375</v>
+        <v>2162.924</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44761</v>
+        <v>44728</v>
       </c>
       <c r="B199" t="n">
-        <v>2211.821</v>
+        <v>2178.382</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44762</v>
+        <v>44729</v>
       </c>
       <c r="B200" t="n">
-        <v>2240.204</v>
+        <v>2229.279</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44763</v>
+        <v>44733</v>
       </c>
       <c r="B201" t="n">
-        <v>2271.756</v>
+        <v>2188.627</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44764</v>
+        <v>44734</v>
       </c>
       <c r="B202" t="n">
-        <v>2228.959</v>
+        <v>2259.458</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44767</v>
+        <v>44735</v>
       </c>
       <c r="B203" t="n">
-        <v>2192.367</v>
+        <v>2285.442</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44768</v>
+        <v>44736</v>
       </c>
       <c r="B204" t="n">
-        <v>2189.474</v>
+        <v>2180.984</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44769</v>
+        <v>44739</v>
       </c>
       <c r="B205" t="n">
-        <v>2188.994</v>
+        <v>2155.942</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44770</v>
+        <v>44740</v>
       </c>
       <c r="B206" t="n">
-        <v>2239.883</v>
+        <v>2213.784</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44771</v>
+        <v>44741</v>
       </c>
       <c r="B207" t="n">
-        <v>2300.2</v>
+        <v>2226.976</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44774</v>
+        <v>44742</v>
       </c>
       <c r="B208" t="n">
-        <v>2161.885</v>
+        <v>2329.743</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44775</v>
+        <v>44743</v>
       </c>
       <c r="B209" t="n">
-        <v>2156.013</v>
+        <v>2167.085</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44776</v>
+        <v>44747</v>
       </c>
       <c r="B210" t="n">
-        <v>2182.238</v>
+        <v>2138.28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44777</v>
+        <v>44748</v>
       </c>
       <c r="B211" t="n">
-        <v>2191.546</v>
+        <v>2168.026</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44778</v>
+        <v>44749</v>
       </c>
       <c r="B212" t="n">
-        <v>2194.927</v>
+        <v>2172.457</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44781</v>
+        <v>44750</v>
       </c>
       <c r="B213" t="n">
-        <v>2195.692</v>
+        <v>2144.921</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44782</v>
+        <v>44753</v>
       </c>
       <c r="B214" t="n">
-        <v>2186.568</v>
+        <v>2164.266</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44783</v>
+        <v>44754</v>
       </c>
       <c r="B215" t="n">
-        <v>2177.646</v>
+        <v>2146.132</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44784</v>
+        <v>44755</v>
       </c>
       <c r="B216" t="n">
-        <v>2199.247</v>
+        <v>2155.29</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44785</v>
+        <v>44756</v>
       </c>
       <c r="B217" t="n">
-        <v>2213.193</v>
+        <v>2207.121</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44788</v>
+        <v>44757</v>
       </c>
       <c r="B218" t="n">
-        <v>2175.857</v>
+        <v>2153.75</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44789</v>
+        <v>44760</v>
       </c>
       <c r="B219" t="n">
-        <v>2165.332</v>
+        <v>2190.375</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44790</v>
+        <v>44761</v>
       </c>
       <c r="B220" t="n">
-        <v>2199.631</v>
+        <v>2211.821</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44791</v>
+        <v>44762</v>
       </c>
       <c r="B221" t="n">
-        <v>2218.161</v>
+        <v>2240.204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44792</v>
+        <v>44763</v>
       </c>
       <c r="B222" t="n">
-        <v>2221.68</v>
+        <v>2271.756</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44795</v>
+        <v>44764</v>
       </c>
       <c r="B223" t="n">
-        <v>2235.665</v>
+        <v>2228.959</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44796</v>
+        <v>44767</v>
       </c>
       <c r="B224" t="n">
-        <v>2250.718</v>
+        <v>2192.367</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44797</v>
+        <v>44768</v>
       </c>
       <c r="B225" t="n">
-        <v>2237.072</v>
+        <v>2189.474</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44798</v>
+        <v>44769</v>
       </c>
       <c r="B226" t="n">
-        <v>2187.907</v>
+        <v>2188.994</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44799</v>
+        <v>44770</v>
       </c>
       <c r="B227" t="n">
-        <v>2182.452</v>
+        <v>2239.883</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44802</v>
+        <v>44771</v>
       </c>
       <c r="B228" t="n">
-        <v>2205.188</v>
+        <v>2300.2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44803</v>
+        <v>44774</v>
       </c>
       <c r="B229" t="n">
-        <v>2188.975</v>
+        <v>2161.885</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44804</v>
+        <v>44775</v>
       </c>
       <c r="B230" t="n">
-        <v>2251.025</v>
+        <v>2156.013</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44805</v>
+        <v>44776</v>
       </c>
       <c r="B231" t="n">
-        <v>2173.156</v>
+        <v>2182.238</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44806</v>
+        <v>44777</v>
       </c>
       <c r="B232" t="n">
-        <v>2173.413</v>
+        <v>2191.546</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44810</v>
+        <v>44778</v>
       </c>
       <c r="B233" t="n">
-        <v>2188.796</v>
+        <v>2194.927</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44811</v>
+        <v>44781</v>
       </c>
       <c r="B234" t="n">
-        <v>2206.987</v>
+        <v>2195.692</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44812</v>
+        <v>44782</v>
       </c>
       <c r="B235" t="n">
-        <v>2210.466</v>
+        <v>2186.568</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44813</v>
+        <v>44783</v>
       </c>
       <c r="B236" t="n">
-        <v>2209.714</v>
+        <v>2177.646</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44816</v>
+        <v>44784</v>
       </c>
       <c r="B237" t="n">
-        <v>2218.546</v>
+        <v>2199.247</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44817</v>
+        <v>44785</v>
       </c>
       <c r="B238" t="n">
-        <v>2202.719</v>
+        <v>2213.193</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44818</v>
+        <v>44788</v>
       </c>
       <c r="B239" t="n">
-        <v>2225.579</v>
+        <v>2175.857</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44819</v>
+        <v>44789</v>
       </c>
       <c r="B240" t="n">
-        <v>2176.188</v>
+        <v>2165.332</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44820</v>
+        <v>44790</v>
       </c>
       <c r="B241" t="n">
-        <v>2186.833</v>
+        <v>2199.631</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44823</v>
+        <v>44791</v>
       </c>
       <c r="B242" t="n">
-        <v>2217.542</v>
+        <v>2218.161</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44824</v>
+        <v>44792</v>
       </c>
       <c r="B243" t="n">
-        <v>2238.87</v>
+        <v>2221.68</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44825</v>
+        <v>44795</v>
       </c>
       <c r="B244" t="n">
-        <v>2315.9</v>
+        <v>2235.665</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44826</v>
+        <v>44796</v>
       </c>
       <c r="B245" t="n">
-        <v>2359.227</v>
+        <v>2250.718</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44827</v>
+        <v>44797</v>
       </c>
       <c r="B246" t="n">
-        <v>2319.361</v>
+        <v>2237.072</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44830</v>
+        <v>44798</v>
       </c>
       <c r="B247" t="n">
-        <v>2299.011</v>
+        <v>2187.907</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44831</v>
+        <v>44799</v>
       </c>
       <c r="B248" t="n">
-        <v>2327.111</v>
+        <v>2182.452</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44832</v>
+        <v>44802</v>
       </c>
       <c r="B249" t="n">
-        <v>2366.798</v>
+        <v>2205.188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44833</v>
+        <v>44803</v>
       </c>
       <c r="B250" t="n">
-        <v>2371.763</v>
+        <v>2188.975</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B251" t="n">
-        <v>2425.91</v>
+        <v>2251.025</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44837</v>
+        <v>44805</v>
       </c>
       <c r="B252" t="n">
-        <v>2252.523</v>
+        <v>2173.156</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44838</v>
+        <v>44806</v>
       </c>
       <c r="B253" t="n">
-        <v>2233.616</v>
+        <v>2173.413</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44839</v>
+        <v>44810</v>
       </c>
       <c r="B254" t="n">
-        <v>2230.799</v>
+        <v>2188.796</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44840</v>
+        <v>44811</v>
       </c>
       <c r="B255" t="n">
-        <v>2232.801</v>
+        <v>2206.987</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44841</v>
+        <v>44812</v>
       </c>
       <c r="B256" t="n">
-        <v>2226.95</v>
+        <v>2210.466</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44845</v>
+        <v>44813</v>
       </c>
       <c r="B257" t="n">
-        <v>2222.479</v>
+        <v>2209.714</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44846</v>
+        <v>44816</v>
       </c>
       <c r="B258" t="n">
-        <v>2247.206</v>
+        <v>2218.546</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44847</v>
+        <v>44817</v>
       </c>
       <c r="B259" t="n">
-        <v>2244.1</v>
+        <v>2202.719</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44848</v>
+        <v>44818</v>
       </c>
       <c r="B260" t="n">
-        <v>2222.052</v>
+        <v>2225.579</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44851</v>
+        <v>44819</v>
       </c>
       <c r="B261" t="n">
-        <v>2172.301</v>
+        <v>2176.188</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44852</v>
+        <v>44820</v>
       </c>
       <c r="B262" t="n">
-        <v>2226.725</v>
+        <v>2186.833</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44853</v>
+        <v>44823</v>
       </c>
       <c r="B263" t="n">
-        <v>2241.835</v>
+        <v>2217.542</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44854</v>
+        <v>44824</v>
       </c>
       <c r="B264" t="n">
-        <v>2234.071</v>
+        <v>2238.87</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44855</v>
+        <v>44825</v>
       </c>
       <c r="B265" t="n">
-        <v>2265.809</v>
+        <v>2315.9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44858</v>
+        <v>44826</v>
       </c>
       <c r="B266" t="n">
-        <v>2242.044</v>
+        <v>2359.227</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44859</v>
+        <v>44827</v>
       </c>
       <c r="B267" t="n">
-        <v>2195.616</v>
+        <v>2319.361</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44860</v>
+        <v>44830</v>
       </c>
       <c r="B268" t="n">
-        <v>2186.856</v>
+        <v>2299.011</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44861</v>
+        <v>44831</v>
       </c>
       <c r="B269" t="n">
-        <v>2152.485</v>
+        <v>2327.111</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44862</v>
+        <v>44832</v>
       </c>
       <c r="B270" t="n">
-        <v>2183.29</v>
+        <v>2366.798</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44865</v>
+        <v>44833</v>
       </c>
       <c r="B271" t="n">
-        <v>2275.459</v>
+        <v>2371.763</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44866</v>
+        <v>44834</v>
       </c>
       <c r="B272" t="n">
-        <v>2200.51</v>
+        <v>2425.91</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44867</v>
+        <v>44837</v>
       </c>
       <c r="B273" t="n">
-        <v>2229.861</v>
+        <v>2252.523</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44868</v>
+        <v>44838</v>
       </c>
       <c r="B274" t="n">
-        <v>2219.791</v>
+        <v>2233.616</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44869</v>
+        <v>44839</v>
       </c>
       <c r="B275" t="n">
-        <v>2230.84</v>
+        <v>2230.799</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44872</v>
+        <v>44840</v>
       </c>
       <c r="B276" t="n">
-        <v>2241.317</v>
+        <v>2232.801</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44873</v>
+        <v>44841</v>
       </c>
       <c r="B277" t="n">
-        <v>2232.555</v>
+        <v>2226.95</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44874</v>
+        <v>44845</v>
       </c>
       <c r="B278" t="n">
-        <v>2237.812</v>
+        <v>2222.479</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44875</v>
+        <v>44846</v>
       </c>
       <c r="B279" t="n">
-        <v>2200.586</v>
+        <v>2247.206</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44879</v>
+        <v>44847</v>
       </c>
       <c r="B280" t="n">
-        <v>2165.018</v>
+        <v>2244.1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44880</v>
+        <v>44848</v>
       </c>
       <c r="B281" t="n">
-        <v>2086.574</v>
+        <v>2222.052</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44881</v>
+        <v>44851</v>
       </c>
       <c r="B282" t="n">
-        <v>2099.07</v>
+        <v>2172.301</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44882</v>
+        <v>44852</v>
       </c>
       <c r="B283" t="n">
-        <v>2114.439</v>
+        <v>2226.725</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44883</v>
+        <v>44853</v>
       </c>
       <c r="B284" t="n">
-        <v>2113.413</v>
+        <v>2241.835</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44886</v>
+        <v>44854</v>
       </c>
       <c r="B285" t="n">
-        <v>2125.426</v>
+        <v>2234.071</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44887</v>
+        <v>44855</v>
       </c>
       <c r="B286" t="n">
-        <v>2103.932</v>
+        <v>2265.809</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="B287" t="n">
-        <v>2069.174</v>
+        <v>2242.044</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44890</v>
+        <v>44859</v>
       </c>
       <c r="B288" t="n">
-        <v>2031.066</v>
+        <v>2195.616</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="B289" t="n">
-        <v>2054.914</v>
+        <v>2186.856</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44894</v>
+        <v>44861</v>
       </c>
       <c r="B290" t="n">
-        <v>2064.377</v>
+        <v>2152.485</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44895</v>
+        <v>44862</v>
       </c>
       <c r="B291" t="n">
-        <v>2115.913</v>
+        <v>2183.29</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44896</v>
+        <v>44865</v>
       </c>
       <c r="B292" t="n">
-        <v>2050.286</v>
+        <v>2275.459</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44897</v>
+        <v>44866</v>
       </c>
       <c r="B293" t="n">
-        <v>2049.763</v>
+        <v>2200.51</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="B294" t="n">
-        <v>2093.647</v>
+        <v>2229.861</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44901</v>
+        <v>44868</v>
       </c>
       <c r="B295" t="n">
-        <v>2111.465</v>
+        <v>2219.791</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44902</v>
+        <v>44869</v>
       </c>
       <c r="B296" t="n">
-        <v>2151.549</v>
+        <v>2230.84</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44903</v>
+        <v>44872</v>
       </c>
       <c r="B297" t="n">
-        <v>2175.973</v>
+        <v>2241.317</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44904</v>
+        <v>44873</v>
       </c>
       <c r="B298" t="n">
-        <v>2146.748</v>
+        <v>2232.555</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44907</v>
+        <v>44874</v>
       </c>
       <c r="B299" t="n">
-        <v>2158.517</v>
+        <v>2237.812</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44908</v>
+        <v>44875</v>
       </c>
       <c r="B300" t="n">
-        <v>2180.676</v>
+        <v>2200.586</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44909</v>
+        <v>44879</v>
       </c>
       <c r="B301" t="n">
-        <v>2192.864</v>
+        <v>2165.018</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44910</v>
+        <v>44880</v>
       </c>
       <c r="B302" t="n">
-        <v>2123.995</v>
+        <v>2086.574</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44911</v>
+        <v>44881</v>
       </c>
       <c r="B303" t="n">
-        <v>2126.54</v>
+        <v>2099.07</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44914</v>
+        <v>44882</v>
       </c>
       <c r="B304" t="n">
-        <v>2134.765</v>
+        <v>2114.439</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44915</v>
+        <v>44883</v>
       </c>
       <c r="B305" t="n">
-        <v>2159.408</v>
+        <v>2113.413</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44916</v>
+        <v>44886</v>
       </c>
       <c r="B306" t="n">
-        <v>2206.965</v>
+        <v>2125.426</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44917</v>
+        <v>44887</v>
       </c>
       <c r="B307" t="n">
-        <v>2222.898</v>
+        <v>2103.932</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44918</v>
+        <v>44888</v>
       </c>
       <c r="B308" t="n">
-        <v>2216.348</v>
+        <v>2069.174</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44922</v>
+        <v>44890</v>
       </c>
       <c r="B309" t="n">
-        <v>2221.259</v>
+        <v>2031.066</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44923</v>
+        <v>44893</v>
       </c>
       <c r="B310" t="n">
-        <v>2293.003</v>
+        <v>2054.914</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44924</v>
+        <v>44894</v>
       </c>
       <c r="B311" t="n">
-        <v>2308.319</v>
+        <v>2064.377</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44925</v>
+        <v>44895</v>
       </c>
       <c r="B312" t="n">
-        <v>2553.716</v>
+        <v>2115.913</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44929</v>
+        <v>44896</v>
       </c>
       <c r="B313" t="n">
-        <v>2188.272</v>
+        <v>2050.286</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44930</v>
+        <v>44897</v>
       </c>
       <c r="B314" t="n">
-        <v>2229.542</v>
+        <v>2049.763</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44931</v>
+        <v>44900</v>
       </c>
       <c r="B315" t="n">
-        <v>2242.486</v>
+        <v>2093.647</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44932</v>
+        <v>44901</v>
       </c>
       <c r="B316" t="n">
-        <v>2208.265</v>
+        <v>2111.465</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44935</v>
+        <v>44902</v>
       </c>
       <c r="B317" t="n">
-        <v>2199.121</v>
+        <v>2151.549</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44936</v>
+        <v>44903</v>
       </c>
       <c r="B318" t="n">
-        <v>2192.942</v>
+        <v>2175.973</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44937</v>
+        <v>44904</v>
       </c>
       <c r="B319" t="n">
-        <v>2199.17</v>
+        <v>2146.748</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44938</v>
+        <v>44907</v>
       </c>
       <c r="B320" t="n">
-        <v>2202.989</v>
+        <v>2158.517</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44939</v>
+        <v>44908</v>
       </c>
       <c r="B321" t="n">
-        <v>2179.781</v>
+        <v>2180.676</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44943</v>
+        <v>44909</v>
       </c>
       <c r="B322" t="n">
-        <v>2093.328</v>
+        <v>2192.864</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44944</v>
+        <v>44910</v>
       </c>
       <c r="B323" t="n">
-        <v>2131.678</v>
+        <v>2123.995</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44945</v>
+        <v>44911</v>
       </c>
       <c r="B324" t="n">
-        <v>2110.145</v>
+        <v>2126.54</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44946</v>
+        <v>44914</v>
       </c>
       <c r="B325" t="n">
-        <v>2090.523</v>
+        <v>2134.765</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44949</v>
+        <v>44915</v>
       </c>
       <c r="B326" t="n">
-        <v>2135.499</v>
+        <v>2159.408</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44950</v>
+        <v>44916</v>
       </c>
       <c r="B327" t="n">
-        <v>2048.386</v>
+        <v>2206.965</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44951</v>
+        <v>44917</v>
       </c>
       <c r="B328" t="n">
-        <v>2031.561</v>
+        <v>2222.898</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44952</v>
+        <v>44918</v>
       </c>
       <c r="B329" t="n">
-        <v>2024.069</v>
+        <v>2216.348</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44953</v>
+        <v>44922</v>
       </c>
       <c r="B330" t="n">
-        <v>2003.634</v>
+        <v>2221.259</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44956</v>
+        <v>44923</v>
       </c>
       <c r="B331" t="n">
-        <v>2048.714</v>
+        <v>2293.003</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44957</v>
+        <v>44924</v>
       </c>
       <c r="B332" t="n">
-        <v>2061.572</v>
+        <v>2308.319</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44958</v>
+        <v>44925</v>
       </c>
       <c r="B333" t="n">
-        <v>2038.262</v>
+        <v>2553.716</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44959</v>
+        <v>44929</v>
       </c>
       <c r="B334" t="n">
-        <v>2050.063</v>
+        <v>2188.272</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44960</v>
+        <v>44930</v>
       </c>
       <c r="B335" t="n">
-        <v>2041.217</v>
+        <v>2229.542</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44963</v>
+        <v>44931</v>
       </c>
       <c r="B336" t="n">
-        <v>2072.261</v>
+        <v>2242.486</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44964</v>
+        <v>44932</v>
       </c>
       <c r="B337" t="n">
-        <v>2057.958</v>
+        <v>2208.265</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44965</v>
+        <v>44935</v>
       </c>
       <c r="B338" t="n">
-        <v>2059.604</v>
+        <v>2199.121</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44966</v>
+        <v>44936</v>
       </c>
       <c r="B339" t="n">
-        <v>2058.942</v>
+        <v>2192.942</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44967</v>
+        <v>44937</v>
       </c>
       <c r="B340" t="n">
-        <v>2042.893</v>
+        <v>2199.17</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44970</v>
+        <v>44938</v>
       </c>
       <c r="B341" t="n">
-        <v>2107.775</v>
+        <v>2202.989</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44971</v>
+        <v>44939</v>
       </c>
       <c r="B342" t="n">
-        <v>2076.548</v>
+        <v>2179.781</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44972</v>
+        <v>44943</v>
       </c>
       <c r="B343" t="n">
-        <v>2011.998</v>
+        <v>2093.328</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44973</v>
+        <v>44944</v>
       </c>
       <c r="B344" t="n">
-        <v>2032.457</v>
+        <v>2131.678</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44974</v>
+        <v>44945</v>
       </c>
       <c r="B345" t="n">
-        <v>2059.662</v>
+        <v>2110.145</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44978</v>
+        <v>44946</v>
       </c>
       <c r="B346" t="n">
-        <v>2046.064</v>
+        <v>2090.523</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44979</v>
+        <v>44949</v>
       </c>
       <c r="B347" t="n">
-        <v>2113.849</v>
+        <v>2135.499</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44980</v>
+        <v>44950</v>
       </c>
       <c r="B348" t="n">
-        <v>2147.417</v>
+        <v>2048.386</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44981</v>
+        <v>44951</v>
       </c>
       <c r="B349" t="n">
-        <v>2142.141</v>
+        <v>2031.561</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44984</v>
+        <v>44952</v>
       </c>
       <c r="B350" t="n">
-        <v>2162.435</v>
+        <v>2024.069</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44985</v>
+        <v>44953</v>
       </c>
       <c r="B351" t="n">
-        <v>2188.035</v>
+        <v>2003.634</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44986</v>
+        <v>44956</v>
       </c>
       <c r="B352" t="n">
-        <v>2133.95</v>
+        <v>2048.714</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44987</v>
+        <v>44957</v>
       </c>
       <c r="B353" t="n">
-        <v>2192.355</v>
+        <v>2061.572</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44988</v>
+        <v>44958</v>
       </c>
       <c r="B354" t="n">
-        <v>2186.15</v>
+        <v>2038.262</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44991</v>
+        <v>44959</v>
       </c>
       <c r="B355" t="n">
-        <v>2190.793</v>
+        <v>2050.063</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44992</v>
+        <v>44960</v>
       </c>
       <c r="B356" t="n">
-        <v>2170.195</v>
+        <v>2041.217</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44993</v>
+        <v>44963</v>
       </c>
       <c r="B357" t="n">
-        <v>2193.237</v>
+        <v>2072.261</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44994</v>
+        <v>44964</v>
       </c>
       <c r="B358" t="n">
-        <v>2229.623</v>
+        <v>2057.958</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44995</v>
+        <v>44965</v>
       </c>
       <c r="B359" t="n">
-        <v>2188.375</v>
+        <v>2059.604</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44998</v>
+        <v>44966</v>
       </c>
       <c r="B360" t="n">
-        <v>2126.677</v>
+        <v>2058.942</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44999</v>
+        <v>44967</v>
       </c>
       <c r="B361" t="n">
-        <v>2042.579</v>
+        <v>2042.893</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45000</v>
+        <v>44970</v>
       </c>
       <c r="B362" t="n">
-        <v>2055.823</v>
+        <v>2107.775</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45001</v>
+        <v>44971</v>
       </c>
       <c r="B363" t="n">
-        <v>2066.319</v>
+        <v>2076.548</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45002</v>
+        <v>44972</v>
       </c>
       <c r="B364" t="n">
-        <v>2106.166</v>
+        <v>2011.998</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45005</v>
+        <v>44973</v>
       </c>
       <c r="B365" t="n">
-        <v>2098.393</v>
+        <v>2032.457</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45006</v>
+        <v>44974</v>
       </c>
       <c r="B366" t="n">
-        <v>2194.631</v>
+        <v>2059.662</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45007</v>
+        <v>44978</v>
       </c>
       <c r="B367" t="n">
-        <v>2279.608</v>
+        <v>2046.064</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45008</v>
+        <v>44979</v>
       </c>
       <c r="B368" t="n">
-        <v>2233.956</v>
+        <v>2113.849</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45009</v>
+        <v>44980</v>
       </c>
       <c r="B369" t="n">
-        <v>2218.458</v>
+        <v>2147.417</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45012</v>
+        <v>44981</v>
       </c>
       <c r="B370" t="n">
-        <v>2220.131</v>
+        <v>2142.141</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45013</v>
+        <v>44984</v>
       </c>
       <c r="B371" t="n">
-        <v>2231.749</v>
+        <v>2162.435</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45014</v>
+        <v>44985</v>
       </c>
       <c r="B372" t="n">
-        <v>2264.862</v>
+        <v>2188.035</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45015</v>
+        <v>44986</v>
       </c>
       <c r="B373" t="n">
-        <v>2271.531</v>
+        <v>2133.95</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45016</v>
+        <v>44987</v>
       </c>
       <c r="B374" t="n">
-        <v>2375.171</v>
+        <v>2192.355</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45019</v>
+        <v>44988</v>
       </c>
       <c r="B375" t="n">
-        <v>2221.01</v>
+        <v>2186.15</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45020</v>
+        <v>44991</v>
       </c>
       <c r="B376" t="n">
-        <v>2219.375</v>
+        <v>2190.793</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45021</v>
+        <v>44992</v>
       </c>
       <c r="B377" t="n">
-        <v>2243.011</v>
+        <v>2170.195</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45022</v>
+        <v>44993</v>
       </c>
       <c r="B378" t="n">
-        <v>2173.663</v>
+        <v>2193.237</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45026</v>
+        <v>44994</v>
       </c>
       <c r="B379" t="n">
-        <v>2239.655</v>
+        <v>2229.623</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45027</v>
+        <v>44995</v>
       </c>
       <c r="B380" t="n">
-        <v>2297.208</v>
+        <v>2188.375</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45028</v>
+        <v>44998</v>
       </c>
       <c r="B381" t="n">
-        <v>2303.862</v>
+        <v>2126.677</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45029</v>
+        <v>44999</v>
       </c>
       <c r="B382" t="n">
-        <v>2321.699</v>
+        <v>2042.579</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45030</v>
+        <v>45000</v>
       </c>
       <c r="B383" t="n">
-        <v>2253.786</v>
+        <v>2055.823</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45033</v>
+        <v>45001</v>
       </c>
       <c r="B384" t="n">
-        <v>2256.845</v>
+        <v>2066.319</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45034</v>
+        <v>45002</v>
       </c>
       <c r="B385" t="n">
-        <v>2238.994</v>
+        <v>2106.166</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45035</v>
+        <v>45005</v>
       </c>
       <c r="B386" t="n">
-        <v>2294.677</v>
+        <v>2098.393</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45036</v>
+        <v>45006</v>
       </c>
       <c r="B387" t="n">
-        <v>2277.259</v>
+        <v>2194.631</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45037</v>
+        <v>45007</v>
       </c>
       <c r="B388" t="n">
-        <v>2290.023</v>
+        <v>2279.608</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45040</v>
+        <v>45008</v>
       </c>
       <c r="B389" t="n">
-        <v>2308.538</v>
+        <v>2233.956</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45041</v>
+        <v>45009</v>
       </c>
       <c r="B390" t="n">
-        <v>2275.402</v>
+        <v>2218.458</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45042</v>
+        <v>45012</v>
       </c>
       <c r="B391" t="n">
-        <v>2279.561</v>
+        <v>2220.131</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45043</v>
+        <v>45013</v>
       </c>
       <c r="B392" t="n">
-        <v>2273.926</v>
+        <v>2231.749</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45044</v>
+        <v>45014</v>
       </c>
       <c r="B393" t="n">
-        <v>2325.479</v>
+        <v>2264.862</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45047</v>
+        <v>45015</v>
       </c>
       <c r="B394" t="n">
-        <v>2239.866</v>
+        <v>2271.531</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45048</v>
+        <v>45016</v>
       </c>
       <c r="B395" t="n">
-        <v>2267.13</v>
+        <v>2375.171</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45049</v>
+        <v>45019</v>
       </c>
       <c r="B396" t="n">
-        <v>2258.222</v>
+        <v>2221.01</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45050</v>
+        <v>45020</v>
       </c>
       <c r="B397" t="n">
-        <v>2242.399</v>
+        <v>2219.375</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45051</v>
+        <v>45021</v>
       </c>
       <c r="B398" t="n">
-        <v>2207.415</v>
+        <v>2243.011</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45054</v>
+        <v>45022</v>
       </c>
       <c r="B399" t="n">
-        <v>2217.601</v>
+        <v>2173.663</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45055</v>
+        <v>45026</v>
       </c>
       <c r="B400" t="n">
-        <v>2222.864</v>
+        <v>2239.655</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45056</v>
+        <v>45027</v>
       </c>
       <c r="B401" t="n">
-        <v>2233.149</v>
+        <v>2297.208</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45057</v>
+        <v>45028</v>
       </c>
       <c r="B402" t="n">
-        <v>2242.243</v>
+        <v>2303.862</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45058</v>
+        <v>45029</v>
       </c>
       <c r="B403" t="n">
-        <v>2229.199</v>
+        <v>2321.699</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45061</v>
+        <v>45030</v>
       </c>
       <c r="B404" t="n">
-        <v>2220.927</v>
+        <v>2253.786</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45062</v>
+        <v>45033</v>
       </c>
       <c r="B405" t="n">
-        <v>2203.214</v>
+        <v>2256.845</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45063</v>
+        <v>45034</v>
       </c>
       <c r="B406" t="n">
-        <v>2213.676</v>
+        <v>2238.994</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45064</v>
+        <v>45035</v>
       </c>
       <c r="B407" t="n">
-        <v>2238.266</v>
+        <v>2294.677</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45065</v>
+        <v>45036</v>
       </c>
       <c r="B408" t="n">
-        <v>2276.72</v>
+        <v>2277.259</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45068</v>
+        <v>45037</v>
       </c>
       <c r="B409" t="n">
-        <v>2275.311</v>
+        <v>2290.023</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45069</v>
+        <v>45040</v>
       </c>
       <c r="B410" t="n">
-        <v>2256.689</v>
+        <v>2308.538</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45070</v>
+        <v>45041</v>
       </c>
       <c r="B411" t="n">
-        <v>2250.709</v>
+        <v>2275.402</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45071</v>
+        <v>45042</v>
       </c>
       <c r="B412" t="n">
-        <v>2197.638</v>
+        <v>2279.561</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45072</v>
+        <v>45043</v>
       </c>
       <c r="B413" t="n">
-        <v>2189.681</v>
+        <v>2273.926</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45076</v>
+        <v>45044</v>
       </c>
       <c r="B414" t="n">
-        <v>2200.479</v>
+        <v>2325.479</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45077</v>
+        <v>45047</v>
       </c>
       <c r="B415" t="n">
-        <v>2254.859</v>
+        <v>2239.866</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45078</v>
+        <v>45048</v>
       </c>
       <c r="B416" t="n">
-        <v>2160.055</v>
+        <v>2267.13</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45079</v>
+        <v>45049</v>
       </c>
       <c r="B417" t="n">
-        <v>2142.102</v>
+        <v>2258.222</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45082</v>
+        <v>45050</v>
       </c>
       <c r="B418" t="n">
-        <v>2131.417</v>
+        <v>2242.399</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45083</v>
+        <v>45051</v>
       </c>
       <c r="B419" t="n">
-        <v>2134.638</v>
+        <v>2207.415</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45084</v>
+        <v>45054</v>
       </c>
       <c r="B420" t="n">
-        <v>2161.556</v>
+        <v>2217.601</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45085</v>
+        <v>45055</v>
       </c>
       <c r="B421" t="n">
-        <v>2141.798</v>
+        <v>2222.864</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45086</v>
+        <v>45056</v>
       </c>
       <c r="B422" t="n">
-        <v>2127.652</v>
+        <v>2233.149</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45089</v>
+        <v>45057</v>
       </c>
       <c r="B423" t="n">
-        <v>2126.87</v>
+        <v>2242.243</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45090</v>
+        <v>45058</v>
       </c>
       <c r="B424" t="n">
-        <v>2074.52</v>
+        <v>2229.199</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45091</v>
+        <v>45061</v>
       </c>
       <c r="B425" t="n">
-        <v>2109.105</v>
+        <v>2220.927</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45092</v>
+        <v>45062</v>
       </c>
       <c r="B426" t="n">
-        <v>1992.14</v>
+        <v>2203.214</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45093</v>
+        <v>45063</v>
       </c>
       <c r="B427" t="n">
-        <v>2011.556</v>
+        <v>2213.676</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45097</v>
+        <v>45064</v>
       </c>
       <c r="B428" t="n">
-        <v>1989.489</v>
+        <v>2238.266</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45098</v>
+        <v>45065</v>
       </c>
       <c r="B429" t="n">
-        <v>2037.102</v>
+        <v>2276.72</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45099</v>
+        <v>45068</v>
       </c>
       <c r="B430" t="n">
-        <v>1994.711</v>
+        <v>2275.311</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45100</v>
+        <v>45069</v>
       </c>
       <c r="B431" t="n">
-        <v>1969.38</v>
+        <v>2256.689</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45103</v>
+        <v>45070</v>
       </c>
       <c r="B432" t="n">
-        <v>1961.027</v>
+        <v>2250.709</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45104</v>
+        <v>45071</v>
       </c>
       <c r="B433" t="n">
-        <v>1951.098</v>
+        <v>2197.638</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45105</v>
+        <v>45072</v>
       </c>
       <c r="B434" t="n">
-        <v>1945.211</v>
+        <v>2189.681</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45106</v>
+        <v>45076</v>
       </c>
       <c r="B435" t="n">
-        <v>1934.684</v>
+        <v>2200.479</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B436" t="n">
-        <v>2034.319</v>
+        <v>2254.859</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45110</v>
+        <v>45078</v>
       </c>
       <c r="B437" t="n">
-        <v>1909.639</v>
+        <v>2160.055</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45112</v>
+        <v>45079</v>
       </c>
       <c r="B438" t="n">
-        <v>1867.061</v>
+        <v>2142.102</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45113</v>
+        <v>45082</v>
       </c>
       <c r="B439" t="n">
-        <v>1854.256</v>
+        <v>2131.417</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45114</v>
+        <v>45083</v>
       </c>
       <c r="B440" t="n">
-        <v>1822.303</v>
+        <v>2134.638</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45117</v>
+        <v>45084</v>
       </c>
       <c r="B441" t="n">
-        <v>1811.981</v>
+        <v>2161.556</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45118</v>
+        <v>45085</v>
       </c>
       <c r="B442" t="n">
-        <v>1775.796</v>
+        <v>2141.798</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45119</v>
+        <v>45086</v>
       </c>
       <c r="B443" t="n">
-        <v>1820.146</v>
+        <v>2127.652</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45120</v>
+        <v>45089</v>
       </c>
       <c r="B444" t="n">
-        <v>1767.432</v>
+        <v>2126.87</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45121</v>
+        <v>45090</v>
       </c>
       <c r="B445" t="n">
-        <v>1740.777</v>
+        <v>2074.52</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45124</v>
+        <v>45091</v>
       </c>
       <c r="B446" t="n">
-        <v>1728.322</v>
+        <v>2109.105</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45125</v>
+        <v>45092</v>
       </c>
       <c r="B447" t="n">
-        <v>1716.862</v>
+        <v>1992.14</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45126</v>
+        <v>45093</v>
       </c>
       <c r="B448" t="n">
-        <v>1732.804</v>
+        <v>2011.556</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45127</v>
+        <v>45097</v>
       </c>
       <c r="B449" t="n">
-        <v>1721.001</v>
+        <v>1989.489</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45128</v>
+        <v>45098</v>
       </c>
       <c r="B450" t="n">
-        <v>1770.752</v>
+        <v>2037.102</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45131</v>
+        <v>45099</v>
       </c>
       <c r="B451" t="n">
-        <v>1770.867</v>
+        <v>1994.711</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45132</v>
+        <v>45100</v>
       </c>
       <c r="B452" t="n">
-        <v>1720.716</v>
+        <v>1969.38</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45133</v>
+        <v>45103</v>
       </c>
       <c r="B453" t="n">
-        <v>1749.733</v>
+        <v>1961.027</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45134</v>
+        <v>45104</v>
       </c>
       <c r="B454" t="n">
-        <v>1735.783</v>
+        <v>1951.098</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45135</v>
+        <v>45105</v>
       </c>
       <c r="B455" t="n">
-        <v>1730.227</v>
+        <v>1945.211</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45138</v>
+        <v>45106</v>
       </c>
       <c r="B456" t="n">
-        <v>1821.124</v>
+        <v>1934.684</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="B457" t="n">
-        <v>1739.554</v>
+        <v>2034.319</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45140</v>
+        <v>45110</v>
       </c>
       <c r="B458" t="n">
-        <v>1770.186</v>
+        <v>1909.639</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45141</v>
+        <v>45112</v>
       </c>
       <c r="B459" t="n">
-        <v>1776.774</v>
+        <v>1867.061</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45142</v>
+        <v>45113</v>
       </c>
       <c r="B460" t="n">
-        <v>1793.804</v>
+        <v>1854.256</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45145</v>
+        <v>45114</v>
       </c>
       <c r="B461" t="n">
-        <v>1810.583</v>
+        <v>1822.303</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45146</v>
+        <v>45117</v>
       </c>
       <c r="B462" t="n">
-        <v>1778.351</v>
+        <v>1811.981</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45147</v>
+        <v>45118</v>
       </c>
       <c r="B463" t="n">
-        <v>1796.519</v>
+        <v>1775.796</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45148</v>
+        <v>45119</v>
       </c>
       <c r="B464" t="n">
-        <v>1759.897</v>
+        <v>1820.146</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45149</v>
+        <v>45120</v>
       </c>
       <c r="B465" t="n">
-        <v>1773.236</v>
+        <v>1767.432</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45152</v>
+        <v>45121</v>
       </c>
       <c r="B466" t="n">
-        <v>1799.311</v>
+        <v>1740.777</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45153</v>
+        <v>45124</v>
       </c>
       <c r="B467" t="n">
-        <v>1743.784</v>
+        <v>1728.322</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45154</v>
+        <v>45125</v>
       </c>
       <c r="B468" t="n">
-        <v>1796.725</v>
+        <v>1716.862</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45155</v>
+        <v>45126</v>
       </c>
       <c r="B469" t="n">
-        <v>1794.12</v>
+        <v>1732.804</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45156</v>
+        <v>45127</v>
       </c>
       <c r="B470" t="n">
-        <v>1819.201</v>
+        <v>1721.001</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45159</v>
+        <v>45128</v>
       </c>
       <c r="B471" t="n">
-        <v>1824.788</v>
+        <v>1770.752</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45160</v>
+        <v>45131</v>
       </c>
       <c r="B472" t="n">
-        <v>1812.294</v>
+        <v>1770.867</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45161</v>
+        <v>45132</v>
       </c>
       <c r="B473" t="n">
-        <v>1816.533</v>
+        <v>1720.716</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45162</v>
+        <v>45133</v>
       </c>
       <c r="B474" t="n">
-        <v>1731.623</v>
+        <v>1749.733</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45163</v>
+        <v>45134</v>
       </c>
       <c r="B475" t="n">
-        <v>1687.379</v>
+        <v>1735.783</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45166</v>
+        <v>45135</v>
       </c>
       <c r="B476" t="n">
-        <v>1708.605</v>
+        <v>1730.227</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45167</v>
+        <v>45138</v>
       </c>
       <c r="B477" t="n">
-        <v>1693.278</v>
+        <v>1821.124</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45168</v>
+        <v>45139</v>
       </c>
       <c r="B478" t="n">
-        <v>1696.819</v>
+        <v>1739.554</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45169</v>
+        <v>45140</v>
       </c>
       <c r="B479" t="n">
-        <v>1651.602</v>
+        <v>1770.186</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45170</v>
+        <v>45141</v>
       </c>
       <c r="B480" t="n">
-        <v>1574.065</v>
+        <v>1776.774</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45174</v>
+        <v>45142</v>
       </c>
       <c r="B481" t="n">
-        <v>1568.49</v>
+        <v>1793.804</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45175</v>
+        <v>45145</v>
       </c>
       <c r="B482" t="n">
-        <v>1606.244</v>
+        <v>1810.583</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45176</v>
+        <v>45146</v>
       </c>
       <c r="B483" t="n">
-        <v>1535.289</v>
+        <v>1778.351</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45177</v>
+        <v>45147</v>
       </c>
       <c r="B484" t="n">
-        <v>1525.403</v>
+        <v>1796.519</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45180</v>
+        <v>45148</v>
       </c>
       <c r="B485" t="n">
-        <v>1549.111</v>
+        <v>1759.897</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45181</v>
+        <v>45149</v>
       </c>
       <c r="B486" t="n">
-        <v>1493.781</v>
+        <v>1773.236</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45182</v>
+        <v>45152</v>
       </c>
       <c r="B487" t="n">
-        <v>1546.225</v>
+        <v>1799.311</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45183</v>
+        <v>45153</v>
       </c>
       <c r="B488" t="n">
-        <v>1492.427</v>
+        <v>1743.784</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45184</v>
+        <v>45154</v>
       </c>
       <c r="B489" t="n">
-        <v>1401.403</v>
+        <v>1796.725</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45187</v>
+        <v>45155</v>
       </c>
       <c r="B490" t="n">
-        <v>1452.942</v>
+        <v>1794.12</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45188</v>
+        <v>45156</v>
       </c>
       <c r="B491" t="n">
-        <v>1453.324</v>
+        <v>1819.201</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45189</v>
+        <v>45159</v>
       </c>
       <c r="B492" t="n">
-        <v>1486.984</v>
+        <v>1824.788</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45190</v>
+        <v>45160</v>
       </c>
       <c r="B493" t="n">
-        <v>1454.115</v>
+        <v>1812.294</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45191</v>
+        <v>45161</v>
       </c>
       <c r="B494" t="n">
-        <v>1427.575</v>
+        <v>1816.533</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45194</v>
+        <v>45162</v>
       </c>
       <c r="B495" t="n">
-        <v>1437.31</v>
+        <v>1731.623</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45195</v>
+        <v>45163</v>
       </c>
       <c r="B496" t="n">
-        <v>1438.301</v>
+        <v>1687.379</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45196</v>
+        <v>45166</v>
       </c>
       <c r="B497" t="n">
-        <v>1442.805</v>
+        <v>1708.605</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45197</v>
+        <v>45167</v>
       </c>
       <c r="B498" t="n">
-        <v>1453.366</v>
+        <v>1693.278</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45198</v>
+        <v>45168</v>
       </c>
       <c r="B499" t="n">
-        <v>1557.569</v>
+        <v>1696.819</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45201</v>
+        <v>45169</v>
       </c>
       <c r="B500" t="n">
-        <v>1365.739</v>
+        <v>1651.602</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45202</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>1348.465</v>
+        <v>1574.065</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45203</v>
+        <v>45174</v>
       </c>
       <c r="B502" t="n">
-        <v>1342.031</v>
+        <v>1568.49</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45204</v>
+        <v>45175</v>
       </c>
       <c r="B503" t="n">
-        <v>1265.132</v>
+        <v>1606.244</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45205</v>
+        <v>45176</v>
       </c>
       <c r="B504" t="n">
-        <v>1283.461</v>
+        <v>1535.289</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45209</v>
+        <v>45177</v>
       </c>
       <c r="B505" t="n">
-        <v>1222.44</v>
+        <v>1525.403</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45210</v>
+        <v>45180</v>
       </c>
       <c r="B506" t="n">
-        <v>1239.382</v>
+        <v>1549.111</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45211</v>
+        <v>45181</v>
       </c>
       <c r="B507" t="n">
-        <v>1157.319</v>
+        <v>1493.781</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45212</v>
+        <v>45182</v>
       </c>
       <c r="B508" t="n">
-        <v>1151.818</v>
+        <v>1546.225</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45215</v>
+        <v>45183</v>
       </c>
       <c r="B509" t="n">
-        <v>1108.819</v>
+        <v>1492.427</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45216</v>
+        <v>45184</v>
       </c>
       <c r="B510" t="n">
-        <v>1082.502</v>
+        <v>1401.403</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45217</v>
+        <v>45187</v>
       </c>
       <c r="B511" t="n">
-        <v>1150.781</v>
+        <v>1452.942</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45218</v>
+        <v>45188</v>
       </c>
       <c r="B512" t="n">
-        <v>1114.179</v>
+        <v>1453.324</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45219</v>
+        <v>45189</v>
       </c>
       <c r="B513" t="n">
-        <v>1138.756</v>
+        <v>1486.984</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45222</v>
+        <v>45190</v>
       </c>
       <c r="B514" t="n">
-        <v>1157.976</v>
+        <v>1454.115</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45223</v>
+        <v>45191</v>
       </c>
       <c r="B515" t="n">
-        <v>1097.875</v>
+        <v>1427.575</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45224</v>
+        <v>45194</v>
       </c>
       <c r="B516" t="n">
-        <v>1100.617</v>
+        <v>1437.31</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45225</v>
+        <v>45195</v>
       </c>
       <c r="B517" t="n">
-        <v>1089.85</v>
+        <v>1438.301</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45226</v>
+        <v>45196</v>
       </c>
       <c r="B518" t="n">
-        <v>1091.858</v>
+        <v>1442.805</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45229</v>
+        <v>45197</v>
       </c>
       <c r="B519" t="n">
-        <v>1138.035</v>
+        <v>1453.366</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45230</v>
+        <v>45198</v>
       </c>
       <c r="B520" t="n">
-        <v>1137.697</v>
+        <v>1557.569</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45231</v>
+        <v>45201</v>
       </c>
       <c r="B521" t="n">
-        <v>1079.462</v>
+        <v>1365.739</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45232</v>
+        <v>45202</v>
       </c>
       <c r="B522" t="n">
-        <v>1054.986</v>
+        <v>1348.465</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45233</v>
+        <v>45203</v>
       </c>
       <c r="B523" t="n">
-        <v>1071.139</v>
+        <v>1342.031</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45236</v>
+        <v>45204</v>
       </c>
       <c r="B524" t="n">
-        <v>1062.878</v>
+        <v>1265.132</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45237</v>
+        <v>45205</v>
       </c>
       <c r="B525" t="n">
-        <v>1008.685</v>
+        <v>1283.461</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45238</v>
+        <v>45209</v>
       </c>
       <c r="B526" t="n">
-        <v>1024.451</v>
+        <v>1222.44</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45239</v>
+        <v>45210</v>
       </c>
       <c r="B527" t="n">
-        <v>993.314</v>
+        <v>1239.382</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45240</v>
+        <v>45211</v>
       </c>
       <c r="B528" t="n">
-        <v>1032.72</v>
+        <v>1157.319</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45243</v>
+        <v>45212</v>
       </c>
       <c r="B529" t="n">
-        <v>1020.272</v>
+        <v>1151.818</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45244</v>
+        <v>45215</v>
       </c>
       <c r="B530" t="n">
-        <v>988.298</v>
+        <v>1108.819</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45245</v>
+        <v>45216</v>
       </c>
       <c r="B531" t="n">
-        <v>944.241</v>
+        <v>1082.502</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45246</v>
+        <v>45217</v>
       </c>
       <c r="B532" t="n">
-        <v>912.01</v>
+        <v>1150.781</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45247</v>
+        <v>45218</v>
       </c>
       <c r="B533" t="n">
-        <v>935.803</v>
+        <v>1114.179</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45250</v>
+        <v>45219</v>
       </c>
       <c r="B534" t="n">
-        <v>953.088</v>
+        <v>1138.756</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45251</v>
+        <v>45222</v>
       </c>
       <c r="B535" t="n">
-        <v>931.155</v>
+        <v>1157.976</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45252</v>
+        <v>45223</v>
       </c>
       <c r="B536" t="n">
-        <v>931.604</v>
+        <v>1097.875</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45254</v>
+        <v>45224</v>
       </c>
       <c r="B537" t="n">
-        <v>865.907</v>
+        <v>1100.617</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45257</v>
+        <v>45225</v>
       </c>
       <c r="B538" t="n">
-        <v>867.22</v>
+        <v>1089.85</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45258</v>
+        <v>45226</v>
       </c>
       <c r="B539" t="n">
-        <v>873.3440000000001</v>
+        <v>1091.858</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1138.035</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1137.697</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1079.462</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1054.986</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B544" t="n">
+        <v>1071.139</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1062.878</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1008.685</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1024.451</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B548" t="n">
+        <v>993.314</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1032.72</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1020.272</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B551" t="n">
+        <v>988.298</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B552" t="n">
+        <v>944.241</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B553" t="n">
+        <v>912.01</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B554" t="n">
+        <v>935.803</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B555" t="n">
+        <v>953.088</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B556" t="n">
+        <v>931.155</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B557" t="n">
+        <v>931.604</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B558" t="n">
+        <v>865.907</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B559" t="n">
+        <v>867.22</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B560" t="n">
+        <v>873.3440000000001</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="B540" t="n">
+      <c r="B561" t="n">
         <v>914.187</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B562" t="n">
+        <v>887.822</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B563" t="n">
+        <v>768.543</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B564" t="n">
+        <v>815.847</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B565" t="n">
+        <v>834.428</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B566" t="n">
+        <v>846.498</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B567" t="n">
+        <v>825.734</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +5050,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -4846,7 +5062,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -4882,7 +5098,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-07</t>
         </is>
       </c>
     </row>
@@ -4966,7 +5182,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-29 13:01:02-06</t>
+          <t>2023-12-07 13:01:02-06</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
+++ b/NetLiquidity/FRED_Data/RRPONTSYD.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,18 +20,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -47,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -88,12 +66,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -456,9 +434,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +455,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="B2" t="n">
@@ -485,7 +463,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44441</v>
       </c>
       <c r="B3" t="n">
@@ -493,7 +471,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44442</v>
       </c>
       <c r="B4" t="n">
@@ -501,7 +479,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44446</v>
       </c>
       <c r="B5" t="n">
@@ -509,7 +487,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44447</v>
       </c>
       <c r="B6" t="n">
@@ -517,7 +495,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44448</v>
       </c>
       <c r="B7" t="n">
@@ -525,7 +503,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44449</v>
       </c>
       <c r="B8" t="n">
@@ -533,7 +511,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44452</v>
       </c>
       <c r="B9" t="n">
@@ -541,7 +519,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44453</v>
       </c>
       <c r="B10" t="n">
@@ -549,7 +527,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44454</v>
       </c>
       <c r="B11" t="n">
@@ -557,7 +535,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44455</v>
       </c>
       <c r="B12" t="n">
@@ -565,7 +543,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44456</v>
       </c>
       <c r="B13" t="n">
@@ -573,7 +551,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>44459</v>
       </c>
       <c r="B14" t="n">
@@ -581,7 +559,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>44460</v>
       </c>
       <c r="B15" t="n">
@@ -589,7 +567,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>44461</v>
       </c>
       <c r="B16" t="n">
@@ -597,7 +575,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>44462</v>
       </c>
       <c r="B17" t="n">
@@ -605,7 +583,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>44463</v>
       </c>
       <c r="B18" t="n">
@@ -613,7 +591,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>44466</v>
       </c>
       <c r="B19" t="n">
@@ -621,7 +599,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>44467</v>
       </c>
       <c r="B20" t="n">
@@ -629,7 +607,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="B21" t="n">
@@ -637,7 +615,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B22" t="n">
@@ -645,7 +623,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="B23" t="n">
@@ -653,7 +631,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>44473</v>
       </c>
       <c r="B24" t="n">
@@ -661,7 +639,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>44474</v>
       </c>
       <c r="B25" t="n">
@@ -669,7 +647,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="B26" t="n">
@@ -677,7 +655,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>44476</v>
       </c>
       <c r="B27" t="n">
@@ -685,7 +663,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>44477</v>
       </c>
       <c r="B28" t="n">
@@ -693,7 +671,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>44481</v>
       </c>
       <c r="B29" t="n">
@@ -701,7 +679,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>44482</v>
       </c>
       <c r="B30" t="n">
@@ -709,7 +687,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>44483</v>
       </c>
       <c r="B31" t="n">
@@ -717,7 +695,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="B32" t="n">
@@ -725,7 +703,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>44487</v>
       </c>
       <c r="B33" t="n">
@@ -733,7 +711,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>44488</v>
       </c>
       <c r="B34" t="n">
@@ -741,7 +719,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="B35" t="n">
@@ -749,7 +727,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>44490</v>
       </c>
       <c r="B36" t="n">
@@ -757,7 +735,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>44491</v>
       </c>
       <c r="B37" t="n">
@@ -765,7 +743,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>44494</v>
       </c>
       <c r="B38" t="n">
@@ -773,7 +751,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>44495</v>
       </c>
       <c r="B39" t="n">
@@ -781,7 +759,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>44496</v>
       </c>
       <c r="B40" t="n">
@@ -789,7 +767,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>44497</v>
       </c>
       <c r="B41" t="n">
@@ -797,7 +775,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="B42" t="n">
@@ -805,7 +783,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="B43" t="n">
@@ -813,7 +791,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="B44" t="n">
@@ -821,7 +799,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>44503</v>
       </c>
       <c r="B45" t="n">
@@ -829,7 +807,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>44504</v>
       </c>
       <c r="B46" t="n">
@@ -837,7 +815,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>44505</v>
       </c>
       <c r="B47" t="n">
@@ -845,7 +823,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44508</v>
       </c>
       <c r="B48" t="n">
@@ -853,7 +831,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>44509</v>
       </c>
       <c r="B49" t="n">
@@ -861,7 +839,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>44510</v>
       </c>
       <c r="B50" t="n">
@@ -869,7 +847,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="B51" t="n">
@@ -877,7 +855,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>44515</v>
       </c>
       <c r="B52" t="n">
@@ -885,7 +863,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>44516</v>
       </c>
       <c r="B53" t="n">
@@ -893,7 +871,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>44517</v>
       </c>
       <c r="B54" t="n">
@@ -901,7 +879,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>44518</v>
       </c>
       <c r="B55" t="n">
@@ -909,7 +887,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>44519</v>
       </c>
       <c r="B56" t="n">
@@ -917,7 +895,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>44522</v>
       </c>
       <c r="B57" t="n">
@@ -925,7 +903,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>44523</v>
       </c>
       <c r="B58" t="n">
@@ -933,7 +911,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="B59" t="n">
@@ -941,7 +919,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>44526</v>
       </c>
       <c r="B60" t="n">
@@ -949,7 +927,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>44529</v>
       </c>
       <c r="B61" t="n">
@@ -957,7 +935,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B62" t="n">
@@ -965,7 +943,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="B63" t="n">
@@ -973,7 +951,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>44532</v>
       </c>
       <c r="B64" t="n">
@@ -981,7 +959,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>44533</v>
       </c>
       <c r="B65" t="n">
@@ -989,7 +967,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>44536</v>
       </c>
       <c r="B66" t="n">
@@ -997,7 +975,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>44537</v>
       </c>
       <c r="B67" t="n">
@@ -1005,7 +983,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="B68" t="n">
@@ -1013,7 +991,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>44539</v>
       </c>
       <c r="B69" t="n">
@@ -1021,7 +999,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>44540</v>
       </c>
       <c r="B70" t="n">
@@ -1029,7 +1007,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="B71" t="n">
@@ -1037,7 +1015,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>44544</v>
       </c>
       <c r="B72" t="n">
@@ -1045,7 +1023,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>44545</v>
       </c>
       <c r="B73" t="n">
@@ -1053,7 +1031,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>44546</v>
       </c>
       <c r="B74" t="n">
@@ -1061,7 +1039,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>44547</v>
       </c>
       <c r="B75" t="n">
@@ -1069,7 +1047,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>44550</v>
       </c>
       <c r="B76" t="n">
@@ -1077,7 +1055,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>44551</v>
       </c>
       <c r="B77" t="n">
@@ -1085,7 +1063,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="B78" t="n">
@@ -1093,7 +1071,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>44553</v>
       </c>
       <c r="B79" t="n">
@@ -1101,7 +1079,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>44557</v>
       </c>
       <c r="B80" t="n">
@@ -1109,7 +1087,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>44558</v>
       </c>
       <c r="B81" t="n">
@@ -1117,7 +1095,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>44559</v>
       </c>
       <c r="B82" t="n">
@@ -1125,7 +1103,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>44560</v>
       </c>
       <c r="B83" t="n">
@@ -1133,7 +1111,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B84" t="n">
@@ -1141,7 +1119,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>44564</v>
       </c>
       <c r="B85" t="n">
@@ -1149,7 +1127,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="B86" t="n">
@@ -1157,7 +1135,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>44566</v>
       </c>
       <c r="B87" t="n">
@@ -1165,7 +1143,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>44567</v>
       </c>
       <c r="B88" t="n">
@@ -1173,7 +1151,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>44568</v>
       </c>
       <c r="B89" t="n">
@@ -1181,7 +1159,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>44571</v>
       </c>
       <c r="B90" t="n">
@@ -1189,7 +1167,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>44572</v>
       </c>
       <c r="B91" t="n">
@@ -1197,7 +1175,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>44573</v>
       </c>
       <c r="B92" t="n">
@@ -1205,7 +1183,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>44574</v>
       </c>
       <c r="B93" t="n">
@@ -1213,7 +1191,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>44575</v>
       </c>
       <c r="B94" t="n">
@@ -1221,7 +1199,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="B95" t="n">
@@ -1229,7 +1207,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>44580</v>
       </c>
       <c r="B96" t="n">
@@ -1237,7 +1215,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="B97" t="n">
@@ -1245,7 +1223,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>44582</v>
       </c>
       <c r="B98" t="n">
@@ -1253,7 +1231,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>44585</v>
       </c>
       <c r="B99" t="n">
@@ -1261,7 +1239,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>44586</v>
       </c>
       <c r="B100" t="n">
@@ -1269,7 +1247,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>44587</v>
       </c>
       <c r="B101" t="n">
@@ -1277,7 +1255,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>44588</v>
       </c>
       <c r="B102" t="n">
@@ -1285,7 +1263,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>44589</v>
       </c>
       <c r="B103" t="n">
@@ -1293,7 +1271,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B104" t="n">
@@ -1301,7 +1279,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>44593</v>
       </c>
       <c r="B105" t="n">
@@ -1309,7 +1287,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>44594</v>
       </c>
       <c r="B106" t="n">
@@ -1317,7 +1295,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>44595</v>
       </c>
       <c r="B107" t="n">
@@ -1325,7 +1303,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>44596</v>
       </c>
       <c r="B108" t="n">
@@ -1333,7 +1311,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>44599</v>
       </c>
       <c r="B109" t="n">
@@ -1341,7 +1319,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="B110" t="n">
@@ -1349,7 +1327,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>44601</v>
       </c>
       <c r="B111" t="n">
@@ -1357,7 +1335,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>44602</v>
       </c>
       <c r="B112" t="n">
@@ -1365,7 +1343,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>44603</v>
       </c>
       <c r="B113" t="n">
@@ -1373,7 +1351,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>44606</v>
       </c>
       <c r="B114" t="n">
@@ -1381,7 +1359,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>44607</v>
       </c>
       <c r="B115" t="n">
@@ -1389,7 +1367,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>44608</v>
       </c>
       <c r="B116" t="n">
@@ -1397,7 +1375,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>44609</v>
       </c>
       <c r="B117" t="n">
@@ -1405,7 +1383,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>44610</v>
       </c>
       <c r="B118" t="n">
@@ -1413,7 +1391,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>44614</v>
       </c>
       <c r="B119" t="n">
@@ -1421,7 +1399,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>44615</v>
       </c>
       <c r="B120" t="n">
@@ -1429,7 +1407,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>44616</v>
       </c>
       <c r="B121" t="n">
@@ -1437,7 +1415,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>44617</v>
       </c>
       <c r="B122" t="n">
@@ -1445,7 +1423,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B123" t="n">
@@ -1453,7 +1431,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>44621</v>
       </c>
       <c r="B124" t="n">
@@ -1461,7 +1439,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>44622</v>
       </c>
       <c r="B125" t="n">
@@ -1469,7 +1447,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>44623</v>
       </c>
       <c r="B126" t="n">
@@ -1477,7 +1455,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>44624</v>
       </c>
       <c r="B127" t="n">
@@ -1485,7 +1463,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>44627</v>
       </c>
       <c r="B128" t="n">
@@ -1493,7 +1471,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>44628</v>
       </c>
       <c r="B129" t="n">
@@ -1501,7 +1479,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>44629</v>
       </c>
       <c r="B130" t="n">
@@ -1509,7 +1487,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>44630</v>
       </c>
       <c r="B131" t="n">
@@ -1517,7 +1495,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>44631</v>
       </c>
       <c r="B132" t="n">
@@ -1525,7 +1503,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>44634</v>
       </c>
       <c r="B133" t="n">
@@ -1533,7 +1511,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>44635</v>
       </c>
       <c r="B134" t="n">
@@ -1541,7 +1519,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>44636</v>
       </c>
       <c r="B135" t="n">
@@ -1549,7 +1527,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>44637</v>
       </c>
       <c r="B136" t="n">
@@ -1557,7 +1535,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>44638</v>
       </c>
       <c r="B137" t="n">
@@ -1565,7 +1543,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>44641</v>
       </c>
       <c r="B138" t="n">
@@ -1573,7 +1551,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>44642</v>
       </c>
       <c r="B139" t="n">
@@ -1581,7 +1559,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>44643</v>
       </c>
       <c r="B140" t="n">
@@ -1589,7 +1567,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>44644</v>
       </c>
       <c r="B141" t="n">
@@ -1597,7 +1575,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>44645</v>
       </c>
       <c r="B142" t="n">
@@ -1605,7 +1583,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>44648</v>
       </c>
       <c r="B143" t="n">
@@ -1613,7 +1591,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>44649</v>
       </c>
       <c r="B144" t="n">
@@ -1621,7 +1599,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>44650</v>
       </c>
       <c r="B145" t="n">
@@ -1629,7 +1607,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B146" t="n">
@@ -1637,7 +1615,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>44652</v>
       </c>
       <c r="B147" t="n">
@@ -1645,7 +1623,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>44655</v>
       </c>
       <c r="B148" t="n">
@@ -1653,7 +1631,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>44656</v>
       </c>
       <c r="B149" t="n">
@@ -1661,7 +1639,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>44657</v>
       </c>
       <c r="B150" t="n">
@@ -1669,7 +1647,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>44658</v>
       </c>
       <c r="B151" t="n">
@@ -1677,7 +1655,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>44659</v>
       </c>
       <c r="B152" t="n">
@@ -1685,7 +1663,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>44662</v>
       </c>
       <c r="B153" t="n">
@@ -1693,7 +1671,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>44663</v>
       </c>
       <c r="B154" t="n">
@@ -1701,7 +1679,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>44664</v>
       </c>
       <c r="B155" t="n">
@@ -1709,7 +1687,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>44665</v>
       </c>
       <c r="B156" t="n">
@@ -1717,7 +1695,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>44669</v>
       </c>
       <c r="B157" t="n">
@@ -1725,7 +1703,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>44670</v>
       </c>
       <c r="B158" t="n">
@@ -1733,7 +1711,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>44671</v>
       </c>
       <c r="B159" t="n">
@@ -1741,7 +1719,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>44672</v>
       </c>
       <c r="B160" t="n">
@@ -1749,7 +1727,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="3" t="n">
         <v>44673</v>
       </c>
       <c r="B161" t="n">
@@ -1757,7 +1735,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="3" t="n">
         <v>44676</v>
       </c>
       <c r="B162" t="n">
@@ -1765,7 +1743,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="3" t="n">
         <v>44677</v>
       </c>
       <c r="B163" t="n">
@@ -1773,7 +1751,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="3" t="n">
         <v>44678</v>
       </c>
       <c r="B164" t="n">
@@ -1781,7 +1759,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="3" t="n">
         <v>44679</v>
       </c>
       <c r="B165" t="n">
@@ -1789,7 +1767,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="3" t="n">
         <v>44680</v>
       </c>
       <c r="B166" t="n">
@@ -1797,7 +1775,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="3" t="n">
         <v>44683</v>
       </c>
       <c r="B167" t="n">
@@ -1805,7 +1783,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="3" t="n">
         <v>44684</v>
       </c>
       <c r="B168" t="n">
@@ -1813,7 +1791,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="B169" t="n">
@@ -1821,7 +1799,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="3" t="n">
         <v>44686</v>
       </c>
       <c r="B170" t="n">
@@ -1829,7 +1807,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="3" t="n">
         <v>44687</v>
       </c>
       <c r="B171" t="n">
@@ -1837,7 +1815,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="3" t="n">
         <v>44690</v>
       </c>
       <c r="B172" t="n">
@@ -1845,7 +1823,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="3" t="n">
         <v>44691</v>
       </c>
       <c r="B173" t="n">
@@ -1853,7 +1831,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="3" t="n">
         <v>44692</v>
       </c>
       <c r="B174" t="n">
@@ -1861,7 +1839,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="3" t="n">
         <v>44693</v>
       </c>
       <c r="B175" t="n">
@@ -1869,7 +1847,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="3" t="n">
         <v>44694</v>
       </c>
       <c r="B176" t="n">
@@ -1877,7 +1855,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="3" t="n">
         <v>44697</v>
       </c>
       <c r="B177" t="n">
@@ -1885,7 +1863,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="3" t="n">
         <v>44698</v>
       </c>
       <c r="B178" t="n">
@@ -1893,7 +1871,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="3" t="n">
         <v>44699</v>
       </c>
       <c r="B179" t="n">
@@ -1901,7 +1879,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="3" t="n">
         <v>44700</v>
       </c>
       <c r="B180" t="n">
@@ -1909,7 +1887,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="3" t="n">
         <v>44701</v>
       </c>
       <c r="B181" t="n">
@@ -1917,7 +1895,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="3" t="n">
         <v>44704</v>
       </c>
       <c r="B182" t="n">
@@ -1925,7 +1903,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="B183" t="n">
@@ -1933,7 +1911,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="3" t="n">
         <v>44706</v>
       </c>
       <c r="B184" t="n">
@@ -1941,7 +1919,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="3" t="n">
         <v>44707</v>
       </c>
       <c r="B185" t="n">
@@ -1949,7 +1927,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="3" t="n">
         <v>44708</v>
       </c>
       <c r="B186" t="n">
@@ -1957,7 +1935,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B187" t="n">
@@ -1965,7 +1943,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="3" t="n">
         <v>44713</v>
       </c>
       <c r="B188" t="n">
@@ -1973,7 +1951,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="3" t="n">
         <v>44714</v>
       </c>
       <c r="B189" t="n">
@@ -1981,7 +1959,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="3" t="n">
         <v>44715</v>
       </c>
       <c r="B190" t="n">
@@ -1989,7 +1967,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="3" t="n">
         <v>44718</v>
       </c>
       <c r="B191" t="n">
@@ -1997,7 +1975,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="3" t="n">
         <v>44719</v>
       </c>
       <c r="B192" t="n">
@@ -2005,7 +1983,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="B193" t="n">
@@ -2013,7 +1991,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="3" t="n">
         <v>44721</v>
       </c>
       <c r="B194" t="n">
@@ -2021,7 +1999,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="3" t="n">
         <v>44722</v>
       </c>
       <c r="B195" t="n">
@@ -2029,7 +2007,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="3" t="n">
         <v>44725</v>
       </c>
       <c r="B196" t="n">
@@ -2037,7 +2015,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="B197" t="n">
@@ -2045,7 +2023,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="3" t="n">
         <v>44727</v>
       </c>
       <c r="B198" t="n">
@@ -2053,7 +2031,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="3" t="n">
         <v>44728</v>
       </c>
       <c r="B199" t="n">
@@ -2061,7 +2039,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="3" t="n">
         <v>44729</v>
       </c>
       <c r="B200" t="n">
@@ -2069,7 +2047,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="3" t="n">
         <v>44733</v>
       </c>
       <c r="B201" t="n">
@@ -2077,7 +2055,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="3" t="n">
         <v>44734</v>
       </c>
       <c r="B202" t="n">
@@ -2085,7 +2063,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="3" t="n">
         <v>44735</v>
       </c>
       <c r="B203" t="n">
@@ -2093,7 +2071,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="3" t="n">
         <v>44736</v>
       </c>
       <c r="B204" t="n">
@@ -2101,7 +2079,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="B205" t="n">
@@ -2109,7 +2087,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="B206" t="n">
@@ -2117,7 +2095,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="B207" t="n">
@@ -2125,7 +2103,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B208" t="n">
@@ -2133,7 +2111,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="3" t="n">
         <v>44743</v>
       </c>
       <c r="B209" t="n">
@@ -2141,7 +2119,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="3" t="n">
         <v>44747</v>
       </c>
       <c r="B210" t="n">
@@ -2149,7 +2127,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="B211" t="n">
@@ -2157,7 +2135,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="B212" t="n">
@@ -2165,7 +2143,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="3" t="n">
         <v>44750</v>
       </c>
       <c r="B213" t="n">
@@ -2173,7 +2151,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="3" t="n">
         <v>44753</v>
       </c>
       <c r="B214" t="n">
@@ -2181,7 +2159,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="3" t="n">
         <v>44754</v>
       </c>
       <c r="B215" t="n">
@@ -2189,7 +2167,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="3" t="n">
         <v>44755</v>
       </c>
       <c r="B216" t="n">
@@ -2197,7 +2175,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="3" t="n">
         <v>44756</v>
       </c>
       <c r="B217" t="n">
@@ -2205,7 +2183,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="3" t="n">
         <v>44757</v>
       </c>
       <c r="B218" t="n">
@@ -2213,7 +2191,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="3" t="n">
         <v>44760</v>
       </c>
       <c r="B219" t="n">
@@ -2221,7 +2199,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="3" t="n">
         <v>44761</v>
       </c>
       <c r="B220" t="n">
@@ -2229,7 +2207,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="3" t="n">
         <v>44762</v>
       </c>
       <c r="B221" t="n">
@@ -2237,7 +2215,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="3" t="n">
         <v>44763</v>
       </c>
       <c r="B222" t="n">
@@ -2245,7 +2223,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="3" t="n">
         <v>44764</v>
       </c>
       <c r="B223" t="n">
@@ -2253,7 +2231,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="3" t="n">
         <v>44767</v>
       </c>
       <c r="B224" t="n">
@@ -2261,7 +2239,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="3" t="n">
         <v>44768</v>
       </c>
       <c r="B225" t="n">
@@ -2269,7 +2247,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="3" t="n">
         <v>44769</v>
       </c>
       <c r="B226" t="n">
@@ -2277,7 +2255,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="B227" t="n">
@@ -2285,7 +2263,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="3" t="n">
         <v>44771</v>
       </c>
       <c r="B228" t="n">
@@ -2293,7 +2271,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="B229" t="n">
@@ -2301,7 +2279,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="3" t="n">
         <v>44775</v>
       </c>
       <c r="B230" t="n">
@@ -2309,7 +2287,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="3" t="n">
         <v>44776</v>
       </c>
       <c r="B231" t="n">
@@ -2317,7 +2295,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="3" t="n">
         <v>44777</v>
       </c>
       <c r="B232" t="n">
@@ -2325,7 +2303,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="3" t="n">
         <v>44778</v>
       </c>
       <c r="B233" t="n">
@@ -2333,7 +2311,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="B234" t="n">
@@ -2341,7 +2319,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="3" t="n">
         <v>44782</v>
       </c>
       <c r="B235" t="n">
@@ -2349,7 +2327,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="B236" t="n">
@@ -2357,7 +2335,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="3" t="n">
         <v>44784</v>
       </c>
       <c r="B237" t="n">
@@ -2365,7 +2343,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="3" t="n">
         <v>44785</v>
       </c>
       <c r="B238" t="n">
@@ -2373,7 +2351,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="3" t="n">
         <v>44788</v>
       </c>
       <c r="B239" t="n">
@@ -2381,7 +2359,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="3" t="n">
         <v>44789</v>
       </c>
       <c r="B240" t="n">
@@ -2389,7 +2367,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="B241" t="n">
@@ -2397,7 +2375,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" s="3" t="n">
         <v>44791</v>
       </c>
       <c r="B242" t="n">
@@ -2405,7 +2383,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="B243" t="n">
@@ -2413,7 +2391,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" s="3" t="n">
         <v>44795</v>
       </c>
       <c r="B244" t="n">
@@ -2421,7 +2399,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" s="3" t="n">
         <v>44796</v>
       </c>
       <c r="B245" t="n">
@@ -2429,7 +2407,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="B246" t="n">
@@ -2437,7 +2415,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" s="3" t="n">
         <v>44798</v>
       </c>
       <c r="B247" t="n">
@@ -2445,7 +2423,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" s="3" t="n">
         <v>44799</v>
       </c>
       <c r="B248" t="n">
@@ -2453,7 +2431,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" s="3" t="n">
         <v>44802</v>
       </c>
       <c r="B249" t="n">
@@ -2461,7 +2439,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" s="3" t="n">
         <v>44803</v>
       </c>
       <c r="B250" t="n">
@@ -2469,7 +2447,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B251" t="n">
@@ -2477,7 +2455,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" s="3" t="n">
         <v>44805</v>
       </c>
       <c r="B252" t="n">
@@ -2485,7 +2463,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" s="3" t="n">
         <v>44806</v>
       </c>
       <c r="B253" t="n">
@@ -2493,7 +2471,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" s="3" t="n">
         <v>44810</v>
       </c>
       <c r="B254" t="n">
@@ -2501,7 +2479,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" s="3" t="n">
         <v>44811</v>
       </c>
       <c r="B255" t="n">
@@ -2509,7 +2487,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" s="3" t="n">
         <v>44812</v>
       </c>
       <c r="B256" t="n">
@@ -2517,7 +2495,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" s="3" t="n">
         <v>44813</v>
       </c>
       <c r="B257" t="n">
@@ -2525,7 +2503,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" s="3" t="n">
         <v>44816</v>
       </c>
       <c r="B258" t="n">
@@ -2533,7 +2511,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" s="3" t="n">
         <v>44817</v>
       </c>
       <c r="B259" t="n">
@@ -2541,7 +2519,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" s="3" t="n">
         <v>44818</v>
       </c>
       <c r="B260" t="n">
@@ -2549,7 +2527,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" s="3" t="n">
         <v>44819</v>
       </c>
       <c r="B261" t="n">
@@ -2557,7 +2535,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" s="3" t="n">
         <v>44820</v>
       </c>
       <c r="B262" t="n">
@@ -2565,7 +2543,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="B263" t="n">
@@ -2573,7 +2551,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" s="3" t="n">
         <v>44824</v>
       </c>
       <c r="B264" t="n">
@@ -2581,7 +2559,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" s="3" t="n">
         <v>44825</v>
       </c>
       <c r="B265" t="n">
@@ -2589,7 +2567,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" s="3" t="n">
         <v>44826</v>
       </c>
       <c r="B266" t="n">
@@ -2597,7 +2575,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" s="3" t="n">
         <v>44827</v>
       </c>
       <c r="B267" t="n">
@@ -2605,7 +2583,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="B268" t="n">
@@ -2613,7 +2591,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" s="3" t="n">
         <v>44831</v>
       </c>
       <c r="B269" t="n">
@@ -2621,7 +2599,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" s="3" t="n">
         <v>44832</v>
       </c>
       <c r="B270" t="n">
@@ -2629,7 +2607,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" s="3" t="n">
         <v>44833</v>
       </c>
       <c r="B271" t="n">
@@ -2637,7 +2615,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="B272" t="n">
@@ -2645,7 +2623,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="B273" t="n">
@@ -2653,7 +2631,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="B274" t="n">
@@ -2661,7 +2639,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" s="3" t="n">
         <v>44839</v>
       </c>
       <c r="B275" t="n">
@@ -2669,7 +2647,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" s="3" t="n">
         <v>44840</v>
       </c>
       <c r="B276" t="n">
@@ -2677,7 +2655,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="B277" t="n">
@@ -2685,7 +2663,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="B278" t="n">
@@ -2693,7 +2671,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" s="3" t="n">
         <v>44846</v>
       </c>
       <c r="B279" t="n">
@@ -2701,7 +2679,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" s="3" t="n">
         <v>44847</v>
       </c>
       <c r="B280" t="n">
@@ -2709,7 +2687,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="B281" t="n">
@@ -2717,7 +2695,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="B282" t="n">
@@ -2725,7 +2703,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" s="3" t="n">
         <v>44852</v>
       </c>
       <c r="B283" t="n">
@@ -2733,7 +2711,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" s="3" t="n">
         <v>44853</v>
       </c>
       <c r="B284" t="n">
@@ -2741,7 +2719,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="B285" t="n">
@@ -2749,7 +2727,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="B286" t="n">
@@ -2757,7 +2735,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="B287" t="n">
@@ -2765,7 +2743,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" s="3" t="n">
         <v>44859</v>
       </c>
       <c r="B288" t="n">
@@ -2773,7 +2751,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="B289" t="n">
@@ -2781,7 +2759,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="B290" t="n">
@@ -2789,7 +2767,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" s="3" t="n">
         <v>44862</v>
       </c>
       <c r="B291" t="n">
@@ -2797,7 +2775,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B292" t="n">
@@ -2805,7 +2783,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B293" t="n">
@@ -2813,7 +2791,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
+      <c r="A294" s="3" t="n">
         <v>44867</v>
       </c>
       <c r="B294" t="n">
@@ -2821,7 +2799,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" s="3" t="n">
         <v>44868</v>
       </c>
       <c r="B295" t="n">
@@ -2829,7 +2807,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" s="3" t="n">
         <v>44869</v>
       </c>
       <c r="B296" t="n">
@@ -2837,7 +2815,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="B297" t="n">
@@ -2845,7 +2823,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" s="3" t="n">
         <v>44873</v>
       </c>
       <c r="B298" t="n">
@@ -2853,7 +2831,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="B299" t="n">
@@ -2861,7 +2839,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" s="3" t="n">
         <v>44875</v>
       </c>
       <c r="B300" t="n">
@@ -2869,7 +2847,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" s="3" t="n">
         <v>44879</v>
       </c>
       <c r="B301" t="n">
@@ -2877,7 +2855,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" s="3" t="n">
         <v>44880</v>
       </c>
       <c r="B302" t="n">
@@ -2885,7 +2863,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" s="3" t="n">
         <v>44881</v>
       </c>
       <c r="B303" t="n">
@@ -2893,7 +2871,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" s="3" t="n">
         <v>44882</v>
       </c>
       <c r="B304" t="n">
@@ -2901,7 +2879,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" s="3" t="n">
         <v>44883</v>
       </c>
       <c r="B305" t="n">
@@ -2909,7 +2887,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" s="3" t="n">
         <v>44886</v>
       </c>
       <c r="B306" t="n">
@@ -2917,7 +2895,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="B307" t="n">
@@ -2925,7 +2903,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="B308" t="n">
@@ -2933,7 +2911,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" s="3" t="n">
         <v>44890</v>
       </c>
       <c r="B309" t="n">
@@ -2941,7 +2919,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" s="3" t="n">
         <v>44893</v>
       </c>
       <c r="B310" t="n">
@@ -2949,7 +2927,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" s="3" t="n">
         <v>44894</v>
       </c>
       <c r="B311" t="n">
@@ -2957,7 +2935,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B312" t="n">
@@ -2965,7 +2943,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B313" t="n">
@@ -2973,7 +2951,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
+      <c r="A314" s="3" t="n">
         <v>44897</v>
       </c>
       <c r="B314" t="n">
@@ -2981,7 +2959,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
+      <c r="A315" s="3" t="n">
         <v>44900</v>
       </c>
       <c r="B315" t="n">
@@ -2989,7 +2967,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
+      <c r="A316" s="3" t="n">
         <v>44901</v>
       </c>
       <c r="B316" t="n">
@@ -2997,7 +2975,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="B317" t="n">
@@ -3005,7 +2983,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="B318" t="n">
@@ -3013,7 +2991,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="B319" t="n">
@@ -3021,7 +2999,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="B320" t="n">
@@ -3029,7 +3007,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="B321" t="n">
@@ -3037,7 +3015,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="B322" t="n">
@@ -3045,7 +3023,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="B323" t="n">
@@ -3053,7 +3031,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" s="3" t="n">
         <v>44911</v>
       </c>
       <c r="B324" t="n">
@@ -3061,7 +3039,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" s="3" t="n">
         <v>44914</v>
       </c>
       <c r="B325" t="n">
@@ -3069,7 +3047,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" s="3" t="n">
         <v>44915</v>
       </c>
       <c r="B326" t="n">
@@ -3077,7 +3055,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="B327" t="n">
@@ -3085,7 +3063,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" s="3" t="n">
         <v>44917</v>
       </c>
       <c r="B328" t="n">
@@ -3093,7 +3071,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="n">
+      <c r="A329" s="3" t="n">
         <v>44918</v>
       </c>
       <c r="B329" t="n">
@@ -3101,7 +3079,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="B330" t="n">
@@ -3109,7 +3087,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="B331" t="n">
@@ -3117,7 +3095,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" s="3" t="n">
         <v>44924</v>
       </c>
       <c r="B332" t="n">
@@ -3125,7 +3103,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="B333" t="n">
@@ -3133,7 +3111,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="B334" t="n">
@@ -3141,7 +3119,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="B335" t="n">
@@ -3149,7 +3127,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="B336" t="n">
@@ -3157,7 +3135,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" s="3" t="n">
         <v>44932</v>
       </c>
       <c r="B337" t="n">
@@ -3165,7 +3143,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
+      <c r="A338" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="B338" t="n">
@@ -3173,7 +3151,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" s="3" t="n">
         <v>44936</v>
       </c>
       <c r="B339" t="n">
@@ -3181,7 +3159,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" s="3" t="n">
         <v>44937</v>
       </c>
       <c r="B340" t="n">
@@ -3189,7 +3167,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" s="3" t="n">
         <v>44938</v>
       </c>
       <c r="B341" t="n">
@@ -3197,7 +3175,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" s="3" t="n">
         <v>44939</v>
       </c>
       <c r="B342" t="n">
@@ -3205,7 +3183,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="B343" t="n">
@@ -3213,7 +3191,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" s="3" t="n">
         <v>44944</v>
       </c>
       <c r="B344" t="n">
@@ -3221,7 +3199,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" s="3" t="n">
         <v>44945</v>
       </c>
       <c r="B345" t="n">
@@ -3229,7 +3207,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="2" t="n">
+      <c r="A346" s="3" t="n">
         <v>44946</v>
       </c>
       <c r="B346" t="n">
@@ -3237,7 +3215,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" s="3" t="n">
         <v>44949</v>
       </c>
       <c r="B347" t="n">
@@ -3245,7 +3223,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" s="3" t="n">
         <v>44950</v>
       </c>
       <c r="B348" t="n">
@@ -3253,7 +3231,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" s="3" t="n">
         <v>44951</v>
       </c>
       <c r="B349" t="n">
@@ -3261,7 +3239,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" s="3" t="n">
         <v>44952</v>
       </c>
       <c r="B350" t="n">
@@ -3269,7 +3247,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" s="3" t="n">
         <v>44953</v>
       </c>
       <c r="B351" t="n">
@@ -3277,7 +3255,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
+      <c r="A352" s="3" t="n">
         <v>44956</v>
       </c>
       <c r="B352" t="n">
@@ -3285,7 +3263,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
+      <c r="A353" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B353" t="n">
@@ -3293,7 +3271,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
+      <c r="A354" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B354" t="n">
@@ -3301,7 +3279,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="2" t="n">
+      <c r="A355" s="3" t="n">
         <v>44959</v>
       </c>
       <c r="B355" t="n">
@@ -3309,7 +3287,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
+      <c r="A356" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="B356" t="n">
@@ -3317,7 +3295,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
+      <c r="A357" s="3" t="n">
         <v>44963</v>
       </c>
       <c r="B357" t="n">
@@ -3325,7 +3303,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
+      <c r="A358" s="3" t="n">
         <v>44964</v>
       </c>
       <c r="B358" t="n">
@@ -3333,7 +3311,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="n">
+      <c r="A359" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="B359" t="n">
@@ -3341,7 +3319,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="n">
+      <c r="A360" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="B360" t="n">
@@ -3349,7 +3327,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="n">
+      <c r="A361" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="B361" t="n">
@@ -3357,7 +3335,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
+      <c r="A362" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="B362" t="n">
@@ -3365,7 +3343,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
+      <c r="A363" s="3" t="n">
         <v>44971</v>
       </c>
       <c r="B363" t="n">
@@ -3373,7 +3351,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
+      <c r="A364" s="3" t="n">
         <v>44972</v>
       </c>
       <c r="B364" t="n">
@@ -3381,7 +3359,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
+      <c r="A365" s="3" t="n">
         <v>44973</v>
       </c>
       <c r="B365" t="n">
@@ -3389,7 +3367,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
+      <c r="A366" s="3" t="n">
         <v>44974</v>
       </c>
       <c r="B366" t="n">
@@ -3397,7 +3375,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
+      <c r="A367" s="3" t="n">
         <v>44978</v>
       </c>
       <c r="B367" t="n">
@@ -3405,7 +3383,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
+      <c r="A368" s="3" t="n">
         <v>44979</v>
       </c>
       <c r="B368" t="n">
@@ -3413,7 +3391,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
+      <c r="A369" s="3" t="n">
         <v>44980</v>
       </c>
       <c r="B369" t="n">
@@ -3421,7 +3399,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
+      <c r="A370" s="3" t="n">
         <v>44981</v>
       </c>
       <c r="B370" t="n">
@@ -3429,7 +3407,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
+      <c r="A371" s="3" t="n">
         <v>44984</v>
       </c>
       <c r="B371" t="n">
@@ -3437,7 +3415,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
+      <c r="A372" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B372" t="n">
@@ -3445,7 +3423,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
+      <c r="A373" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B373" t="n">
@@ -3453,7 +3431,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
+      <c r="A374" s="3" t="n">
         <v>44987</v>
       </c>
       <c r="B374" t="n">
@@ -3461,7 +3439,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="2" t="n">
+      <c r="A375" s="3" t="n">
         <v>44988</v>
       </c>
       <c r="B375" t="n">
@@ -3469,7 +3447,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" s="3" t="n">
         <v>44991</v>
       </c>
       <c r="B376" t="n">
@@ -3477,7 +3455,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" s="3" t="n">
         <v>44992</v>
       </c>
       <c r="B377" t="n">
@@ -3485,7 +3463,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
+      <c r="A378" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="B378" t="n">
@@ -3493,7 +3471,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
+      <c r="A379" s="3" t="n">
         <v>44994</v>
       </c>
       <c r="B379" t="n">
@@ -3501,7 +3479,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
+      <c r="A380" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="B380" t="n">
@@ -3509,7 +3487,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
+      <c r="A381" s="3" t="n">
         <v>44998</v>
       </c>
       <c r="B381" t="n">
@@ -3517,7 +3495,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
+      <c r="A382" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="B382" t="n">
@@ -3525,7 +3503,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
+      <c r="A383" s="3" t="n">
         <v>45000</v>
       </c>
       <c r="B383" t="n">
@@ -3533,7 +3511,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
+      <c r="A384" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="B384" t="n">
@@ -3541,7 +3519,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
+      <c r="A385" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="B385" t="n">
@@ -3549,7 +3527,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="2" t="n">
+      <c r="A386" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="B386" t="n">
@@ -3557,7 +3535,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" s="3" t="n">
         <v>45006</v>
       </c>
       <c r="B387" t="n">
@@ -3565,7 +3543,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="B388" t="n">
@@ -3573,7 +3551,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" s="3" t="n">
         <v>45008</v>
       </c>
       <c r="B389" t="n">
@@ -3581,7 +3559,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" s="3" t="n">
         <v>45009</v>
       </c>
       <c r="B390" t="n">
@@ -3589,7 +3567,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="B391" t="n">
@@ -3597,7 +3575,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" s="3" t="n">
         <v>45013</v>
       </c>
       <c r="B392" t="n">
@@ -3605,7 +3583,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="B393" t="n">
@@ -3613,7 +3591,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" s="3" t="n">
         <v>45015</v>
       </c>
       <c r="B394" t="n">
@@ -3621,7 +3599,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B395" t="n">
@@ -3629,7 +3607,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="n">
+      <c r="A396" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="B396" t="n">
@@ -3637,7 +3615,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" s="3" t="n">
         <v>45020</v>
       </c>
       <c r="B397" t="n">
@@ -3645,7 +3623,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" s="3" t="n">
         <v>45021</v>
       </c>
       <c r="B398" t="n">
@@ -3653,7 +3631,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" s="3" t="n">
         <v>45022</v>
       </c>
       <c r="B399" t="n">
@@ -3661,7 +3639,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
+      <c r="A400" s="3" t="n">
         <v>45026</v>
       </c>
       <c r="B400" t="n">
@@ -3669,7 +3647,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
+      <c r="A401" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="B401" t="n">
@@ -3677,7 +3655,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
+      <c r="A402" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="B402" t="n">
@@ -3685,7 +3663,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="n">
+      <c r="A403" s="3" t="n">
         <v>45029</v>
       </c>
       <c r="B403" t="n">
@@ -3693,7 +3671,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="n">
+      <c r="A404" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="B404" t="n">
@@ -3701,7 +3679,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="n">
+      <c r="A405" s="3" t="n">
         <v>45033</v>
       </c>
       <c r="B405" t="n">
@@ -3709,7 +3687,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="n">
+      <c r="A406" s="3" t="n">
         <v>45034</v>
       </c>
       <c r="B406" t="n">
@@ -3717,7 +3695,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="n">
+      <c r="A407" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="B407" t="n">
@@ -3725,7 +3703,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="B408" t="n">
@@ -3733,7 +3711,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" s="3" t="n">
         <v>45037</v>
       </c>
       <c r="B409" t="n">
@@ -3741,7 +3719,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="B410" t="n">
@@ -3749,7 +3727,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" s="3" t="n">
         <v>45041</v>
       </c>
       <c r="B411" t="n">
@@ -3757,7 +3735,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" s="3" t="n">
         <v>45042</v>
       </c>
       <c r="B412" t="n">
@@ -3765,7 +3743,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" s="3" t="n">
         <v>45043</v>
       </c>
       <c r="B413" t="n">
@@ -3773,7 +3751,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="2" t="n">
+      <c r="A414" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="B414" t="n">
@@ -3781,7 +3759,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="2" t="n">
+      <c r="A415" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B415" t="n">
@@ -3789,7 +3767,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="2" t="n">
+      <c r="A416" s="3" t="n">
         <v>45048</v>
       </c>
       <c r="B416" t="n">
@@ -3797,7 +3775,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="n">
+      <c r="A417" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="B417" t="n">
@@ -3805,7 +3783,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="n">
+      <c r="A418" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="B418" t="n">
@@ -3813,7 +3791,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="n">
+      <c r="A419" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="B419" t="n">
@@ -3821,7 +3799,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="2" t="n">
+      <c r="A420" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="B420" t="n">
@@ -3829,7 +3807,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="n">
+      <c r="A421" s="3" t="n">
         <v>45055</v>
       </c>
       <c r="B421" t="n">
@@ -3837,7 +3815,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="2" t="n">
+      <c r="A422" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="B422" t="n">
@@ -3845,7 +3823,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="2" t="n">
+      <c r="A423" s="3" t="n">
         <v>45057</v>
       </c>
       <c r="B423" t="n">
@@ -3853,7 +3831,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="2" t="n">
+      <c r="A424" s="3" t="n">
         <v>45058</v>
       </c>
       <c r="B424" t="n">
@@ -3861,7 +3839,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="2" t="n">
+      <c r="A425" s="3" t="n">
         <v>45061</v>
       </c>
       <c r="B425" t="n">
@@ -3869,7 +3847,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="n">
+      <c r="A426" s="3" t="n">
         <v>45062</v>
       </c>
       <c r="B426" t="n">
@@ -3877,7 +3855,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="n">
+      <c r="A427" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="B427" t="n">
@@ -3885,7 +3863,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="2" t="n">
+      <c r="A428" s="3" t="n">
         <v>45064</v>
       </c>
       <c r="B428" t="n">
@@ -3893,7 +3871,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="2" t="n">
+      <c r="A429" s="3" t="n">
         <v>45065</v>
       </c>
       <c r="B429" t="n">
@@ -3901,7 +3879,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="n">
+      <c r="A430" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="B430" t="n">
@@ -3909,7 +3887,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="n">
+      <c r="A431" s="3" t="n">
         <v>45069</v>
       </c>
       <c r="B431" t="n">
@@ -3917,7 +3895,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="2" t="n">
+      <c r="A432" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="B432" t="n">
@@ -3925,7 +3903,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
+      <c r="A433" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="B433" t="n">
@@ -3933,7 +3911,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
+      <c r="A434" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="B434" t="n">
@@ -3941,7 +3919,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
+      <c r="A435" s="3" t="n">
         <v>45076</v>
       </c>
       <c r="B435" t="n">
@@ -3949,7 +3927,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
+      <c r="A436" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B436" t="n">
@@ -3957,7 +3935,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B437" t="n">
@@ -3965,7 +3943,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" s="3" t="n">
         <v>45079</v>
       </c>
       <c r="B438" t="n">
@@ -3973,7 +3951,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="B439" t="n">
@@ -3981,7 +3959,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" s="3" t="n">
         <v>45083</v>
       </c>
       <c r="B440" t="n">
@@ -3989,7 +3967,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="B441" t="n">
@@ -3997,7 +3975,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" s="3" t="n">
         <v>45085</v>
       </c>
       <c r="B442" t="n">
@@ -4005,7 +3983,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" s="3" t="n">
         <v>45086</v>
       </c>
       <c r="B443" t="n">
@@ -4013,7 +3991,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="B444" t="n">
@@ -4021,7 +3999,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" s="3" t="n">
         <v>45090</v>
       </c>
       <c r="B445" t="n">
@@ -4029,7 +4007,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="2" t="n">
+      <c r="A446" s="3" t="n">
         <v>45091</v>
       </c>
       <c r="B446" t="n">
@@ -4037,7 +4015,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" s="3" t="n">
         <v>45092</v>
       </c>
       <c r="B447" t="n">
@@ -4045,7 +4023,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" s="3" t="n">
         <v>45093</v>
       </c>
       <c r="B448" t="n">
@@ -4053,7 +4031,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" s="3" t="n">
         <v>45097</v>
       </c>
       <c r="B449" t="n">
@@ -4061,7 +4039,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" s="3" t="n">
         <v>45098</v>
       </c>
       <c r="B450" t="n">
@@ -4069,7 +4047,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="2" t="n">
+      <c r="A451" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="B451" t="n">
@@ -4077,7 +4055,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="n">
+      <c r="A452" s="3" t="n">
         <v>45100</v>
       </c>
       <c r="B452" t="n">
@@ -4085,7 +4063,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="B453" t="n">
@@ -4093,7 +4071,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" s="3" t="n">
         <v>45104</v>
       </c>
       <c r="B454" t="n">
@@ -4101,7 +4079,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" s="3" t="n">
         <v>45105</v>
       </c>
       <c r="B455" t="n">
@@ -4109,7 +4087,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="B456" t="n">
@@ -4117,7 +4095,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B457" t="n">
@@ -4125,7 +4103,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="B458" t="n">
@@ -4133,7 +4111,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="B459" t="n">
@@ -4141,7 +4119,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="B460" t="n">
@@ -4149,7 +4127,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="B461" t="n">
@@ -4157,7 +4135,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="B462" t="n">
@@ -4165,7 +4143,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="2" t="n">
+      <c r="A463" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="B463" t="n">
@@ -4173,7 +4151,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="n">
+      <c r="A464" s="3" t="n">
         <v>45119</v>
       </c>
       <c r="B464" t="n">
@@ -4181,7 +4159,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="B465" t="n">
@@ -4189,7 +4167,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="B466" t="n">
@@ -4197,7 +4175,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="B467" t="n">
@@ -4205,7 +4183,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="B468" t="n">
@@ -4213,7 +4191,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="B469" t="n">
@@ -4221,7 +4199,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="B470" t="n">
@@ -4229,7 +4207,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" s="3" t="n">
         <v>45128</v>
       </c>
       <c r="B471" t="n">
@@ -4237,7 +4215,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="B472" t="n">
@@ -4245,7 +4223,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" s="3" t="n">
         <v>45132</v>
       </c>
       <c r="B473" t="n">
@@ -4253,7 +4231,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" s="3" t="n">
         <v>45133</v>
       </c>
       <c r="B474" t="n">
@@ -4261,7 +4239,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="2" t="n">
+      <c r="A475" s="3" t="n">
         <v>45134</v>
       </c>
       <c r="B475" t="n">
@@ -4269,7 +4247,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
+      <c r="A476" s="3" t="n">
         <v>45135</v>
       </c>
       <c r="B476" t="n">
@@ -4277,7 +4255,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
+      <c r="A477" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B477" t="n">
@@ -4285,7 +4263,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
+      <c r="A478" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B478" t="n">
@@ -4293,7 +4271,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
+      <c r="A479" s="3" t="n">
         <v>45140</v>
       </c>
       <c r="B479" t="n">
@@ -4301,7 +4279,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
+      <c r="A480" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="B480" t="n">
@@ -4309,7 +4287,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
+      <c r="A481" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="B481" t="n">
@@ -4317,7 +4295,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="n">
+      <c r="A482" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="B482" t="n">
@@ -4325,7 +4303,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="B483" t="n">
@@ -4333,7 +4311,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="B484" t="n">
@@ -4341,7 +4319,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
+      <c r="A485" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="B485" t="n">
@@ -4349,7 +4327,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
+      <c r="A486" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="B486" t="n">
@@ -4357,7 +4335,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
+      <c r="A487" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="B487" t="n">
@@ -4365,7 +4343,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
+      <c r="A488" s="3" t="n">
         <v>45153</v>
       </c>
       <c r="B488" t="n">
@@ -4373,7 +4351,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
+      <c r="A489" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="B489" t="n">
@@ -4381,7 +4359,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="B490" t="n">
@@ -4389,7 +4367,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="B491" t="n">
@@ -4397,7 +4375,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="B492" t="n">
@@ -4405,7 +4383,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="B493" t="n">
@@ -4413,7 +4391,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="B494" t="n">
@@ -4421,7 +4399,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" s="3" t="n">
         <v>45162</v>
       </c>
       <c r="B495" t="n">
@@ -4429,7 +4407,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="B496" t="n">
@@ -4437,7 +4415,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="n">
+      <c r="A497" s="3" t="n">
         <v>45166</v>
       </c>
       <c r="B497" t="n">
@@ -4445,7 +4423,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="2" t="n">
+      <c r="A498" s="3" t="n">
         <v>45167</v>
       </c>
       <c r="B498" t="n">
@@ -4453,7 +4431,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="2" t="n">
+      <c r="A499" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="B499" t="n">
@@ -4461,7 +4439,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="2" t="n">
+      <c r="A500" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B500" t="n">
@@ -4469,7 +4447,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="n">
+      <c r="A501" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B501" t="n">
@@ -4477,7 +4455,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="2" t="n">
+      <c r="A502" s="3" t="n">
         <v>45174</v>
       </c>
       <c r="B502" t="n">
@@ -4485,7 +4463,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="2" t="n">
+      <c r="A503" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="B503" t="n">
@@ -4493,7 +4471,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="2" t="n">
+      <c r="A504" s="3" t="n">
         <v>45176</v>
       </c>
       <c r="B504" t="n">
@@ -4501,7 +4479,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="2" t="n">
+      <c r="A505" s="3" t="n">
         <v>45177</v>
       </c>
       <c r="B505" t="n">
@@ -4509,7 +4487,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="2" t="n">
+      <c r="A506" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="B506" t="n">
@@ -4517,7 +4495,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="2" t="n">
+      <c r="A507" s="3" t="n">
         <v>45181</v>
       </c>
       <c r="B507" t="n">
@@ -4525,7 +4503,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="2" t="n">
+      <c r="A508" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="B508" t="n">
@@ -4533,7 +4511,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="2" t="n">
+      <c r="A509" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="B509" t="n">
@@ -4541,7 +4519,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="2" t="n">
+      <c r="A510" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="B510" t="n">
@@ -4549,7 +4527,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="2" t="n">
+      <c r="A511" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="B511" t="n">
@@ -4557,7 +4535,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="2" t="n">
+      <c r="A512" s="3" t="n">
         <v>45188</v>
       </c>
       <c r="B512" t="n">
@@ -4565,7 +4543,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="2" t="n">
+      <c r="A513" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="B513" t="n">
@@ -4573,7 +4551,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="2" t="n">
+      <c r="A514" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="B514" t="n">
@@ -4581,7 +4559,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="n">
+      <c r="A515" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="B515" t="n">
@@ -4589,7 +4567,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="2" t="n">
+      <c r="A516" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="B516" t="n">
@@ -4597,7 +4575,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="n">
+      <c r="A517" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="B517" t="n">
@@ -4605,7 +4583,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="2" t="n">
+      <c r="A518" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="B518" t="n">
@@ -4613,7 +4591,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="2" t="n">
+      <c r="A519" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="B519" t="n">
@@ -4621,7 +4599,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="2" t="n">
+      <c r="A520" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="B520" t="n">
@@ -4629,7 +4607,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="2" t="n">
+      <c r="A521" s="3" t="n">
         <v>45201</v>
       </c>
       <c r="B521" t="n">
@@ -4637,7 +4615,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="2" t="n">
+      <c r="A522" s="3" t="n">
         <v>45202</v>
       </c>
       <c r="B522" t="n">
@@ -4645,7 +4623,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="2" t="n">
+      <c r="A523" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="B523" t="n">
@@ -4653,7 +4631,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="2" t="n">
+      <c r="A524" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="B524" t="n">
@@ -4661,7 +4639,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="2" t="n">
+      <c r="A525" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="B525" t="n">
@@ -4669,7 +4647,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="2" t="n">
+      <c r="A526" s="3" t="n">
         <v>45209</v>
       </c>
       <c r="B526" t="n">
@@ -4677,7 +4655,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="n">
+      <c r="A527" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="B527" t="n">
@@ -4685,7 +4663,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="2" t="n">
+      <c r="A528" s="3" t="n">
         <v>45211</v>
       </c>
       <c r="B528" t="n">
@@ -4693,7 +4671,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="2" t="n">
+      <c r="A529" s="3" t="n">
         <v>45212</v>
       </c>
       <c r="B529" t="n">
@@ -4701,7 +4679,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="2" t="n">
+      <c r="A530" s="3" t="n">
         <v>45215</v>
       </c>
       <c r="B530" t="n">
@@ -4709,7 +4687,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="2" t="n">
+      <c r="A531" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="B531" t="n">
@@ -4717,7 +4695,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="2" t="n">
+      <c r="A532" s="3" t="n">
         <v>45217</v>
       </c>
       <c r="B532" t="n">
@@ -4725,7 +4703,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="2" t="n">
+      <c r="A533" s="3" t="n">
         <v>45218</v>
       </c>
       <c r="B533" t="n">
@@ -4733,7 +4711,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="2" t="n">
+      <c r="A534" s="3" t="n">
         <v>45219</v>
       </c>
       <c r="B534" t="n">
@@ -4741,7 +4719,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="2" t="n">
+      <c r="A535" s="3" t="n">
         <v>45222</v>
       </c>
       <c r="B535" t="n">
@@ -4749,7 +4727,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="2" t="n">
+      <c r="A536" s="3" t="n">
         <v>45223</v>
       </c>
       <c r="B536" t="n">
@@ -4757,7 +4735,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="2" t="n">
+      <c r="A537" s="3" t="n">
         <v>45224</v>
       </c>
       <c r="B537" t="n">
@@ -4765,7 +4743,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="n">
+      <c r="A538" s="3" t="n">
         <v>45225</v>
       </c>
       <c r="B538" t="n">
@@ -4773,7 +4751,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="n">
+      <c r="A539" s="3" t="n">
         <v>45226</v>
       </c>
       <c r="B539" t="n">
@@ -4781,7 +4759,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="n">
+      <c r="A540" s="3" t="n">
         <v>45229</v>
       </c>
       <c r="B540" t="n">
@@ -4789,7 +4767,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="2" t="n">
+      <c r="A541" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="B541" t="n">
@@ -4797,7 +4775,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="n">
+      <c r="A542" s="3" t="n">
         <v>45231</v>
       </c>
       <c r="B542" t="n">
@@ -4805,7 +4783,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="2" t="n">
+      <c r="A543" s="3" t="n">
         <v>45232</v>
       </c>
       <c r="B543" t="n">
@@ -4813,7 +4791,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="2" t="n">
+      <c r="A544" s="3" t="n">
         <v>45233</v>
       </c>
       <c r="B544" t="n">
@@ -4821,7 +4799,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="2" t="n">
+      <c r="A545" s="3" t="n">
         <v>45236</v>
       </c>
       <c r="B545" t="n">
@@ -4829,7 +4807,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="2" t="n">
+      <c r="A546" s="3" t="n">
         <v>45237</v>
       </c>
       <c r="B546" t="n">
@@ -4837,7 +4815,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="2" t="n">
+      <c r="A547" s="3" t="n">
         <v>45238</v>
       </c>
       <c r="B547" t="n">
@@ -4845,7 +4823,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="2" t="n">
+      <c r="A548" s="3" t="n">
         <v>45239</v>
       </c>
       <c r="B548" t="n">
@@ -4853,7 +4831,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="2" t="n">
+      <c r="A549" s="3" t="n">
         <v>45240</v>
       </c>
       <c r="B549" t="n">
@@ -4861,7 +4839,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="n">
+      <c r="A550" s="3" t="n">
         <v>45243</v>
       </c>
       <c r="B550" t="n">
@@ -4869,7 +4847,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="n">
+      <c r="A551" s="3" t="n">
         <v>45244</v>
       </c>
       <c r="B551" t="n">
@@ -4877,7 +4855,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="n">
+      <c r="A552" s="3" t="n">
         <v>45245</v>
       </c>
       <c r="B552" t="n">
@@ -4885,7 +4863,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="n">
+      <c r="A553" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="B553" t="n">
@@ -4893,7 +4871,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="n">
+      <c r="A554" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="B554" t="n">
@@ -4901,7 +4879,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="2" t="n">
+      <c r="A555" s="3" t="n">
         <v>45250</v>
       </c>
       <c r="B555" t="n">
@@ -4909,7 +4887,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="n">
+      <c r="A556" s="3" t="n">
         <v>45251</v>
       </c>
       <c r="B556" t="n">
@@ -4917,7 +4895,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="2" t="n">
+      <c r="A557" s="3" t="n">
         <v>45252</v>
       </c>
       <c r="B557" t="n">
@@ -4925,7 +4903,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="n">
+      <c r="A558" s="3" t="n">
         <v>45254</v>
       </c>
       <c r="B558" t="n">
@@ -4933,7 +4911,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="2" t="n">
+      <c r="A559" s="3" t="n">
         <v>45257</v>
       </c>
       <c r="B559" t="n">
@@ -4941,7 +4919,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="n">
+      <c r="A560" s="3" t="n">
         <v>45258</v>
       </c>
       <c r="B560" t="n">
@@ -4949,7 +4927,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="2" t="n">
+      <c r="A561" s="3" t="n">
         <v>45259</v>
       </c>
       <c r="B561" t="n">
@@ -4957,7 +4935,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="2" t="n">
+      <c r="A562" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="B562" t="n">
@@ -4965,7 +4943,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="2" t="n">
+      <c r="A563" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="B563" t="n">
@@ -4973,7 +4951,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="2" t="n">
+      <c r="A564" s="3" t="n">
         <v>45264</v>
       </c>
       <c r="B564" t="n">
@@ -4981,7 +4959,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="n">
+      <c r="A565" s="3" t="n">
         <v>45265</v>
       </c>
       <c r="B565" t="n">
@@ -4989,7 +4967,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="2" t="n">
+      <c r="A566" s="3" t="n">
         <v>45266</v>
       </c>
       <c r="B566" t="n">
@@ -4997,15 +4975,23 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="2" t="n">
+      <c r="A567" s="3" t="n">
         <v>45267</v>
       </c>
       <c r="B567" t="n">
         <v>825.734</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="3" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B568" t="n">
+        <v>821.408</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5024,14 +5010,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>RRPONTSYD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -5043,31 +5029,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>realtime_start</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>realtime_end</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -5079,7 +5065,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>observation_start</t>
         </is>
@@ -5091,19 +5077,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>observation_end</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
@@ -5115,7 +5101,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>frequency_short</t>
         </is>
@@ -5127,7 +5113,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -5139,7 +5125,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -5151,7 +5137,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>seasonal_adjustment</t>
         </is>
@@ -5163,7 +5149,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>seasonal_adjustment_short</t>
         </is>
@@ -5175,19 +5161,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-12-07 13:01:02-06</t>
+          <t>2023-12-08 13:01:02-06</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>popularity</t>
         </is>
@@ -5197,7 +5183,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
